--- a/Korrelation/DOE1_features_reduced_features.xlsx
+++ b/Korrelation/DOE1_features_reduced_features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O143"/>
+  <dimension ref="A1:Q143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,60 +451,70 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>global_maxima</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>global_minima</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>sd</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Trajectory_length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>peak_count</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>valley_count</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>slope_max</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>slope_min</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>slope_phase1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>slope_phase2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>slope_phase3</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>slope_phase4</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>mpv_holding_pressure</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>mpv_mold_temp</t>
         </is>
@@ -521,39 +531,45 @@
         <v>376.3958416951905</v>
       </c>
       <c r="D2" t="n">
+        <v>330.1269226074219</v>
+      </c>
+      <c r="E2" t="n">
         <v>-6.420981407165527</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>88.98228723289148</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>699.9385538413646</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2" t="n">
         <v>25</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>8139.010284727647</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>-871.6132365068861</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>570.3355622604438</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>-146.25993495232</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>-113.3001170221366</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>-5.807235088310748</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>100</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>300</v>
       </c>
     </row>
@@ -568,39 +584,45 @@
         <v>384.1003324183158</v>
       </c>
       <c r="D3" t="n">
+        <v>337.4118957519531</v>
+      </c>
+      <c r="E3" t="n">
         <v>-5.454953670501709</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>89.67683808094458</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>711.0271994405462</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>26</v>
+      </c>
+      <c r="I3" t="n">
         <v>25</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>8170.386369636105</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>-869.0302028957203</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>528.396582686112</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-153.1512269528407</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-110.2673876607696</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>-5.855350444051381</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>100</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>300</v>
       </c>
     </row>
@@ -615,39 +637,45 @@
         <v>374.6486231832199</v>
       </c>
       <c r="D4" t="n">
+        <v>334.4938354492188</v>
+      </c>
+      <c r="E4" t="n">
         <v>-7.224777698516846</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>89.55372559295535</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>707.0533776639942</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>36</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>36</v>
+      </c>
+      <c r="J4" t="n">
         <v>8536.109663074136</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>-862.9256487193497</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>501.1919877688842</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-157.2223113310812</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-111.9200650639043</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>-5.826227331115352</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>100</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>300</v>
       </c>
     </row>
@@ -662,39 +690,45 @@
         <v>380.9601535486726</v>
       </c>
       <c r="D5" t="n">
+        <v>335.5737609863281</v>
+      </c>
+      <c r="E5" t="n">
         <v>-5.621389389038086</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>89.6913028689101</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>707.4666676630343</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>25</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
         <v>9509.692020362223</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>-864.7726310839644</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>625.2057070152505</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-147.8285834349457</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-114.2125055486129</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>-5.798101402385579</v>
       </c>
-      <c r="N5" t="n">
-        <v>300</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q5" t="n">
         <v>75</v>
       </c>
     </row>
@@ -709,39 +743,45 @@
         <v>379.7740544091438</v>
       </c>
       <c r="D6" t="n">
+        <v>335.4924621582031</v>
+      </c>
+      <c r="E6" t="n">
         <v>-6.144172668457031</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>89.71097891108327</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>708.8938279496854</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>32</v>
+      </c>
+      <c r="I6" t="n">
         <v>31</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>9979.686625708033</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>-867.8673294915188</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>521.8425623113114</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-153.9158571100572</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-111.697099401873</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>-5.928024667066011</v>
       </c>
-      <c r="N6" t="n">
-        <v>300</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q6" t="n">
         <v>75</v>
       </c>
     </row>
@@ -756,39 +796,45 @@
         <v>378.5851724832788</v>
       </c>
       <c r="D7" t="n">
+        <v>334.6340026855469</v>
+      </c>
+      <c r="E7" t="n">
         <v>-6.287482261657715</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>88.78982373454812</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>705.8565551802949</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>22</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
+        <v>22</v>
+      </c>
+      <c r="J7" t="n">
         <v>9089.021079486489</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>-858.0871550384782</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>550.8202332741142</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-150.7353907633631</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-114.0968065330252</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>-5.650896263108319</v>
       </c>
-      <c r="N7" t="n">
-        <v>300</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q7" t="n">
         <v>75</v>
       </c>
     </row>
@@ -803,39 +849,45 @@
         <v>379.8373752051307</v>
       </c>
       <c r="D8" t="n">
+        <v>334.0460510253906</v>
+      </c>
+      <c r="E8" t="n">
         <v>-5.987197399139404</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>89.52097640263285</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>707.6502528806966</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
         <v>29</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>9418.437128648948</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>-869.8810444724104</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>587.9018373114565</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-152.8295319796938</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-109.7449260175141</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-6.212929444285858</v>
       </c>
-      <c r="N8" t="n">
-        <v>300</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q8" t="n">
         <v>75</v>
       </c>
     </row>
@@ -850,39 +902,45 @@
         <v>377.2264115491744</v>
       </c>
       <c r="D9" t="n">
+        <v>331.9847106933594</v>
+      </c>
+      <c r="E9" t="n">
         <v>-6.384891033172607</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>88.94337562005913</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>703.9870875444058</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>28</v>
+      </c>
+      <c r="I9" t="n">
         <v>27</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>8731.679542315258</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>-863.5070019210279</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>513.814278172175</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-144.7689499720203</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-113.4403771744666</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-5.990536247922262</v>
       </c>
-      <c r="N9" t="n">
-        <v>300</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q9" t="n">
         <v>75</v>
       </c>
     </row>
@@ -897,39 +955,45 @@
         <v>380.1624652551713</v>
       </c>
       <c r="D10" t="n">
+        <v>333.94091796875</v>
+      </c>
+      <c r="E10" t="n">
         <v>-6.035901546478271</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>88.75527395599974</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>706.8568007376876</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>26</v>
+      </c>
+      <c r="I10" t="n">
         <v>25</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>9664.385627164876</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>-861.5341396134954</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>606.0416594816359</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-151.1691316692375</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-110.4420225807369</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-7.035448850830278</v>
       </c>
-      <c r="N10" t="n">
-        <v>300</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q10" t="n">
         <v>75</v>
       </c>
     </row>
@@ -944,39 +1008,45 @@
         <v>378.1407820563495</v>
       </c>
       <c r="D11" t="n">
+        <v>337.4854736328125</v>
+      </c>
+      <c r="E11" t="n">
         <v>-6.460575103759766</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>89.21041307959095</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>712.9654383711618</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>28</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" t="n">
         <v>8347.04856810222</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>-882.7015919859523</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>517.3295476802277</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-156.3394893632393</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-112.4864602298268</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-5.895496354165112</v>
       </c>
-      <c r="N11" t="n">
-        <v>300</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q11" t="n">
         <v>75</v>
       </c>
     </row>
@@ -991,39 +1061,45 @@
         <v>379.5398968748785</v>
       </c>
       <c r="D12" t="n">
+        <v>338.3365783691406</v>
+      </c>
+      <c r="E12" t="n">
         <v>-6.206191539764404</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>90.09225294597755</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>711.0734540708776</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>29</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
+        <v>29</v>
+      </c>
+      <c r="J12" t="n">
         <v>9999.222135354586</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>-874.8435937386539</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>639.4458468838902</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-158.9764708695083</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-112.2213915534007</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>-5.566339898552551</v>
       </c>
-      <c r="N12" t="n">
-        <v>300</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q12" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1038,39 +1114,45 @@
         <v>380.3086536962759</v>
       </c>
       <c r="D13" t="n">
+        <v>335.2622680664062</v>
+      </c>
+      <c r="E13" t="n">
         <v>-5.916769027709961</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>89.77606568763484</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>709.1864830244266</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
+        <v>30</v>
+      </c>
+      <c r="I13" t="n">
         <v>31</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>9843.202658027971</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>-868.884932205392</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>622.3454612590695</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-149.2366775915229</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-112.5624284870549</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>-5.750159770226523</v>
       </c>
-      <c r="N13" t="n">
-        <v>300</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q13" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1085,39 +1167,45 @@
         <v>379.546079350521</v>
       </c>
       <c r="D14" t="n">
+        <v>328.32275390625</v>
+      </c>
+      <c r="E14" t="n">
         <v>-5.556567192077637</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>88.76054451003949</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>696.9744291083714</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>31</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
+        <v>31</v>
+      </c>
+      <c r="J14" t="n">
         <v>7760.446253496367</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>-861.0774999443274</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>556.5096903226649</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-136.963646280118</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-109.467271034616</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>-5.700345538861877</v>
       </c>
-      <c r="N14" t="n">
-        <v>300</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q14" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1132,39 +1220,45 @@
         <v>380.5196878722968</v>
       </c>
       <c r="D15" t="n">
+        <v>336.7244262695312</v>
+      </c>
+      <c r="E15" t="n">
         <v>-5.870867729187012</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>89.35808042803666</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>710.1729101888685</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>33</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
+        <v>33</v>
+      </c>
+      <c r="J15" t="n">
         <v>9249.522094850174</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>-860.8489410136044</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>599.2087474937098</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-154.9793790806934</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-112.6274648049971</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>-5.685048641552409</v>
       </c>
-      <c r="N15" t="n">
-        <v>300</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q15" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1179,39 +1273,45 @@
         <v>381.1328725861274</v>
       </c>
       <c r="D16" t="n">
+        <v>334.6981201171875</v>
+      </c>
+      <c r="E16" t="n">
         <v>-5.636806488037109</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>89.70435171163842</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>709.3850537161356</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>33</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
+        <v>33</v>
+      </c>
+      <c r="J16" t="n">
         <v>9377.607199197169</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>-854.1421521001348</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>589.9574243494872</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-151.4883172820129</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-112.2910952800361</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>-5.577158743569299</v>
       </c>
-      <c r="N16" t="n">
-        <v>300</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q16" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1226,39 +1326,45 @@
         <v>379.6479206568422</v>
       </c>
       <c r="D17" t="n">
+        <v>333.0810852050781</v>
+      </c>
+      <c r="E17" t="n">
         <v>-5.922024726867676</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>89.07277514542643</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>704.30418567589</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" t="n">
         <v>29</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>9616.457866736186</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>-869.0870320380855</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>531.983154217688</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-151.6686730638585</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-112.7867863589028</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>-5.817844180411178</v>
       </c>
-      <c r="N17" t="n">
-        <v>300</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q17" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1273,39 +1379,45 @@
         <v>396.5915524313885</v>
       </c>
       <c r="D18" t="n">
+        <v>414.8016662597656</v>
+      </c>
+      <c r="E18" t="n">
         <v>-6.225462913513184</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>101.0117286877209</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>855.4048701449033</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>30</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" t="n">
         <v>15513.09300974267</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>-868.988936017322</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>812.5550322705321</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-216.0564142168494</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-111.2038015360877</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>-5.260988182667463</v>
       </c>
-      <c r="N18" t="n">
-        <v>300</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q18" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1320,39 +1432,45 @@
         <v>398.4094783269704</v>
       </c>
       <c r="D19" t="n">
+        <v>425.6466064453125</v>
+      </c>
+      <c r="E19" t="n">
         <v>-6.322171211242676</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>101.7202989132468</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>878.5765553551125</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
+        <v>31</v>
+      </c>
+      <c r="I19" t="n">
         <v>30</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>14539.84894475924</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>-880.3254175329967</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>787.9291118829095</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-221.7633324870824</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-111.2493541597165</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>-5.696363092644398</v>
       </c>
-      <c r="N19" t="n">
-        <v>300</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q19" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1367,39 +1485,45 @@
         <v>394.1508902139047</v>
       </c>
       <c r="D20" t="n">
+        <v>421.004638671875</v>
+      </c>
+      <c r="E20" t="n">
         <v>-7.220572948455811</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>101.4661201903622</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>867.6360765027723</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
+        <v>29</v>
+      </c>
+      <c r="I20" t="n">
         <v>30</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>14342.82877421598</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>-873.2246536907651</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>781.2407171267357</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-217.1314200920301</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-109.9083163185215</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>-5.273689827845983</v>
       </c>
-      <c r="N20" t="n">
-        <v>300</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q20" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1414,39 +1538,45 @@
         <v>398.6783746354913</v>
       </c>
       <c r="D21" t="n">
+        <v>430.1712036132812</v>
+      </c>
+      <c r="E21" t="n">
         <v>-6.331281185150146</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>102.3776361203063</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>887.4527518633388</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" t="n">
         <v>29</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>10866.15060659224</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>-914.0473869366579</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>750.4320832720806</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-227.5870119666731</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-109.6716836241159</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>-5.267332001255483</v>
       </c>
-      <c r="N21" t="n">
-        <v>300</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q21" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1461,39 +1591,45 @@
         <v>398.3820751465883</v>
       </c>
       <c r="D22" t="n">
+        <v>434.8142395019531</v>
+      </c>
+      <c r="E22" t="n">
         <v>-6.525047302246094</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>102.0773041905688</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>894.6721026867707</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>34</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
+        <v>34</v>
+      </c>
+      <c r="J22" t="n">
         <v>13771.91749322019</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>-920.4537892181652</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>737.2407942398605</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-221.592056328476</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-110.7127993007713</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>-5.250439523051633</v>
       </c>
-      <c r="N22" t="n">
-        <v>300</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q22" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1508,39 +1644,45 @@
         <v>393.238160391036</v>
       </c>
       <c r="D23" t="n">
+        <v>423.2513427734375</v>
+      </c>
+      <c r="E23" t="n">
         <v>-7.374744892120361</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>102.0339442455397</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>872.9526682809563</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
+        <v>33</v>
+      </c>
+      <c r="I23" t="n">
         <v>32</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>14697.6300155781</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>-871.3261182852984</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>900.4033005721618</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-232.9822224150027</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-110.9005415027905</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>-5.700375168033468</v>
       </c>
-      <c r="N23" t="n">
-        <v>300</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q23" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1555,39 +1697,45 @@
         <v>397.0570484520444</v>
       </c>
       <c r="D24" t="n">
+        <v>427.8754577636719</v>
+      </c>
+      <c r="E24" t="n">
         <v>-6.563590049743652</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>102.521135629414</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>879.4792341377747</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>33</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
+        <v>33</v>
+      </c>
+      <c r="J24" t="n">
         <v>14587.43889534527</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>-872.6553448811319</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>857.9071958444225</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-229.3456901745145</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-111.9273641558116</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>-5.45457128939184</v>
       </c>
-      <c r="N24" t="n">
-        <v>300</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q24" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1602,39 +1750,45 @@
         <v>400.0889389877515</v>
       </c>
       <c r="D25" t="n">
+        <v>435.7711486816406</v>
+      </c>
+      <c r="E25" t="n">
         <v>-6.275568962097168</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>103.1134896685158</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>893.9711840475242</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
+        <v>33</v>
+      </c>
+      <c r="I25" t="n">
         <v>32</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>15923.30071377644</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>-944.2771942575055</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>974.6529624974709</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-235.8411888948091</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-113.0068970553792</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>-5.360364072771576</v>
       </c>
-      <c r="N25" t="n">
-        <v>300</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q25" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1649,39 +1803,45 @@
         <v>398.1073236668521</v>
       </c>
       <c r="D26" t="n">
+        <v>435.4382934570312</v>
+      </c>
+      <c r="E26" t="n">
         <v>-6.702695369720459</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>102.0291683975374</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>895.8605536701762</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
+        <v>30</v>
+      </c>
+      <c r="I26" t="n">
         <v>29</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>15490.77149088953</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>-936.1738936733418</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>958.5624842586378</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-239.8085885675593</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-111.5273909653746</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>-5.5290034260177</v>
       </c>
-      <c r="N26" t="n">
-        <v>300</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q26" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1696,39 +1856,45 @@
         <v>397.0248190908719</v>
       </c>
       <c r="D27" t="n">
+        <v>424.5758056640625</v>
+      </c>
+      <c r="E27" t="n">
         <v>-6.603885173797607</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>100.1994819814492</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>872.5084946168529</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>28</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
+        <v>28</v>
+      </c>
+      <c r="J27" t="n">
         <v>14639.10575302059</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>-872.5272764402553</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>797.6769628489222</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-214.3202965725737</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-112.1791867016846</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>-5.747702152287736</v>
       </c>
-      <c r="N27" t="n">
-        <v>300</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q27" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1743,39 +1909,45 @@
         <v>397.2673820370627</v>
       </c>
       <c r="D28" t="n">
+        <v>431.6694641113281</v>
+      </c>
+      <c r="E28" t="n">
         <v>-6.782584667205811</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>102.5035455165018</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>885.9163889932418</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
+        <v>33</v>
+      </c>
+      <c r="I28" t="n">
         <v>32</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>15166.35172408937</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>-897.2140586548412</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>853.3806469452064</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-232.1428861159424</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-112.4875629582494</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>-5.421724311911768</v>
       </c>
-      <c r="N28" t="n">
-        <v>300</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q28" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1790,39 +1962,45 @@
         <v>398.7515649293285</v>
       </c>
       <c r="D29" t="n">
+        <v>434.1239624023438</v>
+      </c>
+      <c r="E29" t="n">
         <v>-6.477744579315186</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>103.3014027465794</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>893.2497475691167</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>34</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
+        <v>34</v>
+      </c>
+      <c r="J29" t="n">
         <v>16771.32150880642</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>-968.1473047822365</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>948.8055568193282</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-241.3423869184182</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-108.5387326233928</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>-5.552444893573975</v>
       </c>
-      <c r="N29" t="n">
-        <v>300</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q29" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1837,39 +2015,45 @@
         <v>398.222533902198</v>
       </c>
       <c r="D30" t="n">
+        <v>431.7346496582031</v>
+      </c>
+      <c r="E30" t="n">
         <v>-6.561137676239014</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>101.8989796721448</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>888.9598544125048</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
+        <v>29</v>
+      </c>
+      <c r="I30" t="n">
         <v>28</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>16593.50340332101</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>-928.2561642199489</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>983.9453846972392</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-239.2362943766007</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-106.6878905043946</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>-5.519190021867214</v>
       </c>
-      <c r="N30" t="n">
-        <v>300</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q30" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1884,39 +2068,45 @@
         <v>399.190108854816</v>
       </c>
       <c r="D31" t="n">
+        <v>432.5832824707031</v>
+      </c>
+      <c r="E31" t="n">
         <v>-6.2822265625</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>102.2413330866413</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>890.0256396883258</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
+        <v>34</v>
+      </c>
+      <c r="I31" t="n">
         <v>33</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>14836.53921420403</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>-880.1598214159312</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>732.7258444095499</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-224.0342300521503</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-114.548824170595</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>-5.393819891742917</v>
       </c>
-      <c r="N31" t="n">
-        <v>300</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q31" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1931,39 +2121,45 @@
         <v>378.3832411203662</v>
       </c>
       <c r="D32" t="n">
+        <v>330.7278442382812</v>
+      </c>
+      <c r="E32" t="n">
         <v>-6.024338722229004</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>89.03237593424309</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>699.8975392972201</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
+        <v>33</v>
+      </c>
+      <c r="I32" t="n">
         <v>34</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>8347.105379943445</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>-865.4380317620762</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>569.3833142501525</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-136.4335017416845</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-107.1640080403647</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>-5.771491188935904</v>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>350</v>
       </c>
-      <c r="O32" t="n">
+      <c r="Q32" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1978,39 +2174,45 @@
         <v>440.1078738940747</v>
       </c>
       <c r="D33" t="n">
+        <v>354.4324951171875</v>
+      </c>
+      <c r="E33" t="n">
         <v>-5.780116558074951</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>100.1197531727976</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>747.8912658682801</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>30</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
+        <v>30</v>
+      </c>
+      <c r="J33" t="n">
         <v>9181.326983321527</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>-911.0973289807062</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>615.5136734310618</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-130.3360146409938</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-134.0706113047515</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>-5.937886700962325</v>
       </c>
-      <c r="N33" t="n">
+      <c r="P33" t="n">
         <v>350</v>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2025,39 +2227,45 @@
         <v>438.1025587969767</v>
       </c>
       <c r="D34" t="n">
+        <v>349.9895324707031</v>
+      </c>
+      <c r="E34" t="n">
         <v>-5.971079349517822</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>99.51643139988005</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>741.3677928728655</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
+        <v>36</v>
+      </c>
+      <c r="I34" t="n">
         <v>35</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>7589.461038181063</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>-926.4895383467679</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>556.5980844267758</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-126.0246144576175</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-137.2466362965219</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>-6.193342335585554</v>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>350</v>
       </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2072,39 +2280,45 @@
         <v>438.7655278593018</v>
       </c>
       <c r="D35" t="n">
+        <v>352.8143920898438</v>
+      </c>
+      <c r="E35" t="n">
         <v>-6.086007595062256</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>100.040675088119</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>748.3583957559742</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>31</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
+        <v>31</v>
+      </c>
+      <c r="J35" t="n">
         <v>9346.840808266314</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
         <v>-918.2817926004809</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>558.9716345706306</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-127.3933852092043</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-135.6861806124818</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>-6.11166737182162</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>350</v>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2119,39 +2333,45 @@
         <v>436.2971666712735</v>
       </c>
       <c r="D36" t="n">
+        <v>353.8960266113281</v>
+      </c>
+      <c r="E36" t="n">
         <v>-6.630164623260498</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>99.65537171927785</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>746.990110247443</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
+        <v>29</v>
+      </c>
+      <c r="I36" t="n">
         <v>28</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>7897.512084251266</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
         <v>-909.5604855059964</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>523.3844188836574</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-145.9175922941882</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-135.0004685744518</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>-5.790800915401721</v>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>350</v>
       </c>
-      <c r="O36" t="n">
+      <c r="Q36" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2166,39 +2386,45 @@
         <v>439.3881065475204</v>
       </c>
       <c r="D37" t="n">
+        <v>352.9888610839844</v>
+      </c>
+      <c r="E37" t="n">
         <v>-5.860355854034424</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>100.2619291138106</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>746.4157171715337</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>32</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
+        <v>32</v>
+      </c>
+      <c r="J37" t="n">
         <v>8646.86503526599</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37" t="n">
         <v>-915.1467804903505</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>619.7390408393372</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-121.8848527214627</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-131.2305153980067</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>-5.994578686657902</v>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>350</v>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2213,39 +2439,45 @@
         <v>438.3661016268911</v>
       </c>
       <c r="D38" t="n">
+        <v>352.3147277832031</v>
+      </c>
+      <c r="E38" t="n">
         <v>-6.117542743682861</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>99.04423375444495</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>744.996999303595</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>30</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
+        <v>30</v>
+      </c>
+      <c r="J38" t="n">
         <v>8677.567095148301</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
         <v>-903.9126596466513</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>574.6080160792569</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-115.0711117572374</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-131.1262978904199</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38" t="n">
         <v>-5.933905064481225</v>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>350</v>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2260,39 +2492,45 @@
         <v>437.4279970996253</v>
       </c>
       <c r="D39" t="n">
+        <v>355.270263671875</v>
+      </c>
+      <c r="E39" t="n">
         <v>-6.884898662567139</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>99.95191728683784</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>750.5144329832815</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
+        <v>28</v>
+      </c>
+      <c r="I39" t="n">
         <v>27</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>9260.268936346631</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39" t="n">
         <v>-917.7832442218669</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>555.124826993222</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-142.8967108494855</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-134.0219731828297</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>-7.381133494440876</v>
       </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>350</v>
       </c>
-      <c r="O39" t="n">
+      <c r="Q39" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2307,39 +2545,45 @@
         <v>438.0269704988298</v>
       </c>
       <c r="D40" t="n">
+        <v>357.1028137207031</v>
+      </c>
+      <c r="E40" t="n">
         <v>-6.406615257263184</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>99.6770128416335</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>749.6453180620641</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>33</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>33</v>
+      </c>
+      <c r="J40" t="n">
         <v>9427.570122882538</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
         <v>-917.7014020240877</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>588.8866509148761</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-138.5726065248793</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-132.7746783651797</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>-6.027185202806825</v>
       </c>
-      <c r="N40" t="n">
+      <c r="P40" t="n">
         <v>350</v>
       </c>
-      <c r="O40" t="n">
+      <c r="Q40" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2354,39 +2598,45 @@
         <v>438.5982551744842</v>
       </c>
       <c r="D41" t="n">
+        <v>358.5712890625</v>
+      </c>
+      <c r="E41" t="n">
         <v>-6.549924850463867</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>100.9719188796224</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>755.5074917111608</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
+        <v>32</v>
+      </c>
+      <c r="I41" t="n">
         <v>31</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>8499.259720462745</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41" t="n">
         <v>-918.1373624546295</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>584.156758499165</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-149.9347456622648</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-138.2092690394027</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>-6.046686750807397</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>350</v>
       </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2401,39 +2651,45 @@
         <v>437.2281485679004</v>
       </c>
       <c r="D42" t="n">
+        <v>357.0285339355469</v>
+      </c>
+      <c r="E42" t="n">
         <v>-6.973196983337402</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>99.89765009237198</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>749.1929219702832</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>29</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
+        <v>29</v>
+      </c>
+      <c r="J42" t="n">
         <v>7053.469728999066</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42" t="n">
         <v>-913.9635216560764</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>488.7192140754869</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-150.261704394163</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-135.2656173394905</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>-5.726236051083514</v>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>350</v>
       </c>
-      <c r="O42" t="n">
+      <c r="Q42" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2448,39 +2704,45 @@
         <v>440.1195424424274</v>
       </c>
       <c r="D43" t="n">
+        <v>358.6256103515625</v>
+      </c>
+      <c r="E43" t="n">
         <v>-6.127003192901611</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>101.0571698719124</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>754.0440766256178</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>34</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
+        <v>34</v>
+      </c>
+      <c r="J43" t="n">
         <v>9020.721110520957</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43" t="n">
         <v>-913.5896703553453</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>644.2200389612757</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-137.3332503440416</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-133.8272280054601</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
         <v>-6.206266560418089</v>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>350</v>
       </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2495,39 +2757,45 @@
         <v>433.8043611396944</v>
       </c>
       <c r="D44" t="n">
+        <v>354.0144653320312</v>
+      </c>
+      <c r="E44" t="n">
         <v>-7.370189666748047</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>99.80566027367213</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>746.3581320855162</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>30</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
+        <v>30</v>
+      </c>
+      <c r="J44" t="n">
         <v>8021.37493397903</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44" t="n">
         <v>-914.5033932009665</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>550.7281614551887</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-126.6432890927073</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-133.8611695829073</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
         <v>-6.35118905608915</v>
       </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>350</v>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2542,39 +2810,45 @@
         <v>438.3381595550007</v>
       </c>
       <c r="D45" t="n">
+        <v>355.8396606445312</v>
+      </c>
+      <c r="E45" t="n">
         <v>-6.397154808044434</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>99.90637838831528</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>748.0507322688713</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
+        <v>35</v>
+      </c>
+      <c r="I45" t="n">
         <v>34</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J45" t="n">
         <v>7964.372666415293</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45" t="n">
         <v>-919.341108917225</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>566.6094648650829</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-143.8231470315788</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-132.2778844215216</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>-6.037227472414973</v>
       </c>
-      <c r="N45" t="n">
+      <c r="P45" t="n">
         <v>350</v>
       </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2589,39 +2863,45 @@
         <v>437.2846686727933</v>
       </c>
       <c r="D46" t="n">
+        <v>353.3673095703125</v>
+      </c>
+      <c r="E46" t="n">
         <v>-6.395402431488037</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>99.24275226684287</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>747.5242670834141</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>29</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
+        <v>29</v>
+      </c>
+      <c r="J46" t="n">
         <v>8549.253902235207</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46" t="n">
         <v>-913.963197776663</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>560.0064789159563</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-134.8314154194876</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-132.7789099523276</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>-6.023956273524581</v>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>350</v>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2636,39 +2916,45 @@
         <v>435.4139184938207</v>
       </c>
       <c r="D47" t="n">
+        <v>352.1097412109375</v>
+      </c>
+      <c r="E47" t="n">
         <v>-6.557983875274658</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>99.70954024420465</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>742.4492546193749</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>33</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
+        <v>33</v>
+      </c>
+      <c r="J47" t="n">
         <v>8240.28451699674</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47" t="n">
         <v>-924.7179733518697</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>590.9186882219171</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-136.9683469366405</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-133.6552945831035</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47" t="n">
         <v>-6.260321812249665</v>
       </c>
-      <c r="N47" t="n">
+      <c r="P47" t="n">
         <v>350</v>
       </c>
-      <c r="O47" t="n">
+      <c r="Q47" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2683,39 +2969,45 @@
         <v>433.7803957342984</v>
       </c>
       <c r="D48" t="n">
+        <v>356.3235473632812</v>
+      </c>
+      <c r="E48" t="n">
         <v>-7.317280769348145</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>100.716850796093</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>753.2087809305193</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
+        <v>33</v>
+      </c>
+      <c r="I48" t="n">
         <v>32</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>9142.565789286629</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48" t="n">
         <v>-910.1829987844676</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>543.1671582511491</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-147.6128821749491</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-132.9394194981567</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48" t="n">
         <v>-5.84008392649483</v>
       </c>
-      <c r="N48" t="n">
+      <c r="P48" t="n">
         <v>350</v>
       </c>
-      <c r="O48" t="n">
+      <c r="Q48" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2730,39 +3022,45 @@
         <v>372.0726464917182</v>
       </c>
       <c r="D49" t="n">
+        <v>330.5487976074219</v>
+      </c>
+      <c r="E49" t="n">
         <v>-7.832005023956299</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>88.91798222047639</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>702.2038949453768</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
+        <v>29</v>
+      </c>
+      <c r="I49" t="n">
         <v>30</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>8473.289174395242</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49" t="n">
         <v>-864.711473899255</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>569.8127267771348</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-147.9244488927398</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-112.297273603035</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49" t="n">
         <v>-6.206006509922058</v>
       </c>
-      <c r="N49" t="n">
+      <c r="P49" t="n">
         <v>350</v>
       </c>
-      <c r="O49" t="n">
+      <c r="Q49" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2777,39 +3075,45 @@
         <v>383.2056935165926</v>
       </c>
       <c r="D50" t="n">
+        <v>336.1809692382812</v>
+      </c>
+      <c r="E50" t="n">
         <v>-7.065700054168701</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>89.77140925596585</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>713.0554924036095</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
+        <v>30</v>
+      </c>
+      <c r="I50" t="n">
         <v>29</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>9268.681235240656</v>
       </c>
-      <c r="I50" t="n">
+      <c r="K50" t="n">
         <v>-881.3710829413408</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>605.8524248404997</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-145.2663694536314</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-114.9751874872893</v>
       </c>
-      <c r="M50" t="n">
+      <c r="O50" t="n">
         <v>-6.663751840307719</v>
       </c>
-      <c r="N50" t="n">
+      <c r="P50" t="n">
         <v>350</v>
       </c>
-      <c r="O50" t="n">
+      <c r="Q50" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2824,39 +3128,45 @@
         <v>426.7829441539649</v>
       </c>
       <c r="D51" t="n">
+        <v>349.1170654296875</v>
+      </c>
+      <c r="E51" t="n">
         <v>-0.02389666065573692</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>91.70457522145099</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>720.6371354915872</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
+        <v>29</v>
+      </c>
+      <c r="I51" t="n">
         <v>28</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>9087.164578264619</v>
       </c>
-      <c r="I51" t="n">
+      <c r="K51" t="n">
         <v>-867.3689266449246</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>670.7372705600983</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-159.5155916515007</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-112.5843660001759</v>
       </c>
-      <c r="M51" t="n">
+      <c r="O51" t="n">
         <v>-6.716682193479956</v>
       </c>
-      <c r="N51" t="n">
+      <c r="P51" t="n">
         <v>350</v>
       </c>
-      <c r="O51" t="n">
+      <c r="Q51" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2871,39 +3181,45 @@
         <v>446.7004752369903</v>
       </c>
       <c r="D52" t="n">
+        <v>348.5862121582031</v>
+      </c>
+      <c r="E52" t="n">
         <v>-0.04912479594349861</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>90.73650964894371</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>720.3855121779337</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
+        <v>21</v>
+      </c>
+      <c r="I52" t="n">
         <v>22</v>
       </c>
-      <c r="H52" t="n">
+      <c r="J52" t="n">
         <v>8180.756088091922</v>
       </c>
-      <c r="I52" t="n">
+      <c r="K52" t="n">
         <v>-881.0929532649761</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>536.5759292823132</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-143.7618845088811</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-114.3524542118201</v>
       </c>
-      <c r="M52" t="n">
+      <c r="O52" t="n">
         <v>-6.888404603638312</v>
       </c>
-      <c r="N52" t="n">
+      <c r="P52" t="n">
         <v>350</v>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2918,39 +3234,45 @@
         <v>477.3058058442412</v>
       </c>
       <c r="D53" t="n">
+        <v>354.2734069824219</v>
+      </c>
+      <c r="E53" t="n">
         <v>-0.0445697158575058</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>90.66711485538394</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>719.4125562027027</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
+        <v>26</v>
+      </c>
+      <c r="I53" t="n">
         <v>27</v>
       </c>
-      <c r="H53" t="n">
+      <c r="J53" t="n">
         <v>8590.300463846812</v>
       </c>
-      <c r="I53" t="n">
+      <c r="K53" t="n">
         <v>-906.1353734848426</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>595.7392678478437</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-142.2701913431912</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-113.6896276649247</v>
       </c>
-      <c r="M53" t="n">
+      <c r="O53" t="n">
         <v>-7.772575098628137</v>
       </c>
-      <c r="N53" t="n">
+      <c r="P53" t="n">
         <v>350</v>
       </c>
-      <c r="O53" t="n">
+      <c r="Q53" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2965,39 +3287,45 @@
         <v>488.0361198600654</v>
       </c>
       <c r="D54" t="n">
+        <v>356.7821960449219</v>
+      </c>
+      <c r="E54" t="n">
         <v>-0.003573994152247906</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>91.18491672715318</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>724.5317790332405</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
+        <v>30</v>
+      </c>
+      <c r="I54" t="n">
         <v>29</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J54" t="n">
         <v>9382.348893828508</v>
       </c>
-      <c r="I54" t="n">
+      <c r="K54" t="n">
         <v>-937.8806134451715</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>510.7578747851714</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-151.8401756033101</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-117.29247046638</v>
       </c>
-      <c r="M54" t="n">
+      <c r="O54" t="n">
         <v>-7.052191318231137</v>
       </c>
-      <c r="N54" t="n">
+      <c r="P54" t="n">
         <v>350</v>
       </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3012,39 +3340,45 @@
         <v>499.8724989798741</v>
       </c>
       <c r="D55" t="n">
+        <v>359.5205078125</v>
+      </c>
+      <c r="E55" t="n">
         <v>-0.04421932622790337</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>91.27456578112766</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>728.4772251257847</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
+        <v>22</v>
+      </c>
+      <c r="I55" t="n">
         <v>21</v>
       </c>
-      <c r="H55" t="n">
+      <c r="J55" t="n">
         <v>9288.620509217291</v>
       </c>
-      <c r="I55" t="n">
+      <c r="K55" t="n">
         <v>-956.6584688706644</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>588.0650518651228</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-149.8306381957389</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-116.6220449866495</v>
       </c>
-      <c r="M55" t="n">
+      <c r="O55" t="n">
         <v>-7.181564380571164</v>
       </c>
-      <c r="N55" t="n">
+      <c r="P55" t="n">
         <v>350</v>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3059,39 +3393,45 @@
         <v>507.6779301160148</v>
       </c>
       <c r="D56" t="n">
+        <v>365.1512756347656</v>
+      </c>
+      <c r="E56" t="n">
         <v>-0.04632167145609856</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>91.99967559385107</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>734.2770033469925</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>22</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
+        <v>22</v>
+      </c>
+      <c r="J56" t="n">
         <v>9799.194388695994</v>
       </c>
-      <c r="I56" t="n">
+      <c r="K56" t="n">
         <v>-950.2369133334141</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>516.6331745707668</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-157.3889457154807</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-114.1564066510141</v>
       </c>
-      <c r="M56" t="n">
+      <c r="O56" t="n">
         <v>-6.428940479787491</v>
       </c>
-      <c r="N56" t="n">
+      <c r="P56" t="n">
         <v>350</v>
       </c>
-      <c r="O56" t="n">
+      <c r="Q56" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3106,39 +3446,45 @@
         <v>503.1005714782225</v>
       </c>
       <c r="D57" t="n">
+        <v>365.9841613769531</v>
+      </c>
+      <c r="E57" t="n">
         <v>-0.05332948639988899</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>92.80434692959955</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>734.4174291430811</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
+        <v>18</v>
+      </c>
+      <c r="I57" t="n">
         <v>17</v>
       </c>
-      <c r="H57" t="n">
+      <c r="J57" t="n">
         <v>9605.317367200398</v>
       </c>
-      <c r="I57" t="n">
+      <c r="K57" t="n">
         <v>-972.3718700264926</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>643.5927274294212</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-148.7323691762603</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-113.4443947520628</v>
       </c>
-      <c r="M57" t="n">
+      <c r="O57" t="n">
         <v>-6.858513291603836</v>
       </c>
-      <c r="N57" t="n">
+      <c r="P57" t="n">
         <v>350</v>
       </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3153,39 +3499,45 @@
         <v>505.4659775134465</v>
       </c>
       <c r="D58" t="n">
+        <v>367.0335998535156</v>
+      </c>
+      <c r="E58" t="n">
         <v>-0.0214439257979393</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>92.78535593943455</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>734.8677462088585</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
+        <v>16</v>
+      </c>
+      <c r="I58" t="n">
         <v>15</v>
       </c>
-      <c r="H58" t="n">
+      <c r="J58" t="n">
         <v>9168.45184703849</v>
       </c>
-      <c r="I58" t="n">
+      <c r="K58" t="n">
         <v>-978.1422626711928</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>602.0046528779616</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-153.2075012139968</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-112.1511409785085</v>
       </c>
-      <c r="M58" t="n">
+      <c r="O58" t="n">
         <v>-8.18547377458135</v>
       </c>
-      <c r="N58" t="n">
+      <c r="P58" t="n">
         <v>350</v>
       </c>
-      <c r="O58" t="n">
+      <c r="Q58" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3200,39 +3552,45 @@
         <v>500.8369069673532</v>
       </c>
       <c r="D59" t="n">
+        <v>361.9014282226562</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.0009810859337449074</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>92.31441398005077</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>730.8209127622499</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
+        <v>21</v>
+      </c>
+      <c r="I59" t="n">
         <v>20</v>
       </c>
-      <c r="H59" t="n">
+      <c r="J59" t="n">
         <v>9282.56798520853</v>
       </c>
-      <c r="I59" t="n">
+      <c r="K59" t="n">
         <v>-977.9166566346039</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>624.3895935375173</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-142.2599547930383</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-111.1124185383037</v>
       </c>
-      <c r="M59" t="n">
+      <c r="O59" t="n">
         <v>-6.877884414414384</v>
       </c>
-      <c r="N59" t="n">
+      <c r="P59" t="n">
         <v>350</v>
       </c>
-      <c r="O59" t="n">
+      <c r="Q59" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3247,39 +3605,45 @@
         <v>495.5598665760585</v>
       </c>
       <c r="D60" t="n">
+        <v>368.3507080078125</v>
+      </c>
+      <c r="E60" t="n">
         <v>-0.01723923534154892</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>93.7227665655823</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>743.4282450258663</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
+        <v>21</v>
+      </c>
+      <c r="I60" t="n">
         <v>20</v>
       </c>
-      <c r="H60" t="n">
+      <c r="J60" t="n">
         <v>10274.10722550625</v>
       </c>
-      <c r="I60" t="n">
+      <c r="K60" t="n">
         <v>-991.245444490949</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>656.3948415525329</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-157.0473972956463</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-115.0686994915829</v>
       </c>
-      <c r="M60" t="n">
+      <c r="O60" t="n">
         <v>-7.096400377658404</v>
       </c>
-      <c r="N60" t="n">
+      <c r="P60" t="n">
         <v>350</v>
       </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3294,39 +3658,45 @@
         <v>487.8528709922335</v>
       </c>
       <c r="D61" t="n">
+        <v>363.6421508789062</v>
+      </c>
+      <c r="E61" t="n">
         <v>-0.0137353278696537</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>92.44238980854746</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>736.7639367779119</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>24</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
+        <v>24</v>
+      </c>
+      <c r="J61" t="n">
         <v>9783.096902544232</v>
       </c>
-      <c r="I61" t="n">
+      <c r="K61" t="n">
         <v>-984.4147556080907</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>644.9252075221513</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-132.0541909141645</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-107.4627552500582</v>
       </c>
-      <c r="M61" t="n">
+      <c r="O61" t="n">
         <v>-7.210150983012166</v>
       </c>
-      <c r="N61" t="n">
+      <c r="P61" t="n">
         <v>350</v>
       </c>
-      <c r="O61" t="n">
+      <c r="Q61" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3341,39 +3711,45 @@
         <v>483.3451877088822</v>
       </c>
       <c r="D62" t="n">
+        <v>367.9446105957031</v>
+      </c>
+      <c r="E62" t="n">
         <v>-0.0368611179292202</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>93.21079343543839</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>745.8112878218312</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>21</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
+        <v>21</v>
+      </c>
+      <c r="J62" t="n">
         <v>8527.557343658253</v>
       </c>
-      <c r="I62" t="n">
+      <c r="K62" t="n">
         <v>-993.9246648924982</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>546.2296734956295</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-165.692298292232</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-114.2092849820573</v>
       </c>
-      <c r="M62" t="n">
+      <c r="O62" t="n">
         <v>-6.949406609978533</v>
       </c>
-      <c r="N62" t="n">
+      <c r="P62" t="n">
         <v>350</v>
       </c>
-      <c r="O62" t="n">
+      <c r="Q62" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3388,39 +3764,45 @@
         <v>477.8582479085009</v>
       </c>
       <c r="D63" t="n">
+        <v>363.1982116699219</v>
+      </c>
+      <c r="E63" t="n">
         <v>-0.02529822289943695</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>92.58914665527671</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>736.1852008566602</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
+        <v>23</v>
+      </c>
+      <c r="I63" t="n">
         <v>22</v>
       </c>
-      <c r="H63" t="n">
+      <c r="J63" t="n">
         <v>10212.36694367767</v>
       </c>
-      <c r="I63" t="n">
+      <c r="K63" t="n">
         <v>-983.2313250418356</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>627.6853936651274</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-150.3007687901231</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-114.191674834618</v>
       </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>-7.257069723296398</v>
       </c>
-      <c r="N63" t="n">
-        <v>300</v>
-      </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q63" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3435,39 +3817,45 @@
         <v>477.2198450059499</v>
       </c>
       <c r="D64" t="n">
+        <v>355.1626892089844</v>
+      </c>
+      <c r="E64" t="n">
         <v>-0.02705017849802971</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>91.74316740618488</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>723.408522096046</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
+        <v>21</v>
+      </c>
+      <c r="I64" t="n">
         <v>20</v>
       </c>
-      <c r="H64" t="n">
+      <c r="J64" t="n">
         <v>8587.155787860349</v>
       </c>
-      <c r="I64" t="n">
+      <c r="K64" t="n">
         <v>-979.2437964811606</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>531.0940317372608</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-144.0220306358553</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-114.8970114487609</v>
       </c>
-      <c r="M64" t="n">
+      <c r="O64" t="n">
         <v>-7.046374758887866</v>
       </c>
-      <c r="N64" t="n">
-        <v>300</v>
-      </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q64" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3482,39 +3870,45 @@
         <v>475.4872738775119</v>
       </c>
       <c r="D65" t="n">
+        <v>360.3176574707031</v>
+      </c>
+      <c r="E65" t="n">
         <v>-0.01899118907749653</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>92.19028796592079</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>732.3379840617948</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
+        <v>20</v>
+      </c>
+      <c r="I65" t="n">
         <v>19</v>
       </c>
-      <c r="H65" t="n">
+      <c r="J65" t="n">
         <v>9162.386704602512</v>
       </c>
-      <c r="I65" t="n">
+      <c r="K65" t="n">
         <v>-1012.674130955643</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>629.4857419599883</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-134.1678394706128</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-117.6854662840998</v>
       </c>
-      <c r="M65" t="n">
+      <c r="O65" t="n">
         <v>-7.301530304444183</v>
       </c>
-      <c r="N65" t="n">
-        <v>300</v>
-      </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q65" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3529,39 +3923,45 @@
         <v>472.4013879439174</v>
       </c>
       <c r="D66" t="n">
+        <v>352.3627319335938</v>
+      </c>
+      <c r="E66" t="n">
         <v>-0.02074314281344414</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>91.19236919844141</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>716.911033296795</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
+        <v>20</v>
+      </c>
+      <c r="I66" t="n">
         <v>19</v>
       </c>
-      <c r="H66" t="n">
+      <c r="J66" t="n">
         <v>8253.914506655889</v>
       </c>
-      <c r="I66" t="n">
+      <c r="K66" t="n">
         <v>-980.1586168592958</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>539.4246488742871</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-138.6380240256066</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-109.3959448406439</v>
       </c>
-      <c r="M66" t="n">
+      <c r="O66" t="n">
         <v>-8.737270255124356</v>
       </c>
-      <c r="N66" t="n">
-        <v>300</v>
-      </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q66" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3576,39 +3976,45 @@
         <v>467.6549735235703</v>
       </c>
       <c r="D67" t="n">
+        <v>357.0330810546875</v>
+      </c>
+      <c r="E67" t="n">
         <v>-0.01058181002736092</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>91.34765315374214</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>731.7863028940167</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
+        <v>22</v>
+      </c>
+      <c r="I67" t="n">
         <v>21</v>
       </c>
-      <c r="H67" t="n">
+      <c r="J67" t="n">
         <v>9568.144861777881</v>
       </c>
-      <c r="I67" t="n">
+      <c r="K67" t="n">
         <v>-1002.811856749126</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>594.7291689983113</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-153.0192665770835</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-115.4603683811557</v>
       </c>
-      <c r="M67" t="n">
+      <c r="O67" t="n">
         <v>-6.956307885034553</v>
       </c>
-      <c r="N67" t="n">
-        <v>300</v>
-      </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q67" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3623,39 +4029,45 @@
         <v>470.1182016833529</v>
       </c>
       <c r="D68" t="n">
+        <v>359.8172912597656</v>
+      </c>
+      <c r="E68" t="n">
         <v>-0.01303454581648111</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>91.76170135905677</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>735.1319278826569</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>18</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
+        <v>18</v>
+      </c>
+      <c r="J68" t="n">
         <v>9628.146110573398</v>
       </c>
-      <c r="I68" t="n">
+      <c r="K68" t="n">
         <v>-1007.567153923775</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>621.9303765983152</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-157.7343748858821</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-116.7816814770954</v>
       </c>
-      <c r="M68" t="n">
+      <c r="O68" t="n">
         <v>-7.489796285216533</v>
       </c>
-      <c r="N68" t="n">
-        <v>300</v>
-      </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q68" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3670,39 +4082,45 @@
         <v>463.8366478021496</v>
       </c>
       <c r="D69" t="n">
+        <v>356.1535949707031</v>
+      </c>
+      <c r="E69" t="n">
         <v>-0.02669978700578213</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>91.5897607116552</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>728.9486001554765</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
+        <v>24</v>
+      </c>
+      <c r="I69" t="n">
         <v>23</v>
       </c>
-      <c r="H69" t="n">
+      <c r="J69" t="n">
         <v>10399.76811513724</v>
       </c>
-      <c r="I69" t="n">
+      <c r="K69" t="n">
         <v>-1001.461003121241</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>639.6503916821298</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-133.4723262652667</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-114.8654852054539</v>
       </c>
-      <c r="M69" t="n">
+      <c r="O69" t="n">
         <v>-7.272216253106962</v>
       </c>
-      <c r="N69" t="n">
-        <v>300</v>
-      </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q69" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3717,39 +4135,45 @@
         <v>463.4031524533705</v>
       </c>
       <c r="D70" t="n">
+        <v>359.3831481933594</v>
+      </c>
+      <c r="E70" t="n">
         <v>-0.01198337320238352</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>92.79149719381849</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>734.0830740565675</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>27</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
+        <v>27</v>
+      </c>
+      <c r="J70" t="n">
         <v>10377.32444406147</v>
       </c>
-      <c r="I70" t="n">
+      <c r="K70" t="n">
         <v>-1002.002437749758</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>664.315040038091</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-155.7377478436916</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-114.8666075637946</v>
       </c>
-      <c r="M70" t="n">
+      <c r="O70" t="n">
         <v>-6.942243266804555</v>
       </c>
-      <c r="N70" t="n">
-        <v>300</v>
-      </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q70" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3764,39 +4188,45 @@
         <v>463.3474281869043</v>
       </c>
       <c r="D71" t="n">
+        <v>355.965087890625</v>
+      </c>
+      <c r="E71" t="n">
         <v>-0.01618806272745132</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>91.76308568538592</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>728.5482695563387</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
+        <v>24</v>
+      </c>
+      <c r="I71" t="n">
         <v>23</v>
       </c>
-      <c r="H71" t="n">
+      <c r="J71" t="n">
         <v>9693.701780004751</v>
       </c>
-      <c r="I71" t="n">
+      <c r="K71" t="n">
         <v>-1008.511327390197</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>547.2880197313108</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-153.9652559344639</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-115.8560651325264</v>
       </c>
-      <c r="M71" t="n">
+      <c r="O71" t="n">
         <v>-6.966495423812845</v>
       </c>
-      <c r="N71" t="n">
-        <v>300</v>
-      </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q71" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3811,39 +4241,45 @@
         <v>459.2314166208953</v>
       </c>
       <c r="D72" t="n">
+        <v>355.8039245605469</v>
+      </c>
+      <c r="E72" t="n">
         <v>-0.003924385644495487</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>91.96587619140787</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>728.6595861233832</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>22</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
+        <v>22</v>
+      </c>
+      <c r="J72" t="n">
         <v>10171.517113104</v>
       </c>
-      <c r="I72" t="n">
+      <c r="K72" t="n">
         <v>-995.3773490748817</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>569.7248504321551</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-158.2756294608178</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-115.4140129423142</v>
       </c>
-      <c r="M72" t="n">
+      <c r="O72" t="n">
         <v>-6.944157456972774</v>
       </c>
-      <c r="N72" t="n">
-        <v>300</v>
-      </c>
-      <c r="O72" t="n">
+      <c r="P72" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q72" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3858,39 +4294,45 @@
         <v>460.7108943039469</v>
       </c>
       <c r="D73" t="n">
+        <v>356.4076232910156</v>
+      </c>
+      <c r="E73" t="n">
         <v>-0.02284548804163933</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>91.82146792286198</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>730.0500257626243</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
+        <v>28</v>
+      </c>
+      <c r="I73" t="n">
         <v>27</v>
       </c>
-      <c r="H73" t="n">
+      <c r="J73" t="n">
         <v>10204.1858746191</v>
       </c>
-      <c r="I73" t="n">
+      <c r="K73" t="n">
         <v>-991.7438198792252</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>640.2539309541185</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-136.7746472534923</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-114.5164720857976</v>
       </c>
-      <c r="M73" t="n">
+      <c r="O73" t="n">
         <v>-7.259659826040203</v>
       </c>
-      <c r="N73" t="n">
-        <v>300</v>
-      </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q73" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3905,39 +4347,45 @@
         <v>459.6051955914231</v>
       </c>
       <c r="D74" t="n">
+        <v>352.2821350097656</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.0002803048118948936</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>91.22422591194757</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>725.4895441927081</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
+        <v>29</v>
+      </c>
+      <c r="I74" t="n">
         <v>28</v>
       </c>
-      <c r="H74" t="n">
+      <c r="J74" t="n">
         <v>8484.851905578442</v>
       </c>
-      <c r="I74" t="n">
+      <c r="K74" t="n">
         <v>-1001.565001082133</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>639.3647481787592</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-139.7502854956957</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-110.2164633844406</v>
       </c>
-      <c r="M74" t="n">
+      <c r="O74" t="n">
         <v>-6.962792994784233</v>
       </c>
-      <c r="N74" t="n">
-        <v>300</v>
-      </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q74" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3952,39 +4400,45 @@
         <v>370.0282111777816</v>
       </c>
       <c r="D75" t="n">
+        <v>331.5169372558594</v>
+      </c>
+      <c r="E75" t="n">
         <v>-7.426602840423584</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>88.91151426447058</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>704.877358294385</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
+        <v>30</v>
+      </c>
+      <c r="I75" t="n">
         <v>29</v>
       </c>
-      <c r="H75" t="n">
+      <c r="J75" t="n">
         <v>9182.487812880288</v>
       </c>
-      <c r="I75" t="n">
+      <c r="K75" t="n">
         <v>-866.3220774816618</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>494.6411728182832</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-155.3577527976594</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-114.58652086242</v>
       </c>
-      <c r="M75" t="n">
+      <c r="O75" t="n">
         <v>-5.661282349471059</v>
       </c>
-      <c r="N75" t="n">
-        <v>300</v>
-      </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q75" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3999,39 +4453,45 @@
         <v>366.8176073745741</v>
       </c>
       <c r="D76" t="n">
+        <v>329.566650390625</v>
+      </c>
+      <c r="E76" t="n">
         <v>-7.910842895507812</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>88.08830668245113</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>701.8446103331372</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
+        <v>28</v>
+      </c>
+      <c r="I76" t="n">
         <v>27</v>
       </c>
-      <c r="H76" t="n">
+      <c r="J76" t="n">
         <v>9234.061669575487</v>
       </c>
-      <c r="I76" t="n">
+      <c r="K76" t="n">
         <v>-875.0018367288812</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>559.7872629195997</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-154.9362649508953</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-109.3251797707204</v>
       </c>
-      <c r="M76" t="n">
+      <c r="O76" t="n">
         <v>-5.37298599744818</v>
       </c>
-      <c r="N76" t="n">
-        <v>300</v>
-      </c>
-      <c r="O76" t="n">
+      <c r="P76" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q76" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4046,39 +4506,45 @@
         <v>366.8672893272883</v>
       </c>
       <c r="D77" t="n">
+        <v>329.8799133300781</v>
+      </c>
+      <c r="E77" t="n">
         <v>-8.262635231018066</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>89.10334694263179</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>698.4191260971521</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
+        <v>31</v>
+      </c>
+      <c r="I77" t="n">
         <v>30</v>
       </c>
-      <c r="H77" t="n">
+      <c r="J77" t="n">
         <v>7982.407593175885</v>
       </c>
-      <c r="I77" t="n">
+      <c r="K77" t="n">
         <v>-875.6129043814235</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>513.0498912236329</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-157.8444048503492</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-112.1054409045714</v>
       </c>
-      <c r="M77" t="n">
+      <c r="O77" t="n">
         <v>-6.882419838850083</v>
       </c>
-      <c r="N77" t="n">
-        <v>300</v>
-      </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q77" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4093,39 +4559,45 @@
         <v>367.0688927311593</v>
       </c>
       <c r="D78" t="n">
+        <v>334.9216613769531</v>
+      </c>
+      <c r="E78" t="n">
         <v>-8.226195335388184</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>89.78179697760362</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>707.1569723284997</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>27</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
         <v>9844.299697073329</v>
       </c>
-      <c r="I78" t="n">
+      <c r="K78" t="n">
         <v>-872.406227923886</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>611.2572909464612</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-157.7268060297728</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-112.1309984052483</v>
       </c>
-      <c r="M78" t="n">
+      <c r="O78" t="n">
         <v>-5.49173224696705</v>
       </c>
-      <c r="N78" t="n">
-        <v>300</v>
-      </c>
-      <c r="O78" t="n">
+      <c r="P78" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q78" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4140,39 +4612,45 @@
         <v>358.7158158440711</v>
       </c>
       <c r="D79" t="n">
+        <v>326.4425659179688</v>
+      </c>
+      <c r="E79" t="n">
         <v>-9.701690673828125</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>88.0320843784052</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>698.4604387348146</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
+        <v>30</v>
+      </c>
+      <c r="I79" t="n">
         <v>31</v>
       </c>
-      <c r="H79" t="n">
+      <c r="J79" t="n">
         <v>8056.253729787248</v>
       </c>
-      <c r="I79" t="n">
+      <c r="K79" t="n">
         <v>-877.9172808988669</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>565.3822518163697</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-155.2002181815228</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-111.0461990336724</v>
       </c>
-      <c r="M79" t="n">
+      <c r="O79" t="n">
         <v>-5.991471045280139</v>
       </c>
-      <c r="N79" t="n">
-        <v>300</v>
-      </c>
-      <c r="O79" t="n">
+      <c r="P79" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q79" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4187,39 +4665,45 @@
         <v>360.601319009688</v>
       </c>
       <c r="D80" t="n">
+        <v>329.1072998046875</v>
+      </c>
+      <c r="E80" t="n">
         <v>-9.159636497497559</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>89.17909106954303</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>699.9137083308232</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>34</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
+        <v>34</v>
+      </c>
+      <c r="J80" t="n">
         <v>8972.37406753265</v>
       </c>
-      <c r="I80" t="n">
+      <c r="K80" t="n">
         <v>-876.9120348130291</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>537.4209534566911</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-158.9604092274546</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-113.5550603402785</v>
       </c>
-      <c r="M80" t="n">
+      <c r="O80" t="n">
         <v>-5.388166408070826</v>
       </c>
-      <c r="N80" t="n">
-        <v>300</v>
-      </c>
-      <c r="O80" t="n">
+      <c r="P80" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q80" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4234,39 +4718,45 @@
         <v>353.5805118651269</v>
       </c>
       <c r="D81" t="n">
+        <v>323.9330749511719</v>
+      </c>
+      <c r="E81" t="n">
         <v>-10.57521533966064</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>86.98232310497575</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>694.7215876929283</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
+        <v>34</v>
+      </c>
+      <c r="I81" t="n">
         <v>33</v>
       </c>
-      <c r="H81" t="n">
+      <c r="J81" t="n">
         <v>8867.10743622476</v>
       </c>
-      <c r="I81" t="n">
+      <c r="K81" t="n">
         <v>-887.6739706606777</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>617.1977983038884</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-144.6587570434205</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-111.1209567833376</v>
       </c>
-      <c r="M81" t="n">
+      <c r="O81" t="n">
         <v>-5.475638723694345</v>
       </c>
-      <c r="N81" t="n">
-        <v>300</v>
-      </c>
-      <c r="O81" t="n">
+      <c r="P81" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q81" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4281,39 +4771,45 @@
         <v>351.6165751060017</v>
       </c>
       <c r="D82" t="n">
+        <v>324.3721008300781</v>
+      </c>
+      <c r="E82" t="n">
         <v>-11.21853256225586</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>87.16899287989264</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>694.4439155156116</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>34</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
+        <v>34</v>
+      </c>
+      <c r="J82" t="n">
         <v>8216.462409632979</v>
       </c>
-      <c r="I82" t="n">
+      <c r="K82" t="n">
         <v>-907.130822968883</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>499.5852509996583</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-146.8128907577838</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-113.0625515740071</v>
       </c>
-      <c r="M82" t="n">
+      <c r="O82" t="n">
         <v>-5.565720498666888</v>
       </c>
-      <c r="N82" t="n">
-        <v>300</v>
-      </c>
-      <c r="O82" t="n">
+      <c r="P82" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q82" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4328,39 +4824,45 @@
         <v>356.4507115866909</v>
       </c>
       <c r="D83" t="n">
+        <v>328.8679809570312</v>
+      </c>
+      <c r="E83" t="n">
         <v>-10.22622585296631</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>89.33712636926693</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>700.7539782960043</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
+        <v>34</v>
+      </c>
+      <c r="I83" t="n">
         <v>33</v>
       </c>
-      <c r="H83" t="n">
+      <c r="J83" t="n">
         <v>8698.504463182406</v>
       </c>
-      <c r="I83" t="n">
+      <c r="K83" t="n">
         <v>-880.7822754554472</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>544.2355585651502</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-154.4978278200467</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-107.1477900244451</v>
       </c>
-      <c r="M83" t="n">
+      <c r="O83" t="n">
         <v>-5.614307753733973</v>
       </c>
-      <c r="N83" t="n">
-        <v>300</v>
-      </c>
-      <c r="O83" t="n">
+      <c r="P83" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q83" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4375,39 +4877,45 @@
         <v>358.0127329265963</v>
       </c>
       <c r="D84" t="n">
+        <v>328.5708312988281</v>
+      </c>
+      <c r="E84" t="n">
         <v>-9.888799667358398</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>88.93879010085318</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>699.2766699980245</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
+        <v>29</v>
+      </c>
+      <c r="I84" t="n">
         <v>30</v>
       </c>
-      <c r="H84" t="n">
+      <c r="J84" t="n">
         <v>8565.995742131039</v>
       </c>
-      <c r="I84" t="n">
+      <c r="K84" t="n">
         <v>-876.620870892034</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>556.686119644214</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-156.4446368263746</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-114.8401403995954</v>
       </c>
-      <c r="M84" t="n">
+      <c r="O84" t="n">
         <v>-6.023175889901484</v>
       </c>
-      <c r="N84" t="n">
-        <v>300</v>
-      </c>
-      <c r="O84" t="n">
+      <c r="P84" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q84" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4422,39 +4930,45 @@
         <v>356.5161293947099</v>
       </c>
       <c r="D85" t="n">
+        <v>328.7358703613281</v>
+      </c>
+      <c r="E85" t="n">
         <v>-10.49777889251709</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>88.99107851170442</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>700.2814755483003</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
+        <v>34</v>
+      </c>
+      <c r="I85" t="n">
         <v>33</v>
       </c>
-      <c r="H85" t="n">
+      <c r="J85" t="n">
         <v>9054.283173556743</v>
       </c>
-      <c r="I85" t="n">
+      <c r="K85" t="n">
         <v>-890.2172004801855</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>548.1723657690059</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-157.4238719043447</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>-114.1345652330829</v>
       </c>
-      <c r="M85" t="n">
+      <c r="O85" t="n">
         <v>-5.58469101609382</v>
       </c>
-      <c r="N85" t="n">
-        <v>300</v>
-      </c>
-      <c r="O85" t="n">
+      <c r="P85" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q85" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4469,39 +4983,45 @@
         <v>360.3708642263042</v>
       </c>
       <c r="D86" t="n">
+        <v>329.6952514648438</v>
+      </c>
+      <c r="E86" t="n">
         <v>-9.249336242675781</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>88.2431379213418</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>700.9817508846131</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>32</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
+        <v>32</v>
+      </c>
+      <c r="J86" t="n">
         <v>9903.768165085447</v>
       </c>
-      <c r="I86" t="n">
+      <c r="K86" t="n">
         <v>-882.5598914916609</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>528.8002833136281</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-153.7439023081731</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-112.8607311207786</v>
       </c>
-      <c r="M86" t="n">
+      <c r="O86" t="n">
         <v>-5.19294664757401</v>
       </c>
-      <c r="N86" t="n">
-        <v>300</v>
-      </c>
-      <c r="O86" t="n">
+      <c r="P86" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q86" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4516,39 +5036,45 @@
         <v>355.7246081236085</v>
       </c>
       <c r="D87" t="n">
+        <v>333.1613159179688</v>
+      </c>
+      <c r="E87" t="n">
         <v>-10.59588813781738</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>88.93726357978312</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>709.5089724591555</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
+        <v>35</v>
+      </c>
+      <c r="I87" t="n">
         <v>34</v>
       </c>
-      <c r="H87" t="n">
+      <c r="J87" t="n">
         <v>8832.883522017317</v>
       </c>
-      <c r="I87" t="n">
+      <c r="K87" t="n">
         <v>-878.5939133628608</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>545.3449815349164</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-157.0868024015928</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-112.1319670412529</v>
       </c>
-      <c r="M87" t="n">
+      <c r="O87" t="n">
         <v>-5.379508903869873</v>
       </c>
-      <c r="N87" t="n">
-        <v>300</v>
-      </c>
-      <c r="O87" t="n">
+      <c r="P87" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q87" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4563,39 +5089,45 @@
         <v>356.8891322176985</v>
       </c>
       <c r="D88" t="n">
+        <v>328.3084106445312</v>
+      </c>
+      <c r="E88" t="n">
         <v>-10.38845634460449</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>88.60522722906664</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>701.8553735840746</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
+        <v>24</v>
+      </c>
+      <c r="I88" t="n">
         <v>23</v>
       </c>
-      <c r="H88" t="n">
+      <c r="J88" t="n">
         <v>9000.529313561041</v>
       </c>
-      <c r="I88" t="n">
+      <c r="K88" t="n">
         <v>-877.189992007794</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>583.0020339846811</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-142.8593195222451</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>-103.8248705616002</v>
       </c>
-      <c r="M88" t="n">
+      <c r="O88" t="n">
         <v>-6.765330781640808</v>
       </c>
-      <c r="N88" t="n">
-        <v>300</v>
-      </c>
-      <c r="O88" t="n">
+      <c r="P88" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q88" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4610,39 +5142,45 @@
         <v>381.1349433972496</v>
       </c>
       <c r="D89" t="n">
+        <v>337.2114868164062</v>
+      </c>
+      <c r="E89" t="n">
         <v>-9.99812126159668</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>92.96304474722207</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>719.0199905373388</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>32</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
+        <v>32</v>
+      </c>
+      <c r="J89" t="n">
         <v>9130.009884729148</v>
       </c>
-      <c r="I89" t="n">
+      <c r="K89" t="n">
         <v>-903.5110345021985</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>517.8919064353141</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-151.212139005625</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>-124.8793973989244</v>
       </c>
-      <c r="M89" t="n">
+      <c r="O89" t="n">
         <v>-5.626907085187127</v>
       </c>
-      <c r="N89" t="n">
-        <v>300</v>
-      </c>
-      <c r="O89" t="n">
+      <c r="P89" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q89" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4657,39 +5195,45 @@
         <v>377.2727481448772</v>
       </c>
       <c r="D90" t="n">
+        <v>335.1788635253906</v>
+      </c>
+      <c r="E90" t="n">
         <v>-10.79315757751465</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>92.81743413951419</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>716.0968476165265</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
+        <v>32</v>
+      </c>
+      <c r="I90" t="n">
         <v>33</v>
       </c>
-      <c r="H90" t="n">
+      <c r="J90" t="n">
         <v>8260.19282812774</v>
       </c>
-      <c r="I90" t="n">
+      <c r="K90" t="n">
         <v>-915.6865965840934</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>531.1879952030023</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-147.9831648075027</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>-122.4477123691173</v>
       </c>
-      <c r="M90" t="n">
+      <c r="O90" t="n">
         <v>-5.742009293980487</v>
       </c>
-      <c r="N90" t="n">
-        <v>300</v>
-      </c>
-      <c r="O90" t="n">
+      <c r="P90" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q90" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4704,39 +5248,45 @@
         <v>380.8858576414011</v>
       </c>
       <c r="D91" t="n">
+        <v>340.4595947265625</v>
+      </c>
+      <c r="E91" t="n">
         <v>-10.35972499847412</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>93.88112907041193</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>725.0747452835251</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
+        <v>33</v>
+      </c>
+      <c r="I91" t="n">
         <v>32</v>
       </c>
-      <c r="H91" t="n">
+      <c r="J91" t="n">
         <v>8501.085808838077</v>
       </c>
-      <c r="I91" t="n">
+      <c r="K91" t="n">
         <v>-911.2011236035223</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>556.2763475002803</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-156.4495284254523</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>-120.5866533969305</v>
       </c>
-      <c r="M91" t="n">
+      <c r="O91" t="n">
         <v>-5.915913455097354</v>
       </c>
-      <c r="N91" t="n">
-        <v>300</v>
-      </c>
-      <c r="O91" t="n">
+      <c r="P91" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q91" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4751,39 +5301,45 @@
         <v>392.0058403255266</v>
       </c>
       <c r="D92" t="n">
+        <v>341.770751953125</v>
+      </c>
+      <c r="E92" t="n">
         <v>-10.33554744720459</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>95.06621393564308</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>725.9192018570736</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
+        <v>33</v>
+      </c>
+      <c r="I92" t="n">
         <v>32</v>
       </c>
-      <c r="H92" t="n">
+      <c r="J92" t="n">
         <v>8398.119354595299</v>
       </c>
-      <c r="I92" t="n">
+      <c r="K92" t="n">
         <v>-918.8220502916565</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>609.4856824076633</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-148.8782494201806</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>-126.7701325248309</v>
       </c>
-      <c r="M92" t="n">
+      <c r="O92" t="n">
         <v>-6.738824924807586</v>
       </c>
-      <c r="N92" t="n">
-        <v>300</v>
-      </c>
-      <c r="O92" t="n">
+      <c r="P92" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q92" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4798,39 +5354,45 @@
         <v>389.8265711960324</v>
       </c>
       <c r="D93" t="n">
+        <v>342.644287109375</v>
+      </c>
+      <c r="E93" t="n">
         <v>-10.92875957489014</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>95.05309895096813</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>728.7919197655887</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
+        <v>32</v>
+      </c>
+      <c r="I93" t="n">
         <v>31</v>
       </c>
-      <c r="H93" t="n">
+      <c r="J93" t="n">
         <v>9760.52111270941</v>
       </c>
-      <c r="I93" t="n">
+      <c r="K93" t="n">
         <v>-921.4580083001256</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>538.0665664441525</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-151.0032126602166</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-126.6697715500918</v>
       </c>
-      <c r="M93" t="n">
+      <c r="O93" t="n">
         <v>-5.893264610899067</v>
       </c>
-      <c r="N93" t="n">
-        <v>300</v>
-      </c>
-      <c r="O93" t="n">
+      <c r="P93" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q93" t="n">
         <v>75</v>
       </c>
     </row>
@@ -4845,39 +5407,45 @@
         <v>389.8952606341892</v>
       </c>
       <c r="D94" t="n">
+        <v>342.2868957519531</v>
+      </c>
+      <c r="E94" t="n">
         <v>-10.91229057312012</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>95.26837372088006</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>729.6800421625047</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
+        <v>34</v>
+      </c>
+      <c r="I94" t="n">
         <v>33</v>
       </c>
-      <c r="H94" t="n">
+      <c r="J94" t="n">
         <v>8628.665438324708</v>
       </c>
-      <c r="I94" t="n">
+      <c r="K94" t="n">
         <v>-912.9865920459342</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>579.0480237920885</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-143.9950068436658</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-124.3033710441204</v>
       </c>
-      <c r="M94" t="n">
+      <c r="O94" t="n">
         <v>-5.842171936788456</v>
       </c>
-      <c r="N94" t="n">
-        <v>300</v>
-      </c>
-      <c r="O94" t="n">
+      <c r="P94" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q94" t="n">
         <v>75</v>
       </c>
     </row>
@@ -4892,39 +5460,45 @@
         <v>393.0027001340633</v>
       </c>
       <c r="D95" t="n">
+        <v>339.6396789550781</v>
+      </c>
+      <c r="E95" t="n">
         <v>-9.823977470397949</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>95.19604667035468</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>724.3428173320805</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>31</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
+        <v>31</v>
+      </c>
+      <c r="J95" t="n">
         <v>10089.0218880713</v>
       </c>
-      <c r="I95" t="n">
+      <c r="K95" t="n">
         <v>-925.9772245612521</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>628.1655957006992</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-147.6608351358835</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>-125.4271684581615</v>
       </c>
-      <c r="M95" t="n">
+      <c r="O95" t="n">
         <v>-5.351004698115272</v>
       </c>
-      <c r="N95" t="n">
-        <v>300</v>
-      </c>
-      <c r="O95" t="n">
+      <c r="P95" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q95" t="n">
         <v>75</v>
       </c>
     </row>
@@ -4939,39 +5513,45 @@
         <v>418.5634895040122</v>
       </c>
       <c r="D96" t="n">
+        <v>353.3196411132812</v>
+      </c>
+      <c r="E96" t="n">
         <v>-10.08606910705566</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>99.76458189064451</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>746.7673650828497</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
+        <v>37</v>
+      </c>
+      <c r="I96" t="n">
         <v>36</v>
       </c>
-      <c r="H96" t="n">
+      <c r="J96" t="n">
         <v>9609.317156915675</v>
       </c>
-      <c r="I96" t="n">
+      <c r="K96" t="n">
         <v>-936.5671818926303</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>607.7451432195052</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-150.3527465988521</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>-139.2133351487624</v>
       </c>
-      <c r="M96" t="n">
+      <c r="O96" t="n">
         <v>-5.398264225353486</v>
       </c>
-      <c r="N96" t="n">
-        <v>300</v>
-      </c>
-      <c r="O96" t="n">
+      <c r="P96" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q96" t="n">
         <v>75</v>
       </c>
     </row>
@@ -4986,39 +5566,45 @@
         <v>414.517060172804</v>
       </c>
       <c r="D97" t="n">
+        <v>355.3711853027344</v>
+      </c>
+      <c r="E97" t="n">
         <v>-11.25707530975342</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>100.6800716460699</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>749.8538168889867</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
+        <v>30</v>
+      </c>
+      <c r="I97" t="n">
         <v>29</v>
       </c>
-      <c r="H97" t="n">
+      <c r="J97" t="n">
         <v>9372.640189798873</v>
       </c>
-      <c r="I97" t="n">
+      <c r="K97" t="n">
         <v>-934.7475052019363</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>653.8090715791698</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-145.5850089853227</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-131.584359163239</v>
       </c>
-      <c r="M97" t="n">
+      <c r="O97" t="n">
         <v>-6.028642814880596</v>
       </c>
-      <c r="N97" t="n">
-        <v>300</v>
-      </c>
-      <c r="O97" t="n">
+      <c r="P97" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q97" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5033,39 +5619,45 @@
         <v>414.5264914873048</v>
       </c>
       <c r="D98" t="n">
+        <v>352.2190551757812</v>
+      </c>
+      <c r="E98" t="n">
         <v>-10.83345317840576</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>100.2825094214852</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>746.4199295990164</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
+        <v>31</v>
+      </c>
+      <c r="I98" t="n">
         <v>32</v>
       </c>
-      <c r="H98" t="n">
+      <c r="J98" t="n">
         <v>9718.854757153644</v>
       </c>
-      <c r="I98" t="n">
+      <c r="K98" t="n">
         <v>-927.4390927727909</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>538.3486298019634</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-150.6477542588811</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>-136.8000605598876</v>
       </c>
-      <c r="M98" t="n">
+      <c r="O98" t="n">
         <v>-5.362624094719978</v>
       </c>
-      <c r="N98" t="n">
-        <v>300</v>
-      </c>
-      <c r="O98" t="n">
+      <c r="P98" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q98" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5080,39 +5672,45 @@
         <v>423.186175234356</v>
       </c>
       <c r="D99" t="n">
+        <v>353.0144653320312</v>
+      </c>
+      <c r="E99" t="n">
         <v>-9.008267402648926</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>99.93033394137434</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>747.3313571928614</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>31</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
+        <v>31</v>
+      </c>
+      <c r="J99" t="n">
         <v>8930.457755219129</v>
       </c>
-      <c r="I99" t="n">
+      <c r="K99" t="n">
         <v>-936.6915143123088</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>561.974448411353</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-148.2311111701231</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>-134.5143544488603</v>
       </c>
-      <c r="M99" t="n">
+      <c r="O99" t="n">
         <v>-5.423473968859801</v>
       </c>
-      <c r="N99" t="n">
-        <v>300</v>
-      </c>
-      <c r="O99" t="n">
+      <c r="P99" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q99" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5127,39 +5725,45 @@
         <v>357.489447715228</v>
       </c>
       <c r="D100" t="n">
+        <v>327.7113342285156</v>
+      </c>
+      <c r="E100" t="n">
         <v>-9.897209167480469</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>89.14132305779478</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>697.7566225621972</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
+        <v>30</v>
+      </c>
+      <c r="I100" t="n">
         <v>31</v>
       </c>
-      <c r="H100" t="n">
+      <c r="J100" t="n">
         <v>8820.16674629824</v>
       </c>
-      <c r="I100" t="n">
+      <c r="K100" t="n">
         <v>-902.0241640192835</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>580.3184651437858</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-149.1844250477402</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>-110.3636964575932</v>
       </c>
-      <c r="M100" t="n">
+      <c r="O100" t="n">
         <v>-5.546778573961846</v>
       </c>
-      <c r="N100" t="n">
-        <v>300</v>
-      </c>
-      <c r="O100" t="n">
+      <c r="P100" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q100" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5174,39 +5778,45 @@
         <v>362.6424600589079</v>
       </c>
       <c r="D101" t="n">
+        <v>330.9030456542969</v>
+      </c>
+      <c r="E101" t="n">
         <v>-8.957460403442383</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>89.25511007601247</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>703.7227768962168</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
+        <v>37</v>
+      </c>
+      <c r="I101" t="n">
         <v>36</v>
       </c>
-      <c r="H101" t="n">
+      <c r="J101" t="n">
         <v>9527.538401460457</v>
       </c>
-      <c r="I101" t="n">
+      <c r="K101" t="n">
         <v>-906.7303522267962</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>530.1448523373922</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>-156.3451493192159</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>-113.0706939861267</v>
       </c>
-      <c r="M101" t="n">
+      <c r="O101" t="n">
         <v>-5.697922524241898</v>
       </c>
-      <c r="N101" t="n">
-        <v>300</v>
-      </c>
-      <c r="O101" t="n">
+      <c r="P101" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q101" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5221,39 +5831,45 @@
         <v>359.8574462193616</v>
       </c>
       <c r="D102" t="n">
+        <v>329.9517211914062</v>
+      </c>
+      <c r="E102" t="n">
         <v>-9.472185134887695</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>88.90618770421221</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>703.2150519321019</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>32</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
+        <v>32</v>
+      </c>
+      <c r="J102" t="n">
         <v>8591.94649456289</v>
       </c>
-      <c r="I102" t="n">
+      <c r="K102" t="n">
         <v>-895.4826175705548</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>526.8068916886828</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>-154.7493524086525</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>-111.6644498749328</v>
       </c>
-      <c r="M102" t="n">
+      <c r="O102" t="n">
         <v>-5.345185560072866</v>
       </c>
-      <c r="N102" t="n">
-        <v>300</v>
-      </c>
-      <c r="O102" t="n">
+      <c r="P102" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q102" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5268,39 +5884,45 @@
         <v>360.5458606866858</v>
       </c>
       <c r="D103" t="n">
+        <v>332.5421752929688</v>
+      </c>
+      <c r="E103" t="n">
         <v>-9.437496185302734</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>88.98757344159489</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>702.3522153335259</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
+        <v>28</v>
+      </c>
+      <c r="I103" t="n">
         <v>27</v>
       </c>
-      <c r="H103" t="n">
+      <c r="J103" t="n">
         <v>9184.746274314162</v>
       </c>
-      <c r="I103" t="n">
+      <c r="K103" t="n">
         <v>-895.1717399744848</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>533.0734218324484</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-157.879927863746</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>-112.5105316201414</v>
       </c>
-      <c r="M103" t="n">
+      <c r="O103" t="n">
         <v>-5.414240524603546</v>
       </c>
-      <c r="N103" t="n">
-        <v>300</v>
-      </c>
-      <c r="O103" t="n">
+      <c r="P103" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q103" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5315,39 +5937,45 @@
         <v>353.5998623177126</v>
       </c>
       <c r="D104" t="n">
+        <v>330.3245544433594</v>
+      </c>
+      <c r="E104" t="n">
         <v>-10.95608997344971</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>89.1201835870025</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>703.9300728220604</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>29</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
+        <v>29</v>
+      </c>
+      <c r="J104" t="n">
         <v>9795.985660666076</v>
       </c>
-      <c r="I104" t="n">
+      <c r="K104" t="n">
         <v>-886.1181162854027</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>598.0426173561276</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-149.3513224027277</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>-112.7757526272946</v>
       </c>
-      <c r="M104" t="n">
+      <c r="O104" t="n">
         <v>-5.784206603626464</v>
       </c>
-      <c r="N104" t="n">
-        <v>300</v>
-      </c>
-      <c r="O104" t="n">
+      <c r="P104" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q104" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5362,39 +5990,45 @@
         <v>358.1556402008488</v>
       </c>
       <c r="D105" t="n">
+        <v>330.2481689453125</v>
+      </c>
+      <c r="E105" t="n">
         <v>-9.574499130249023</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>89.03201591638323</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>702.3283503044519</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
+        <v>28</v>
+      </c>
+      <c r="I105" t="n">
         <v>27</v>
       </c>
-      <c r="H105" t="n">
+      <c r="J105" t="n">
         <v>9270.27921321647</v>
       </c>
-      <c r="I105" t="n">
+      <c r="K105" t="n">
         <v>-886.505072197534</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>535.5747615286955</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-156.0153744581688</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>-112.6173146282731</v>
       </c>
-      <c r="M105" t="n">
+      <c r="O105" t="n">
         <v>-5.470361188470799</v>
       </c>
-      <c r="N105" t="n">
-        <v>300</v>
-      </c>
-      <c r="O105" t="n">
+      <c r="P105" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q105" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5409,39 +6043,45 @@
         <v>357.1669524810424</v>
       </c>
       <c r="D106" t="n">
+        <v>331.1381530761719</v>
+      </c>
+      <c r="E106" t="n">
         <v>-10.0324592590332</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>89.11341328538514</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>704.9275844360284</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>32</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
+        <v>32</v>
+      </c>
+      <c r="J106" t="n">
         <v>8529.758112271044</v>
       </c>
-      <c r="I106" t="n">
+      <c r="K106" t="n">
         <v>-897.561616459966</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>515.8502495450784</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>-161.3986135457138</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>-115.7363869559937</v>
       </c>
-      <c r="M106" t="n">
+      <c r="O106" t="n">
         <v>-5.502526721328985</v>
       </c>
-      <c r="N106" t="n">
-        <v>300</v>
-      </c>
-      <c r="O106" t="n">
+      <c r="P106" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q106" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5456,39 +6096,45 @@
         <v>356.5005911749473</v>
       </c>
       <c r="D107" t="n">
+        <v>331.9734802246094</v>
+      </c>
+      <c r="E107" t="n">
         <v>-10.4501256942749</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>89.54560348459189</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>707.0501614839966</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>36</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
+        <v>36</v>
+      </c>
+      <c r="J107" t="n">
         <v>9003.81398354671</v>
       </c>
-      <c r="I107" t="n">
+      <c r="K107" t="n">
         <v>-877.942647907762</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>477.4870633667692</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>-160.8670813323544</v>
       </c>
-      <c r="L107" t="n">
+      <c r="N107" t="n">
         <v>-112.8309164850339</v>
       </c>
-      <c r="M107" t="n">
+      <c r="O107" t="n">
         <v>-5.768114683474248</v>
       </c>
-      <c r="N107" t="n">
-        <v>300</v>
-      </c>
-      <c r="O107" t="n">
+      <c r="P107" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q107" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5503,39 +6149,45 @@
         <v>359.6510301008198</v>
       </c>
       <c r="D108" t="n">
+        <v>327.3546447753906</v>
+      </c>
+      <c r="E108" t="n">
         <v>-9.120041847229004</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>89.03724825849643</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>696.9988078192613</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>26</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
+        <v>26</v>
+      </c>
+      <c r="J108" t="n">
         <v>9119.731056612924</v>
       </c>
-      <c r="I108" t="n">
+      <c r="K108" t="n">
         <v>-881.2270333295019</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>592.290971459114</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>-154.0257710228815</v>
       </c>
-      <c r="L108" t="n">
+      <c r="N108" t="n">
         <v>-113.6262759520199</v>
       </c>
-      <c r="M108" t="n">
+      <c r="O108" t="n">
         <v>-5.46247638778785</v>
       </c>
-      <c r="N108" t="n">
-        <v>300</v>
-      </c>
-      <c r="O108" t="n">
+      <c r="P108" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q108" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5550,39 +6202,45 @@
         <v>356.8650999367218</v>
       </c>
       <c r="D109" t="n">
+        <v>331.6476135253906</v>
+      </c>
+      <c r="E109" t="n">
         <v>-10.14002990722656</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>89.3485132236344</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>705.1663980464192</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
+        <v>31</v>
+      </c>
+      <c r="I109" t="n">
         <v>32</v>
       </c>
-      <c r="H109" t="n">
+      <c r="J109" t="n">
         <v>8814.794795889298</v>
       </c>
-      <c r="I109" t="n">
+      <c r="K109" t="n">
         <v>-885.3417728672312</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>484.6489466264799</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>-158.4102654698967</v>
       </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
         <v>-113.0466325065714</v>
       </c>
-      <c r="M109" t="n">
+      <c r="O109" t="n">
         <v>-5.353032866674629</v>
       </c>
-      <c r="N109" t="n">
-        <v>300</v>
-      </c>
-      <c r="O109" t="n">
+      <c r="P109" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q109" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5597,39 +6255,45 @@
         <v>357.1934685646398</v>
       </c>
       <c r="D110" t="n">
+        <v>330.3403015136719</v>
+      </c>
+      <c r="E110" t="n">
         <v>-9.911574363708496</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>89.58917888749014</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>705.2851401314831</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>36</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
+        <v>36</v>
+      </c>
+      <c r="J110" t="n">
         <v>9042.459183113951</v>
       </c>
-      <c r="I110" t="n">
+      <c r="K110" t="n">
         <v>-891.6412651551545</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>462.622187376695</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>-160.1947421705876</v>
       </c>
-      <c r="L110" t="n">
+      <c r="N110" t="n">
         <v>-113.1980527769174</v>
       </c>
-      <c r="M110" t="n">
+      <c r="O110" t="n">
         <v>-5.291883066680446</v>
       </c>
-      <c r="N110" t="n">
-        <v>300</v>
-      </c>
-      <c r="O110" t="n">
+      <c r="P110" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q110" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5644,39 +6308,45 @@
         <v>361.6733850671236</v>
       </c>
       <c r="D111" t="n">
+        <v>334.1529235839844</v>
+      </c>
+      <c r="E111" t="n">
         <v>-9.215348243713379</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>89.58765656643421</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>705.5837026333228</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
+        <v>32</v>
+      </c>
+      <c r="I111" t="n">
         <v>31</v>
       </c>
-      <c r="H111" t="n">
+      <c r="J111" t="n">
         <v>9611.646101063005</v>
       </c>
-      <c r="I111" t="n">
+      <c r="K111" t="n">
         <v>-881.0525409839756</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>557.6385268874121</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>-159.1897522299718</v>
       </c>
-      <c r="L111" t="n">
+      <c r="N111" t="n">
         <v>-109.1060903300958</v>
       </c>
-      <c r="M111" t="n">
+      <c r="O111" t="n">
         <v>-5.420171960053451</v>
       </c>
-      <c r="N111" t="n">
-        <v>300</v>
-      </c>
-      <c r="O111" t="n">
+      <c r="P111" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q111" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5691,39 +6361,45 @@
         <v>357.5500648413405</v>
       </c>
       <c r="D112" t="n">
+        <v>333.4034423828125</v>
+      </c>
+      <c r="E112" t="n">
         <v>-10.1431827545166</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>90.00500991749426</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>710.3915333078273</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>28</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
+        <v>28</v>
+      </c>
+      <c r="J112" t="n">
         <v>8634.907932087823</v>
       </c>
-      <c r="I112" t="n">
+      <c r="K112" t="n">
         <v>-891.0334903389085</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>555.8501524620375</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>-160.4710101236072</v>
       </c>
-      <c r="L112" t="n">
+      <c r="N112" t="n">
         <v>-110.9871049331507</v>
       </c>
-      <c r="M112" t="n">
+      <c r="O112" t="n">
         <v>-5.340263849879195</v>
       </c>
-      <c r="N112" t="n">
-        <v>300</v>
-      </c>
-      <c r="O112" t="n">
+      <c r="P112" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q112" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5738,39 +6414,45 @@
         <v>359.2422513429138</v>
       </c>
       <c r="D113" t="n">
+        <v>331.5813903808594</v>
+      </c>
+      <c r="E113" t="n">
         <v>-9.822575569152832</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>89.023150986434</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>706.0466223784424</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>35</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
+        <v>35</v>
+      </c>
+      <c r="J113" t="n">
         <v>9788.881284173767</v>
       </c>
-      <c r="I113" t="n">
+      <c r="K113" t="n">
         <v>-884.6973459434075</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>552.8226331133732</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>-158.589579199178</v>
       </c>
-      <c r="L113" t="n">
+      <c r="N113" t="n">
         <v>-112.6555095664746</v>
       </c>
-      <c r="M113" t="n">
+      <c r="O113" t="n">
         <v>-6.513412687659409</v>
       </c>
-      <c r="N113" t="n">
-        <v>300</v>
-      </c>
-      <c r="O113" t="n">
+      <c r="P113" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q113" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5785,39 +6467,45 @@
         <v>361.7100389590789</v>
       </c>
       <c r="D114" t="n">
+        <v>364.7987976074219</v>
+      </c>
+      <c r="E114" t="n">
         <v>-10.27282810211182</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>93.2689489786774</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>766.5532021358098</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
+        <v>33</v>
+      </c>
+      <c r="I114" t="n">
         <v>32</v>
       </c>
-      <c r="H114" t="n">
+      <c r="J114" t="n">
         <v>9705.832013183208</v>
       </c>
-      <c r="I114" t="n">
+      <c r="K114" t="n">
         <v>-901.5379920313753</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>574.1418997875247</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>-174.6926151754887</v>
       </c>
-      <c r="L114" t="n">
+      <c r="N114" t="n">
         <v>-114.402240081653</v>
       </c>
-      <c r="M114" t="n">
+      <c r="O114" t="n">
         <v>-4.951446767642127</v>
       </c>
-      <c r="N114" t="n">
-        <v>300</v>
-      </c>
-      <c r="O114" t="n">
+      <c r="P114" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q114" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5832,39 +6520,45 @@
         <v>356.8796448203539</v>
       </c>
       <c r="D115" t="n">
+        <v>357.8926086425781</v>
+      </c>
+      <c r="E115" t="n">
         <v>-11.35658645629883</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>93.75698261330673</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>753.0384643738586</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>31</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
+        <v>31</v>
+      </c>
+      <c r="J115" t="n">
         <v>10976.2038100273</v>
       </c>
-      <c r="I115" t="n">
+      <c r="K115" t="n">
         <v>-898.0291050891037</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>640.7607790434142</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>-181.372614940592</v>
       </c>
-      <c r="L115" t="n">
+      <c r="N115" t="n">
         <v>-112.7953005092802</v>
       </c>
-      <c r="M115" t="n">
+      <c r="O115" t="n">
         <v>-5.366721582881643</v>
       </c>
-      <c r="N115" t="n">
-        <v>300</v>
-      </c>
-      <c r="O115" t="n">
+      <c r="P115" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q115" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5879,39 +6573,45 @@
         <v>364.5455852988933</v>
       </c>
       <c r="D116" t="n">
+        <v>382.9308166503906</v>
+      </c>
+      <c r="E116" t="n">
         <v>-10.34711074829102</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>95.5434265805434</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>799.6330696168922</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
+        <v>29</v>
+      </c>
+      <c r="I116" t="n">
         <v>28</v>
       </c>
-      <c r="H116" t="n">
+      <c r="J116" t="n">
         <v>12433.09952319451</v>
       </c>
-      <c r="I116" t="n">
+      <c r="K116" t="n">
         <v>-892.1185101969777</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>746.9093489636658</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>-190.4043909646327</v>
       </c>
-      <c r="L116" t="n">
+      <c r="N116" t="n">
         <v>-110.1949363849961</v>
       </c>
-      <c r="M116" t="n">
+      <c r="O116" t="n">
         <v>-5.092678369590875</v>
       </c>
-      <c r="N116" t="n">
-        <v>300</v>
-      </c>
-      <c r="O116" t="n">
+      <c r="P116" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q116" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5926,39 +6626,45 @@
         <v>409.2654327214901</v>
       </c>
       <c r="D117" t="n">
+        <v>351.1871643066406</v>
+      </c>
+      <c r="E117" t="n">
         <v>-11.47466850280762</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>100.1521745373217</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>743.861744318008</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
+        <v>32</v>
+      </c>
+      <c r="I117" t="n">
         <v>33</v>
       </c>
-      <c r="H117" t="n">
+      <c r="J117" t="n">
         <v>9739.645417497968</v>
       </c>
-      <c r="I117" t="n">
+      <c r="K117" t="n">
         <v>-943.1573817278568</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>679.9126719164461</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>-147.8912216522201</v>
       </c>
-      <c r="L117" t="n">
+      <c r="N117" t="n">
         <v>-135.8042557936122</v>
       </c>
-      <c r="M117" t="n">
+      <c r="O117" t="n">
         <v>-5.365354755516564</v>
       </c>
-      <c r="N117" t="n">
-        <v>300</v>
-      </c>
-      <c r="O117" t="n">
+      <c r="P117" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q117" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5973,39 +6679,45 @@
         <v>402.9875700890376</v>
       </c>
       <c r="D118" t="n">
+        <v>346.2739868164062</v>
+      </c>
+      <c r="E118" t="n">
         <v>-11.94349098205566</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>99.17978359136626</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>740.54923860522</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
+        <v>39</v>
+      </c>
+      <c r="I118" t="n">
         <v>38</v>
       </c>
-      <c r="H118" t="n">
+      <c r="J118" t="n">
         <v>9196.278535298916</v>
       </c>
-      <c r="I118" t="n">
+      <c r="K118" t="n">
         <v>-939.2459803893398</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>619.5481023294885</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>-133.2956085914859</v>
       </c>
-      <c r="L118" t="n">
+      <c r="N118" t="n">
         <v>-133.1912724521522</v>
       </c>
-      <c r="M118" t="n">
+      <c r="O118" t="n">
         <v>-5.491013250254888</v>
       </c>
-      <c r="N118" t="n">
-        <v>300</v>
-      </c>
-      <c r="O118" t="n">
+      <c r="P118" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q118" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6020,39 +6732,45 @@
         <v>404.8813914270669</v>
       </c>
       <c r="D119" t="n">
+        <v>349.0151062011719</v>
+      </c>
+      <c r="E119" t="n">
         <v>-11.78196048736572</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>99.678206977283</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>743.2338203842422</v>
       </c>
-      <c r="G119" t="n">
+      <c r="H119" t="n">
+        <v>36</v>
+      </c>
+      <c r="I119" t="n">
         <v>37</v>
       </c>
-      <c r="H119" t="n">
+      <c r="J119" t="n">
         <v>9833.49029429011</v>
       </c>
-      <c r="I119" t="n">
+      <c r="K119" t="n">
         <v>-932.5059028645155</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>634.9262148790076</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>-149.7718896757783</v>
       </c>
-      <c r="L119" t="n">
+      <c r="N119" t="n">
         <v>-135.5836054043732</v>
       </c>
-      <c r="M119" t="n">
+      <c r="O119" t="n">
         <v>-5.526289125626841</v>
       </c>
-      <c r="N119" t="n">
-        <v>300</v>
-      </c>
-      <c r="O119" t="n">
+      <c r="P119" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q119" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6067,39 +6785,45 @@
         <v>401.8451504437336</v>
       </c>
       <c r="D120" t="n">
+        <v>349.557861328125</v>
+      </c>
+      <c r="E120" t="n">
         <v>-12.70944499969482</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>100.2689760212869</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>742.6531377096808</v>
       </c>
-      <c r="G120" t="n">
+      <c r="H120" t="n">
+        <v>36</v>
+      </c>
+      <c r="I120" t="n">
         <v>35</v>
       </c>
-      <c r="H120" t="n">
+      <c r="J120" t="n">
         <v>9613.79556575982</v>
       </c>
-      <c r="I120" t="n">
+      <c r="K120" t="n">
         <v>-931.0098477884267</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>651.8174099587961</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>-153.4920589698196</v>
       </c>
-      <c r="L120" t="n">
+      <c r="N120" t="n">
         <v>-134.7101197745859</v>
       </c>
-      <c r="M120" t="n">
+      <c r="O120" t="n">
         <v>-5.524352504096966</v>
       </c>
-      <c r="N120" t="n">
-        <v>300</v>
-      </c>
-      <c r="O120" t="n">
+      <c r="P120" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q120" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6114,39 +6838,45 @@
         <v>406.3827007089224</v>
       </c>
       <c r="D121" t="n">
+        <v>350.4033508300781</v>
+      </c>
+      <c r="E121" t="n">
         <v>-11.47361660003662</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>99.84968065453766</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>743.6600348262607</v>
       </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
         <v>36</v>
       </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
+        <v>36</v>
+      </c>
+      <c r="J121" t="n">
         <v>9442.982403254762</v>
       </c>
-      <c r="I121" t="n">
+      <c r="K121" t="n">
         <v>-938.5610217863859</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>665.4080235301461</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>-151.7387433742635</v>
       </c>
-      <c r="L121" t="n">
+      <c r="N121" t="n">
         <v>-135.3217837185412</v>
       </c>
-      <c r="M121" t="n">
+      <c r="O121" t="n">
         <v>-5.080092817463005</v>
       </c>
-      <c r="N121" t="n">
-        <v>300</v>
-      </c>
-      <c r="O121" t="n">
+      <c r="P121" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q121" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6161,39 +6891,45 @@
         <v>402.1484746971105</v>
       </c>
       <c r="D122" t="n">
+        <v>350.3241577148438</v>
+      </c>
+      <c r="E122" t="n">
         <v>-12.53950595855713</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>99.62653249739577</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>746.1891224053795</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
         <v>28</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
+        <v>28</v>
+      </c>
+      <c r="J122" t="n">
         <v>8673.370572779517</v>
       </c>
-      <c r="I122" t="n">
+      <c r="K122" t="n">
         <v>-937.1560263918254</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>599.8151338186458</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>-147.1786575303927</v>
       </c>
-      <c r="L122" t="n">
+      <c r="N122" t="n">
         <v>-136.5791101154985</v>
       </c>
-      <c r="M122" t="n">
+      <c r="O122" t="n">
         <v>-5.349746173658535</v>
       </c>
-      <c r="N122" t="n">
-        <v>300</v>
-      </c>
-      <c r="O122" t="n">
+      <c r="P122" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q122" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6208,39 +6944,45 @@
         <v>397.5231426079445</v>
       </c>
       <c r="D123" t="n">
+        <v>344.8391418457031</v>
+      </c>
+      <c r="E123" t="n">
         <v>-13.66846466064453</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>99.2484409043979</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>736.7259235983956</v>
       </c>
-      <c r="G123" t="n">
+      <c r="H123" t="n">
         <v>37</v>
       </c>
-      <c r="H123" t="n">
+      <c r="I123" t="n">
+        <v>37</v>
+      </c>
+      <c r="J123" t="n">
         <v>8191.925942454573</v>
       </c>
-      <c r="I123" t="n">
+      <c r="K123" t="n">
         <v>-925.5078481789087</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>552.9577681383289</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>-147.8363277253158</v>
       </c>
-      <c r="L123" t="n">
+      <c r="N123" t="n">
         <v>-132.2416836906665</v>
       </c>
-      <c r="M123" t="n">
+      <c r="O123" t="n">
         <v>-5.584339392663348</v>
       </c>
-      <c r="N123" t="n">
-        <v>300</v>
-      </c>
-      <c r="O123" t="n">
+      <c r="P123" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q123" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6255,39 +6997,45 @@
         <v>401.8983416963966</v>
       </c>
       <c r="D124" t="n">
+        <v>348.4029541015625</v>
+      </c>
+      <c r="E124" t="n">
         <v>-12.23291397094727</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>99.73672137501637</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>740.1516750632319</v>
       </c>
-      <c r="G124" t="n">
+      <c r="H124" t="n">
+        <v>32</v>
+      </c>
+      <c r="I124" t="n">
         <v>33</v>
       </c>
-      <c r="H124" t="n">
+      <c r="J124" t="n">
         <v>10310.95885497841</v>
       </c>
-      <c r="I124" t="n">
+      <c r="K124" t="n">
         <v>-932.0618271213734</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>641.2117936424629</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>-151.0554847815411</v>
       </c>
-      <c r="L124" t="n">
+      <c r="N124" t="n">
         <v>-134.7443576722316</v>
       </c>
-      <c r="M124" t="n">
+      <c r="O124" t="n">
         <v>-5.242252253839377</v>
       </c>
-      <c r="N124" t="n">
-        <v>300</v>
-      </c>
-      <c r="O124" t="n">
+      <c r="P124" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q124" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6302,39 +7050,45 @@
         <v>403.4336405809363</v>
       </c>
       <c r="D125" t="n">
+        <v>347.3826293945312</v>
+      </c>
+      <c r="E125" t="n">
         <v>-12.22905921936035</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>99.1491072888911</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>741.5922705255371</v>
       </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
+        <v>33</v>
+      </c>
+      <c r="I125" t="n">
         <v>32</v>
       </c>
-      <c r="H125" t="n">
+      <c r="J125" t="n">
         <v>9423.755417836448</v>
       </c>
-      <c r="I125" t="n">
+      <c r="K125" t="n">
         <v>-927.680352651907</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>581.1092308209884</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>-151.2542930796237</v>
       </c>
-      <c r="L125" t="n">
+      <c r="N125" t="n">
         <v>-131.8967527598487</v>
       </c>
-      <c r="M125" t="n">
+      <c r="O125" t="n">
         <v>-5.119029036790497</v>
       </c>
-      <c r="N125" t="n">
-        <v>300</v>
-      </c>
-      <c r="O125" t="n">
+      <c r="P125" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q125" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6349,39 +7103,45 @@
         <v>396.6933562004323</v>
       </c>
       <c r="D126" t="n">
+        <v>345.13134765625</v>
+      </c>
+      <c r="E126" t="n">
         <v>-13.9361629486084</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>99.44192644936197</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>740.0136092104684</v>
       </c>
-      <c r="G126" t="n">
+      <c r="H126" t="n">
         <v>27</v>
       </c>
-      <c r="H126" t="n">
+      <c r="I126" t="n">
+        <v>27</v>
+      </c>
+      <c r="J126" t="n">
         <v>9290.916917024311</v>
       </c>
-      <c r="I126" t="n">
+      <c r="K126" t="n">
         <v>-916.9520520795941</v>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>604.1923024906722</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>-139.7021156384123</v>
       </c>
-      <c r="L126" t="n">
+      <c r="N126" t="n">
         <v>-134.2262552838462</v>
       </c>
-      <c r="M126" t="n">
+      <c r="O126" t="n">
         <v>-5.874353146970325</v>
       </c>
-      <c r="N126" t="n">
-        <v>300</v>
-      </c>
-      <c r="O126" t="n">
+      <c r="P126" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q126" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6396,39 +7156,45 @@
         <v>405.0789279687842</v>
       </c>
       <c r="D127" t="n">
+        <v>347.2852172851562</v>
+      </c>
+      <c r="E127" t="n">
         <v>-11.94979763031006</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>99.45911103632361</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>739.6733030002895</v>
       </c>
-      <c r="G127" t="n">
+      <c r="H127" t="n">
+        <v>33</v>
+      </c>
+      <c r="I127" t="n">
         <v>32</v>
       </c>
-      <c r="H127" t="n">
+      <c r="J127" t="n">
         <v>8459.835016678426</v>
       </c>
-      <c r="I127" t="n">
+      <c r="K127" t="n">
         <v>-924.4071430307986</v>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>602.1613512016133</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>-144.0095314341778</v>
       </c>
-      <c r="L127" t="n">
+      <c r="N127" t="n">
         <v>-131.7014170704789</v>
       </c>
-      <c r="M127" t="n">
+      <c r="O127" t="n">
         <v>-5.549111717726338</v>
       </c>
-      <c r="N127" t="n">
-        <v>300</v>
-      </c>
-      <c r="O127" t="n">
+      <c r="P127" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q127" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6443,39 +7209,45 @@
         <v>406.1322641660463</v>
       </c>
       <c r="D128" t="n">
+        <v>350.9818420410156</v>
+      </c>
+      <c r="E128" t="n">
         <v>-11.95190048217773</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>100.1433136729621</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>748.3522094664753</v>
       </c>
-      <c r="G128" t="n">
+      <c r="H128" t="n">
+        <v>31</v>
+      </c>
+      <c r="I128" t="n">
         <v>30</v>
       </c>
-      <c r="H128" t="n">
+      <c r="J128" t="n">
         <v>9379.125852138764</v>
       </c>
-      <c r="I128" t="n">
+      <c r="K128" t="n">
         <v>-934.8801866960684</v>
       </c>
-      <c r="J128" t="n">
+      <c r="L128" t="n">
         <v>612.8961076572524</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
         <v>-151.5665711699374</v>
       </c>
-      <c r="L128" t="n">
+      <c r="N128" t="n">
         <v>-138.4020962158379</v>
       </c>
-      <c r="M128" t="n">
+      <c r="O128" t="n">
         <v>-5.585647344488837</v>
       </c>
-      <c r="N128" t="n">
-        <v>300</v>
-      </c>
-      <c r="O128" t="n">
+      <c r="P128" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q128" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6490,39 +7262,45 @@
         <v>403.1510741811711</v>
       </c>
       <c r="D129" t="n">
+        <v>349.1349182128906</v>
+      </c>
+      <c r="E129" t="n">
         <v>-12.55001735687256</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>99.27650287012406</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>741.9877206036788</v>
       </c>
-      <c r="G129" t="n">
+      <c r="H129" t="n">
         <v>35</v>
       </c>
-      <c r="H129" t="n">
+      <c r="I129" t="n">
+        <v>35</v>
+      </c>
+      <c r="J129" t="n">
         <v>9196.924460109409</v>
       </c>
-      <c r="I129" t="n">
+      <c r="K129" t="n">
         <v>-933.1077064224937</v>
       </c>
-      <c r="J129" t="n">
+      <c r="L129" t="n">
         <v>640.0384143902929</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>-148.2966270549911</v>
       </c>
-      <c r="L129" t="n">
+      <c r="N129" t="n">
         <v>-136.2275304445471</v>
       </c>
-      <c r="M129" t="n">
+      <c r="O129" t="n">
         <v>-5.4782060147822</v>
       </c>
-      <c r="N129" t="n">
-        <v>300</v>
-      </c>
-      <c r="O129" t="n">
+      <c r="P129" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q129" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6537,39 +7315,45 @@
         <v>403.6868667834027</v>
       </c>
       <c r="D130" t="n">
+        <v>350.3612976074219</v>
+      </c>
+      <c r="E130" t="n">
         <v>-12.48169136047363</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>99.81476795673179</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>746.5844166367613</v>
       </c>
-      <c r="G130" t="n">
+      <c r="H130" t="n">
+        <v>35</v>
+      </c>
+      <c r="I130" t="n">
         <v>34</v>
       </c>
-      <c r="H130" t="n">
+      <c r="J130" t="n">
         <v>9373.996966698141</v>
       </c>
-      <c r="I130" t="n">
+      <c r="K130" t="n">
         <v>-921.8745974656404</v>
       </c>
-      <c r="J130" t="n">
+      <c r="L130" t="n">
         <v>545.5513603833105</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
         <v>-152.1201219738126</v>
       </c>
-      <c r="L130" t="n">
+      <c r="N130" t="n">
         <v>-135.2562424839573</v>
       </c>
-      <c r="M130" t="n">
+      <c r="O130" t="n">
         <v>-5.670617673697444</v>
       </c>
-      <c r="N130" t="n">
-        <v>300</v>
-      </c>
-      <c r="O130" t="n">
+      <c r="P130" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q130" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6584,39 +7368,45 @@
         <v>406.7365327313406</v>
       </c>
       <c r="D131" t="n">
+        <v>349.6783752441406</v>
+      </c>
+      <c r="E131" t="n">
         <v>-11.85974788665771</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>99.92069523826551</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>742.6073840349302</v>
       </c>
-      <c r="G131" t="n">
+      <c r="H131" t="n">
         <v>33</v>
       </c>
-      <c r="H131" t="n">
+      <c r="I131" t="n">
+        <v>33</v>
+      </c>
+      <c r="J131" t="n">
         <v>10125.36022678833</v>
       </c>
-      <c r="I131" t="n">
+      <c r="K131" t="n">
         <v>-927.9764202183542</v>
       </c>
-      <c r="J131" t="n">
+      <c r="L131" t="n">
         <v>671.6718769714639</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>-139.2155307759911</v>
       </c>
-      <c r="L131" t="n">
+      <c r="N131" t="n">
         <v>-135.611006606826</v>
       </c>
-      <c r="M131" t="n">
+      <c r="O131" t="n">
         <v>-5.687955779586851</v>
       </c>
-      <c r="N131" t="n">
-        <v>300</v>
-      </c>
-      <c r="O131" t="n">
+      <c r="P131" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q131" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6631,39 +7421,45 @@
         <v>400.0982025579324</v>
       </c>
       <c r="D132" t="n">
+        <v>345.5623474121094</v>
+      </c>
+      <c r="E132" t="n">
         <v>-12.88288879394531</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>99.51546854979559</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>739.9843168574776</v>
       </c>
-      <c r="G132" t="n">
+      <c r="H132" t="n">
         <v>32</v>
       </c>
-      <c r="H132" t="n">
+      <c r="I132" t="n">
+        <v>32</v>
+      </c>
+      <c r="J132" t="n">
         <v>10910.84464389543</v>
       </c>
-      <c r="I132" t="n">
+      <c r="K132" t="n">
         <v>-928.7184153267463</v>
       </c>
-      <c r="J132" t="n">
+      <c r="L132" t="n">
         <v>651.3692059911162</v>
       </c>
-      <c r="K132" t="n">
+      <c r="M132" t="n">
         <v>-147.1031101901414</v>
       </c>
-      <c r="L132" t="n">
+      <c r="N132" t="n">
         <v>-137.6548927051988</v>
       </c>
-      <c r="M132" t="n">
+      <c r="O132" t="n">
         <v>-5.316041394142061</v>
       </c>
-      <c r="N132" t="n">
-        <v>300</v>
-      </c>
-      <c r="O132" t="n">
+      <c r="P132" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q132" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6678,39 +7474,45 @@
         <v>400.9153142178482</v>
       </c>
       <c r="D133" t="n">
+        <v>343.7280578613281</v>
+      </c>
+      <c r="E133" t="n">
         <v>-12.6008243560791</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>99.13291482651587</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>737.3599881451269</v>
       </c>
-      <c r="G133" t="n">
+      <c r="H133" t="n">
         <v>33</v>
       </c>
-      <c r="H133" t="n">
+      <c r="I133" t="n">
+        <v>33</v>
+      </c>
+      <c r="J133" t="n">
         <v>8884.749521899299</v>
       </c>
-      <c r="I133" t="n">
+      <c r="K133" t="n">
         <v>-927.1689413851873</v>
       </c>
-      <c r="J133" t="n">
+      <c r="L133" t="n">
         <v>589.1374331471914</v>
       </c>
-      <c r="K133" t="n">
+      <c r="M133" t="n">
         <v>-144.8892199272017</v>
       </c>
-      <c r="L133" t="n">
+      <c r="N133" t="n">
         <v>-134.1038971404066</v>
       </c>
-      <c r="M133" t="n">
+      <c r="O133" t="n">
         <v>-5.724747687287223</v>
       </c>
-      <c r="N133" t="n">
-        <v>300</v>
-      </c>
-      <c r="O133" t="n">
+      <c r="P133" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q133" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6725,39 +7527,45 @@
         <v>402.1926236881283</v>
       </c>
       <c r="D134" t="n">
+        <v>343.5234069824219</v>
+      </c>
+      <c r="E134" t="n">
         <v>-12.20242977142334</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>99.26468049810126</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>733.9891227356161</v>
       </c>
-      <c r="G134" t="n">
+      <c r="H134" t="n">
         <v>31</v>
       </c>
-      <c r="H134" t="n">
+      <c r="I134" t="n">
+        <v>31</v>
+      </c>
+      <c r="J134" t="n">
         <v>7589.243310187856</v>
       </c>
-      <c r="I134" t="n">
+      <c r="K134" t="n">
         <v>-918.3359801067654</v>
       </c>
-      <c r="J134" t="n">
+      <c r="L134" t="n">
         <v>511.9054299527803</v>
       </c>
-      <c r="K134" t="n">
+      <c r="M134" t="n">
         <v>-148.5377279709006</v>
       </c>
-      <c r="L134" t="n">
+      <c r="N134" t="n">
         <v>-134.7423747434796</v>
       </c>
-      <c r="M134" t="n">
+      <c r="O134" t="n">
         <v>-5.292635479789828</v>
       </c>
-      <c r="N134" t="n">
-        <v>300</v>
-      </c>
-      <c r="O134" t="n">
+      <c r="P134" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q134" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6772,39 +7580,45 @@
         <v>396.8200366888315</v>
       </c>
       <c r="D135" t="n">
+        <v>341.7669067382812</v>
+      </c>
+      <c r="E135" t="n">
         <v>-13.25920867919922</v>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>98.71930969932654</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>733.7161670906032</v>
       </c>
-      <c r="G135" t="n">
+      <c r="H135" t="n">
+        <v>32</v>
+      </c>
+      <c r="I135" t="n">
         <v>31</v>
       </c>
-      <c r="H135" t="n">
+      <c r="J135" t="n">
         <v>8173.340302363329</v>
       </c>
-      <c r="I135" t="n">
+      <c r="K135" t="n">
         <v>-918.9262399581039</v>
       </c>
-      <c r="J135" t="n">
+      <c r="L135" t="n">
         <v>506.6053120154229</v>
       </c>
-      <c r="K135" t="n">
+      <c r="M135" t="n">
         <v>-148.1500315135718</v>
       </c>
-      <c r="L135" t="n">
+      <c r="N135" t="n">
         <v>-135.8291927391024</v>
       </c>
-      <c r="M135" t="n">
+      <c r="O135" t="n">
         <v>-5.430130857521924</v>
       </c>
-      <c r="N135" t="n">
-        <v>300</v>
-      </c>
-      <c r="O135" t="n">
+      <c r="P135" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q135" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6819,39 +7633,45 @@
         <v>403.5482411643824</v>
       </c>
       <c r="D136" t="n">
+        <v>345.6572875976562</v>
+      </c>
+      <c r="E136" t="n">
         <v>-12.31840896606445</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>99.58507503361623</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>739.9306962402111</v>
       </c>
-      <c r="G136" t="n">
+      <c r="H136" t="n">
+        <v>30</v>
+      </c>
+      <c r="I136" t="n">
         <v>29</v>
       </c>
-      <c r="H136" t="n">
+      <c r="J136" t="n">
         <v>8823.501528738707</v>
       </c>
-      <c r="I136" t="n">
+      <c r="K136" t="n">
         <v>-925.9152844103655</v>
       </c>
-      <c r="J136" t="n">
+      <c r="L136" t="n">
         <v>625.0250961312069</v>
       </c>
-      <c r="K136" t="n">
+      <c r="M136" t="n">
         <v>-149.3985385407954</v>
       </c>
-      <c r="L136" t="n">
+      <c r="N136" t="n">
         <v>-134.2757571643868</v>
       </c>
-      <c r="M136" t="n">
+      <c r="O136" t="n">
         <v>-6.617547657160582</v>
       </c>
-      <c r="N136" t="n">
-        <v>300</v>
-      </c>
-      <c r="O136" t="n">
+      <c r="P136" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q136" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6866,39 +7686,45 @@
         <v>339.8650013196891</v>
       </c>
       <c r="D137" t="n">
+        <v>324.8374328613281</v>
+      </c>
+      <c r="E137" t="n">
         <v>-12.91687679290771</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>87.95356299004517</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>697.8270214051893</v>
       </c>
-      <c r="G137" t="n">
+      <c r="H137" t="n">
+        <v>29</v>
+      </c>
+      <c r="I137" t="n">
         <v>28</v>
       </c>
-      <c r="H137" t="n">
+      <c r="J137" t="n">
         <v>8069.716425364411</v>
       </c>
-      <c r="I137" t="n">
+      <c r="K137" t="n">
         <v>-896.3796296755465</v>
       </c>
-      <c r="J137" t="n">
+      <c r="L137" t="n">
         <v>504.4939531669493</v>
       </c>
-      <c r="K137" t="n">
+      <c r="M137" t="n">
         <v>-157.6140640298505</v>
       </c>
-      <c r="L137" t="n">
+      <c r="N137" t="n">
         <v>-117.4732814041882</v>
       </c>
-      <c r="M137" t="n">
+      <c r="O137" t="n">
         <v>-5.605641756603332</v>
       </c>
-      <c r="N137" t="n">
-        <v>300</v>
-      </c>
-      <c r="O137" t="n">
+      <c r="P137" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q137" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6913,39 +7739,45 @@
         <v>338.8231761798199</v>
       </c>
       <c r="D138" t="n">
+        <v>324.5658874511719</v>
+      </c>
+      <c r="E138" t="n">
         <v>-13.2048978805542</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>88.21274634424644</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>695.9021148719214</v>
       </c>
-      <c r="G138" t="n">
+      <c r="H138" t="n">
         <v>35</v>
       </c>
-      <c r="H138" t="n">
+      <c r="I138" t="n">
+        <v>35</v>
+      </c>
+      <c r="J138" t="n">
         <v>9349.478085227889</v>
       </c>
-      <c r="I138" t="n">
+      <c r="K138" t="n">
         <v>-887.218819108406</v>
       </c>
-      <c r="J138" t="n">
+      <c r="L138" t="n">
         <v>521.7071204712365</v>
       </c>
-      <c r="K138" t="n">
+      <c r="M138" t="n">
         <v>-154.2003119261792</v>
       </c>
-      <c r="L138" t="n">
+      <c r="N138" t="n">
         <v>-112.4398589689176</v>
       </c>
-      <c r="M138" t="n">
+      <c r="O138" t="n">
         <v>-5.37902283531052</v>
       </c>
-      <c r="N138" t="n">
-        <v>300</v>
-      </c>
-      <c r="O138" t="n">
+      <c r="P138" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q138" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6960,39 +7792,45 @@
         <v>341.1377739234163</v>
       </c>
       <c r="D139" t="n">
+        <v>328.7362365722656</v>
+      </c>
+      <c r="E139" t="n">
         <v>-12.66389465332031</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>88.94656341118217</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>696.2339274557196</v>
       </c>
-      <c r="G139" t="n">
+      <c r="H139" t="n">
         <v>37</v>
       </c>
-      <c r="H139" t="n">
+      <c r="I139" t="n">
+        <v>37</v>
+      </c>
+      <c r="J139" t="n">
         <v>9446.888703418135</v>
       </c>
-      <c r="I139" t="n">
+      <c r="K139" t="n">
         <v>-889.2127196916172</v>
       </c>
-      <c r="J139" t="n">
+      <c r="L139" t="n">
         <v>623.2990279150628</v>
       </c>
-      <c r="K139" t="n">
+      <c r="M139" t="n">
         <v>-158.8153591222189</v>
       </c>
-      <c r="L139" t="n">
+      <c r="N139" t="n">
         <v>-111.3014968385674</v>
       </c>
-      <c r="M139" t="n">
+      <c r="O139" t="n">
         <v>-5.352658160156923</v>
       </c>
-      <c r="N139" t="n">
-        <v>300</v>
-      </c>
-      <c r="O139" t="n">
+      <c r="P139" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q139" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7007,39 +7845,45 @@
         <v>212.4614035178815</v>
       </c>
       <c r="D140" t="n">
+        <v>329.5309143066406</v>
+      </c>
+      <c r="E140" t="n">
         <v>-12.2560396194458</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>87.8130998455876</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>703.9732609513585</v>
       </c>
-      <c r="G140" t="n">
+      <c r="H140" t="n">
+        <v>28</v>
+      </c>
+      <c r="I140" t="n">
         <v>27</v>
       </c>
-      <c r="H140" t="n">
+      <c r="J140" t="n">
         <v>10224.89435905057</v>
       </c>
-      <c r="I140" t="n">
+      <c r="K140" t="n">
         <v>-1143.197137973227</v>
       </c>
-      <c r="J140" t="n">
+      <c r="L140" t="n">
         <v>554.1604509012773</v>
       </c>
-      <c r="K140" t="n">
+      <c r="M140" t="n">
         <v>-261.5470628096394</v>
       </c>
-      <c r="L140" t="n">
+      <c r="N140" t="n">
         <v>-13.36553609541126</v>
       </c>
-      <c r="M140" t="n">
+      <c r="O140" t="n">
         <v>-3.763122178415663</v>
       </c>
-      <c r="N140" t="n">
-        <v>300</v>
-      </c>
-      <c r="O140" t="n">
+      <c r="P140" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q140" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7054,39 +7898,45 @@
         <v>167.4006483068525</v>
       </c>
       <c r="D141" t="n">
+        <v>312.19287109375</v>
+      </c>
+      <c r="E141" t="n">
         <v>-11.50024700164795</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>75.45014670044</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>672.9063375543088</v>
       </c>
-      <c r="G141" t="n">
+      <c r="H141" t="n">
+        <v>31</v>
+      </c>
+      <c r="I141" t="n">
         <v>30</v>
       </c>
-      <c r="H141" t="n">
+      <c r="J141" t="n">
         <v>8887.928101435391</v>
       </c>
-      <c r="I141" t="n">
+      <c r="K141" t="n">
         <v>-589.2369205555115</v>
       </c>
-      <c r="J141" t="n">
+      <c r="L141" t="n">
         <v>560.7706948994283</v>
       </c>
-      <c r="K141" t="n">
+      <c r="M141" t="n">
         <v>-233.9273867741402</v>
       </c>
-      <c r="L141" t="n">
+      <c r="N141" t="n">
         <v>-19.33869780764838</v>
       </c>
-      <c r="M141" t="n">
+      <c r="O141" t="n">
         <v>-4.405290231187564</v>
       </c>
-      <c r="N141" t="n">
-        <v>300</v>
-      </c>
-      <c r="O141" t="n">
+      <c r="P141" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q141" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7101,39 +7951,45 @@
         <v>168.1070556999339</v>
       </c>
       <c r="D142" t="n">
+        <v>322.8107604980469</v>
+      </c>
+      <c r="E142" t="n">
         <v>-12.23186302185059</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>76.44014496474239</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>693.5305516425419</v>
       </c>
-      <c r="G142" t="n">
+      <c r="H142" t="n">
+        <v>29</v>
+      </c>
+      <c r="I142" t="n">
         <v>28</v>
       </c>
-      <c r="H142" t="n">
+      <c r="J142" t="n">
         <v>9889.36226433061</v>
       </c>
-      <c r="I142" t="n">
+      <c r="K142" t="n">
         <v>-615.1302504980067</v>
       </c>
-      <c r="J142" t="n">
+      <c r="L142" t="n">
         <v>592.3356931003467</v>
       </c>
-      <c r="K142" t="n">
+      <c r="M142" t="n">
         <v>-240.447298602978</v>
       </c>
-      <c r="L142" t="n">
+      <c r="N142" t="n">
         <v>-19.56191508834563</v>
       </c>
-      <c r="M142" t="n">
+      <c r="O142" t="n">
         <v>-4.38288941450091</v>
       </c>
-      <c r="N142" t="n">
-        <v>300</v>
-      </c>
-      <c r="O142" t="n">
+      <c r="P142" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q142" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7148,39 +8004,45 @@
         <v>170.3126708730295</v>
       </c>
       <c r="D143" t="n">
+        <v>315.3464050292969</v>
+      </c>
+      <c r="E143" t="n">
         <v>-11.17683601379395</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>75.04728765878406</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>674.7265245719493</v>
       </c>
-      <c r="G143" t="n">
+      <c r="H143" t="n">
         <v>31</v>
       </c>
-      <c r="H143" t="n">
+      <c r="I143" t="n">
+        <v>31</v>
+      </c>
+      <c r="J143" t="n">
         <v>9032.468169865049</v>
       </c>
-      <c r="I143" t="n">
+      <c r="K143" t="n">
         <v>-597.1072775823104</v>
       </c>
-      <c r="J143" t="n">
+      <c r="L143" t="n">
         <v>584.3933403643094</v>
       </c>
-      <c r="K143" t="n">
+      <c r="M143" t="n">
         <v>-233.8794482796858</v>
       </c>
-      <c r="L143" t="n">
+      <c r="N143" t="n">
         <v>-19.29593488272418</v>
       </c>
-      <c r="M143" t="n">
+      <c r="O143" t="n">
         <v>-4.313630339207516</v>
       </c>
-      <c r="N143" t="n">
-        <v>300</v>
-      </c>
-      <c r="O143" t="n">
+      <c r="P143" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q143" t="n">
         <v>75</v>
       </c>
     </row>

--- a/Korrelation/DOE1_features_reduced_features.xlsx
+++ b/Korrelation/DOE1_features_reduced_features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q143"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,55 +466,45 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Trajectory_length</t>
+          <t>minima_count</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>peak_count</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>valley_count</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>slope_max</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>slope_min</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>slope_phase1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>slope_phase2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>slope_phase3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>slope_phase4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>mpv_holding_pressure</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>mpv_mold_temp</t>
         </is>
@@ -540,36 +530,30 @@
         <v>88.98228723289148</v>
       </c>
       <c r="G2" t="n">
-        <v>699.9385538413646</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>8139.010284727647</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>-871.6132365068861</v>
       </c>
       <c r="J2" t="n">
-        <v>8139.010284727647</v>
+        <v>570.3355622604438</v>
       </c>
       <c r="K2" t="n">
-        <v>-871.6132365068861</v>
+        <v>-146.25993495232</v>
       </c>
       <c r="L2" t="n">
-        <v>570.3355622604438</v>
+        <v>-113.3001170221366</v>
       </c>
       <c r="M2" t="n">
-        <v>-146.25993495232</v>
+        <v>-5.807235088310748</v>
       </c>
       <c r="N2" t="n">
-        <v>-113.3001170221366</v>
+        <v>100</v>
       </c>
       <c r="O2" t="n">
-        <v>-5.807235088310748</v>
-      </c>
-      <c r="P2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" t="n">
         <v>300</v>
       </c>
     </row>
@@ -593,36 +577,30 @@
         <v>89.67683808094458</v>
       </c>
       <c r="G3" t="n">
-        <v>711.0271994405462</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>26</v>
+        <v>8170.386369636105</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>-869.0302028957203</v>
       </c>
       <c r="J3" t="n">
-        <v>8170.386369636105</v>
+        <v>528.396582686112</v>
       </c>
       <c r="K3" t="n">
-        <v>-869.0302028957203</v>
+        <v>-153.1512269528407</v>
       </c>
       <c r="L3" t="n">
-        <v>528.396582686112</v>
+        <v>-110.2673876607696</v>
       </c>
       <c r="M3" t="n">
-        <v>-153.1512269528407</v>
+        <v>-5.855350444051381</v>
       </c>
       <c r="N3" t="n">
-        <v>-110.2673876607696</v>
+        <v>100</v>
       </c>
       <c r="O3" t="n">
-        <v>-5.855350444051381</v>
-      </c>
-      <c r="P3" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q3" t="n">
         <v>300</v>
       </c>
     </row>
@@ -646,36 +624,30 @@
         <v>89.55372559295535</v>
       </c>
       <c r="G4" t="n">
-        <v>707.0533776639942</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>8536.109663074136</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>-862.9256487193497</v>
       </c>
       <c r="J4" t="n">
-        <v>8536.109663074136</v>
+        <v>501.1919877688842</v>
       </c>
       <c r="K4" t="n">
-        <v>-862.9256487193497</v>
+        <v>-157.2223113310812</v>
       </c>
       <c r="L4" t="n">
-        <v>501.1919877688842</v>
+        <v>-111.9200650639043</v>
       </c>
       <c r="M4" t="n">
-        <v>-157.2223113310812</v>
+        <v>-5.826227331115352</v>
       </c>
       <c r="N4" t="n">
-        <v>-111.9200650639043</v>
+        <v>100</v>
       </c>
       <c r="O4" t="n">
-        <v>-5.826227331115352</v>
-      </c>
-      <c r="P4" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q4" t="n">
         <v>300</v>
       </c>
     </row>
@@ -699,36 +671,30 @@
         <v>89.6913028689101</v>
       </c>
       <c r="G5" t="n">
-        <v>707.4666676630343</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>9509.692020362223</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>-864.7726310839644</v>
       </c>
       <c r="J5" t="n">
-        <v>9509.692020362223</v>
+        <v>625.2057070152505</v>
       </c>
       <c r="K5" t="n">
-        <v>-864.7726310839644</v>
+        <v>-147.8285834349457</v>
       </c>
       <c r="L5" t="n">
-        <v>625.2057070152505</v>
+        <v>-114.2125055486129</v>
       </c>
       <c r="M5" t="n">
-        <v>-147.8285834349457</v>
+        <v>-5.798101402385579</v>
       </c>
       <c r="N5" t="n">
-        <v>-114.2125055486129</v>
+        <v>300</v>
       </c>
       <c r="O5" t="n">
-        <v>-5.798101402385579</v>
-      </c>
-      <c r="P5" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q5" t="n">
         <v>75</v>
       </c>
     </row>
@@ -752,36 +718,30 @@
         <v>89.71097891108327</v>
       </c>
       <c r="G6" t="n">
-        <v>708.8938279496854</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
-        <v>32</v>
+        <v>9979.686625708033</v>
       </c>
       <c r="I6" t="n">
-        <v>31</v>
+        <v>-867.8673294915188</v>
       </c>
       <c r="J6" t="n">
-        <v>9979.686625708033</v>
+        <v>521.8425623113114</v>
       </c>
       <c r="K6" t="n">
-        <v>-867.8673294915188</v>
+        <v>-153.9158571100572</v>
       </c>
       <c r="L6" t="n">
-        <v>521.8425623113114</v>
+        <v>-111.697099401873</v>
       </c>
       <c r="M6" t="n">
-        <v>-153.9158571100572</v>
+        <v>-5.928024667066011</v>
       </c>
       <c r="N6" t="n">
-        <v>-111.697099401873</v>
+        <v>300</v>
       </c>
       <c r="O6" t="n">
-        <v>-5.928024667066011</v>
-      </c>
-      <c r="P6" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q6" t="n">
         <v>75</v>
       </c>
     </row>
@@ -805,36 +765,30 @@
         <v>88.78982373454812</v>
       </c>
       <c r="G7" t="n">
-        <v>705.8565551802949</v>
+        <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>9089.021079486489</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>-858.0871550384782</v>
       </c>
       <c r="J7" t="n">
-        <v>9089.021079486489</v>
+        <v>550.8202332741142</v>
       </c>
       <c r="K7" t="n">
-        <v>-858.0871550384782</v>
+        <v>-150.7353907633631</v>
       </c>
       <c r="L7" t="n">
-        <v>550.8202332741142</v>
+        <v>-114.0968065330252</v>
       </c>
       <c r="M7" t="n">
-        <v>-150.7353907633631</v>
+        <v>-5.650896263108319</v>
       </c>
       <c r="N7" t="n">
-        <v>-114.0968065330252</v>
+        <v>300</v>
       </c>
       <c r="O7" t="n">
-        <v>-5.650896263108319</v>
-      </c>
-      <c r="P7" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q7" t="n">
         <v>75</v>
       </c>
     </row>
@@ -858,36 +812,30 @@
         <v>89.52097640263285</v>
       </c>
       <c r="G8" t="n">
-        <v>707.6502528806966</v>
+        <v>29</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>9418.437128648948</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>-869.8810444724104</v>
       </c>
       <c r="J8" t="n">
-        <v>9418.437128648948</v>
+        <v>587.9018373114565</v>
       </c>
       <c r="K8" t="n">
-        <v>-869.8810444724104</v>
+        <v>-152.8295319796938</v>
       </c>
       <c r="L8" t="n">
-        <v>587.9018373114565</v>
+        <v>-109.7449260175141</v>
       </c>
       <c r="M8" t="n">
-        <v>-152.8295319796938</v>
+        <v>-6.212929444285858</v>
       </c>
       <c r="N8" t="n">
-        <v>-109.7449260175141</v>
+        <v>300</v>
       </c>
       <c r="O8" t="n">
-        <v>-6.212929444285858</v>
-      </c>
-      <c r="P8" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q8" t="n">
         <v>75</v>
       </c>
     </row>
@@ -911,36 +859,30 @@
         <v>88.94337562005913</v>
       </c>
       <c r="G9" t="n">
-        <v>703.9870875444058</v>
+        <v>27</v>
       </c>
       <c r="H9" t="n">
-        <v>28</v>
+        <v>8731.679542315258</v>
       </c>
       <c r="I9" t="n">
-        <v>27</v>
+        <v>-863.5070019210279</v>
       </c>
       <c r="J9" t="n">
-        <v>8731.679542315258</v>
+        <v>513.814278172175</v>
       </c>
       <c r="K9" t="n">
-        <v>-863.5070019210279</v>
+        <v>-144.7689499720203</v>
       </c>
       <c r="L9" t="n">
-        <v>513.814278172175</v>
+        <v>-113.4403771744666</v>
       </c>
       <c r="M9" t="n">
-        <v>-144.7689499720203</v>
+        <v>-5.990536247922262</v>
       </c>
       <c r="N9" t="n">
-        <v>-113.4403771744666</v>
+        <v>300</v>
       </c>
       <c r="O9" t="n">
-        <v>-5.990536247922262</v>
-      </c>
-      <c r="P9" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q9" t="n">
         <v>75</v>
       </c>
     </row>
@@ -964,36 +906,30 @@
         <v>88.75527395599974</v>
       </c>
       <c r="G10" t="n">
-        <v>706.8568007376876</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>26</v>
+        <v>9664.385627164876</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>-861.5341396134954</v>
       </c>
       <c r="J10" t="n">
-        <v>9664.385627164876</v>
+        <v>606.0416594816359</v>
       </c>
       <c r="K10" t="n">
-        <v>-861.5341396134954</v>
+        <v>-151.1691316692375</v>
       </c>
       <c r="L10" t="n">
-        <v>606.0416594816359</v>
+        <v>-110.4420225807369</v>
       </c>
       <c r="M10" t="n">
-        <v>-151.1691316692375</v>
+        <v>-7.035448850830278</v>
       </c>
       <c r="N10" t="n">
-        <v>-110.4420225807369</v>
+        <v>300</v>
       </c>
       <c r="O10" t="n">
-        <v>-7.035448850830278</v>
-      </c>
-      <c r="P10" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q10" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1017,36 +953,30 @@
         <v>89.21041307959095</v>
       </c>
       <c r="G11" t="n">
-        <v>712.9654383711618</v>
+        <v>28</v>
       </c>
       <c r="H11" t="n">
-        <v>28</v>
+        <v>8347.04856810222</v>
       </c>
       <c r="I11" t="n">
-        <v>28</v>
+        <v>-882.7015919859523</v>
       </c>
       <c r="J11" t="n">
-        <v>8347.04856810222</v>
+        <v>517.3295476802277</v>
       </c>
       <c r="K11" t="n">
-        <v>-882.7015919859523</v>
+        <v>-156.3394893632393</v>
       </c>
       <c r="L11" t="n">
-        <v>517.3295476802277</v>
+        <v>-112.4864602298268</v>
       </c>
       <c r="M11" t="n">
-        <v>-156.3394893632393</v>
+        <v>-5.895496354165112</v>
       </c>
       <c r="N11" t="n">
-        <v>-112.4864602298268</v>
+        <v>300</v>
       </c>
       <c r="O11" t="n">
-        <v>-5.895496354165112</v>
-      </c>
-      <c r="P11" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q11" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1070,36 +1000,30 @@
         <v>90.09225294597755</v>
       </c>
       <c r="G12" t="n">
-        <v>711.0734540708776</v>
+        <v>29</v>
       </c>
       <c r="H12" t="n">
-        <v>29</v>
+        <v>9999.222135354586</v>
       </c>
       <c r="I12" t="n">
-        <v>29</v>
+        <v>-874.8435937386539</v>
       </c>
       <c r="J12" t="n">
-        <v>9999.222135354586</v>
+        <v>639.4458468838902</v>
       </c>
       <c r="K12" t="n">
-        <v>-874.8435937386539</v>
+        <v>-158.9764708695083</v>
       </c>
       <c r="L12" t="n">
-        <v>639.4458468838902</v>
+        <v>-112.2213915534007</v>
       </c>
       <c r="M12" t="n">
-        <v>-158.9764708695083</v>
+        <v>-5.566339898552551</v>
       </c>
       <c r="N12" t="n">
-        <v>-112.2213915534007</v>
+        <v>300</v>
       </c>
       <c r="O12" t="n">
-        <v>-5.566339898552551</v>
-      </c>
-      <c r="P12" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q12" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1123,36 +1047,30 @@
         <v>89.77606568763484</v>
       </c>
       <c r="G13" t="n">
-        <v>709.1864830244266</v>
+        <v>31</v>
       </c>
       <c r="H13" t="n">
-        <v>30</v>
+        <v>9843.202658027971</v>
       </c>
       <c r="I13" t="n">
-        <v>31</v>
+        <v>-868.884932205392</v>
       </c>
       <c r="J13" t="n">
-        <v>9843.202658027971</v>
+        <v>622.3454612590695</v>
       </c>
       <c r="K13" t="n">
-        <v>-868.884932205392</v>
+        <v>-149.2366775915229</v>
       </c>
       <c r="L13" t="n">
-        <v>622.3454612590695</v>
+        <v>-112.5624284870549</v>
       </c>
       <c r="M13" t="n">
-        <v>-149.2366775915229</v>
+        <v>-5.750159770226523</v>
       </c>
       <c r="N13" t="n">
-        <v>-112.5624284870549</v>
+        <v>300</v>
       </c>
       <c r="O13" t="n">
-        <v>-5.750159770226523</v>
-      </c>
-      <c r="P13" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q13" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1176,36 +1094,30 @@
         <v>88.76054451003949</v>
       </c>
       <c r="G14" t="n">
-        <v>696.9744291083714</v>
+        <v>31</v>
       </c>
       <c r="H14" t="n">
-        <v>31</v>
+        <v>7760.446253496367</v>
       </c>
       <c r="I14" t="n">
-        <v>31</v>
+        <v>-861.0774999443274</v>
       </c>
       <c r="J14" t="n">
-        <v>7760.446253496367</v>
+        <v>556.5096903226649</v>
       </c>
       <c r="K14" t="n">
-        <v>-861.0774999443274</v>
+        <v>-136.963646280118</v>
       </c>
       <c r="L14" t="n">
-        <v>556.5096903226649</v>
+        <v>-109.467271034616</v>
       </c>
       <c r="M14" t="n">
-        <v>-136.963646280118</v>
+        <v>-5.700345538861877</v>
       </c>
       <c r="N14" t="n">
-        <v>-109.467271034616</v>
+        <v>300</v>
       </c>
       <c r="O14" t="n">
-        <v>-5.700345538861877</v>
-      </c>
-      <c r="P14" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q14" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1229,36 +1141,30 @@
         <v>89.35808042803666</v>
       </c>
       <c r="G15" t="n">
-        <v>710.1729101888685</v>
+        <v>33</v>
       </c>
       <c r="H15" t="n">
-        <v>33</v>
+        <v>9249.522094850174</v>
       </c>
       <c r="I15" t="n">
-        <v>33</v>
+        <v>-860.8489410136044</v>
       </c>
       <c r="J15" t="n">
-        <v>9249.522094850174</v>
+        <v>599.2087474937098</v>
       </c>
       <c r="K15" t="n">
-        <v>-860.8489410136044</v>
+        <v>-154.9793790806934</v>
       </c>
       <c r="L15" t="n">
-        <v>599.2087474937098</v>
+        <v>-112.6274648049971</v>
       </c>
       <c r="M15" t="n">
-        <v>-154.9793790806934</v>
+        <v>-5.685048641552409</v>
       </c>
       <c r="N15" t="n">
-        <v>-112.6274648049971</v>
+        <v>300</v>
       </c>
       <c r="O15" t="n">
-        <v>-5.685048641552409</v>
-      </c>
-      <c r="P15" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q15" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1282,36 +1188,30 @@
         <v>89.70435171163842</v>
       </c>
       <c r="G16" t="n">
-        <v>709.3850537161356</v>
+        <v>33</v>
       </c>
       <c r="H16" t="n">
-        <v>33</v>
+        <v>9377.607199197169</v>
       </c>
       <c r="I16" t="n">
-        <v>33</v>
+        <v>-854.1421521001348</v>
       </c>
       <c r="J16" t="n">
-        <v>9377.607199197169</v>
+        <v>589.9574243494872</v>
       </c>
       <c r="K16" t="n">
-        <v>-854.1421521001348</v>
+        <v>-151.4883172820129</v>
       </c>
       <c r="L16" t="n">
-        <v>589.9574243494872</v>
+        <v>-112.2910952800361</v>
       </c>
       <c r="M16" t="n">
-        <v>-151.4883172820129</v>
+        <v>-5.577158743569299</v>
       </c>
       <c r="N16" t="n">
-        <v>-112.2910952800361</v>
+        <v>300</v>
       </c>
       <c r="O16" t="n">
-        <v>-5.577158743569299</v>
-      </c>
-      <c r="P16" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q16" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1335,36 +1235,30 @@
         <v>89.07277514542643</v>
       </c>
       <c r="G17" t="n">
-        <v>704.30418567589</v>
+        <v>29</v>
       </c>
       <c r="H17" t="n">
-        <v>30</v>
+        <v>9616.457866736186</v>
       </c>
       <c r="I17" t="n">
-        <v>29</v>
+        <v>-869.0870320380855</v>
       </c>
       <c r="J17" t="n">
-        <v>9616.457866736186</v>
+        <v>531.983154217688</v>
       </c>
       <c r="K17" t="n">
-        <v>-869.0870320380855</v>
+        <v>-151.6686730638585</v>
       </c>
       <c r="L17" t="n">
-        <v>531.983154217688</v>
+        <v>-112.7867863589028</v>
       </c>
       <c r="M17" t="n">
-        <v>-151.6686730638585</v>
+        <v>-5.817844180411178</v>
       </c>
       <c r="N17" t="n">
-        <v>-112.7867863589028</v>
+        <v>300</v>
       </c>
       <c r="O17" t="n">
-        <v>-5.817844180411178</v>
-      </c>
-      <c r="P17" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q17" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1388,36 +1282,30 @@
         <v>101.0117286877209</v>
       </c>
       <c r="G18" t="n">
-        <v>855.4048701449033</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>30</v>
+        <v>15513.09300974267</v>
       </c>
       <c r="I18" t="n">
-        <v>30</v>
+        <v>-868.988936017322</v>
       </c>
       <c r="J18" t="n">
-        <v>15513.09300974267</v>
+        <v>812.5550322705321</v>
       </c>
       <c r="K18" t="n">
-        <v>-868.988936017322</v>
+        <v>-216.0564142168494</v>
       </c>
       <c r="L18" t="n">
-        <v>812.5550322705321</v>
+        <v>-111.2038015360877</v>
       </c>
       <c r="M18" t="n">
-        <v>-216.0564142168494</v>
+        <v>-5.260988182667463</v>
       </c>
       <c r="N18" t="n">
-        <v>-111.2038015360877</v>
+        <v>300</v>
       </c>
       <c r="O18" t="n">
-        <v>-5.260988182667463</v>
-      </c>
-      <c r="P18" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q18" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1441,36 +1329,30 @@
         <v>101.7202989132468</v>
       </c>
       <c r="G19" t="n">
-        <v>878.5765553551125</v>
+        <v>30</v>
       </c>
       <c r="H19" t="n">
-        <v>31</v>
+        <v>14539.84894475924</v>
       </c>
       <c r="I19" t="n">
-        <v>30</v>
+        <v>-880.3254175329967</v>
       </c>
       <c r="J19" t="n">
-        <v>14539.84894475924</v>
+        <v>787.9291118829095</v>
       </c>
       <c r="K19" t="n">
-        <v>-880.3254175329967</v>
+        <v>-221.7633324870824</v>
       </c>
       <c r="L19" t="n">
-        <v>787.9291118829095</v>
+        <v>-111.2493541597165</v>
       </c>
       <c r="M19" t="n">
-        <v>-221.7633324870824</v>
+        <v>-5.696363092644398</v>
       </c>
       <c r="N19" t="n">
-        <v>-111.2493541597165</v>
+        <v>300</v>
       </c>
       <c r="O19" t="n">
-        <v>-5.696363092644398</v>
-      </c>
-      <c r="P19" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q19" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1494,36 +1376,30 @@
         <v>101.4661201903622</v>
       </c>
       <c r="G20" t="n">
-        <v>867.6360765027723</v>
+        <v>30</v>
       </c>
       <c r="H20" t="n">
-        <v>29</v>
+        <v>14342.82877421598</v>
       </c>
       <c r="I20" t="n">
-        <v>30</v>
+        <v>-873.2246536907651</v>
       </c>
       <c r="J20" t="n">
-        <v>14342.82877421598</v>
+        <v>781.2407171267357</v>
       </c>
       <c r="K20" t="n">
-        <v>-873.2246536907651</v>
+        <v>-217.1314200920301</v>
       </c>
       <c r="L20" t="n">
-        <v>781.2407171267357</v>
+        <v>-109.9083163185215</v>
       </c>
       <c r="M20" t="n">
-        <v>-217.1314200920301</v>
+        <v>-5.273689827845983</v>
       </c>
       <c r="N20" t="n">
-        <v>-109.9083163185215</v>
+        <v>300</v>
       </c>
       <c r="O20" t="n">
-        <v>-5.273689827845983</v>
-      </c>
-      <c r="P20" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q20" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1547,36 +1423,30 @@
         <v>102.3776361203063</v>
       </c>
       <c r="G21" t="n">
-        <v>887.4527518633388</v>
+        <v>29</v>
       </c>
       <c r="H21" t="n">
-        <v>30</v>
+        <v>10866.15060659224</v>
       </c>
       <c r="I21" t="n">
-        <v>29</v>
+        <v>-914.0473869366579</v>
       </c>
       <c r="J21" t="n">
-        <v>10866.15060659224</v>
+        <v>750.4320832720806</v>
       </c>
       <c r="K21" t="n">
-        <v>-914.0473869366579</v>
+        <v>-227.5870119666731</v>
       </c>
       <c r="L21" t="n">
-        <v>750.4320832720806</v>
+        <v>-109.6716836241159</v>
       </c>
       <c r="M21" t="n">
-        <v>-227.5870119666731</v>
+        <v>-5.267332001255483</v>
       </c>
       <c r="N21" t="n">
-        <v>-109.6716836241159</v>
+        <v>300</v>
       </c>
       <c r="O21" t="n">
-        <v>-5.267332001255483</v>
-      </c>
-      <c r="P21" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q21" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1600,36 +1470,30 @@
         <v>102.0773041905688</v>
       </c>
       <c r="G22" t="n">
-        <v>894.6721026867707</v>
+        <v>34</v>
       </c>
       <c r="H22" t="n">
-        <v>34</v>
+        <v>13771.91749322019</v>
       </c>
       <c r="I22" t="n">
-        <v>34</v>
+        <v>-920.4537892181652</v>
       </c>
       <c r="J22" t="n">
-        <v>13771.91749322019</v>
+        <v>737.2407942398605</v>
       </c>
       <c r="K22" t="n">
-        <v>-920.4537892181652</v>
+        <v>-221.592056328476</v>
       </c>
       <c r="L22" t="n">
-        <v>737.2407942398605</v>
+        <v>-110.7127993007713</v>
       </c>
       <c r="M22" t="n">
-        <v>-221.592056328476</v>
+        <v>-5.250439523051633</v>
       </c>
       <c r="N22" t="n">
-        <v>-110.7127993007713</v>
+        <v>300</v>
       </c>
       <c r="O22" t="n">
-        <v>-5.250439523051633</v>
-      </c>
-      <c r="P22" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q22" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1653,36 +1517,30 @@
         <v>102.0339442455397</v>
       </c>
       <c r="G23" t="n">
-        <v>872.9526682809563</v>
+        <v>32</v>
       </c>
       <c r="H23" t="n">
-        <v>33</v>
+        <v>14697.6300155781</v>
       </c>
       <c r="I23" t="n">
-        <v>32</v>
+        <v>-871.3261182852984</v>
       </c>
       <c r="J23" t="n">
-        <v>14697.6300155781</v>
+        <v>900.4033005721618</v>
       </c>
       <c r="K23" t="n">
-        <v>-871.3261182852984</v>
+        <v>-232.9822224150027</v>
       </c>
       <c r="L23" t="n">
-        <v>900.4033005721618</v>
+        <v>-110.9005415027905</v>
       </c>
       <c r="M23" t="n">
-        <v>-232.9822224150027</v>
+        <v>-5.700375168033468</v>
       </c>
       <c r="N23" t="n">
-        <v>-110.9005415027905</v>
+        <v>300</v>
       </c>
       <c r="O23" t="n">
-        <v>-5.700375168033468</v>
-      </c>
-      <c r="P23" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q23" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1706,36 +1564,30 @@
         <v>102.521135629414</v>
       </c>
       <c r="G24" t="n">
-        <v>879.4792341377747</v>
+        <v>33</v>
       </c>
       <c r="H24" t="n">
-        <v>33</v>
+        <v>14587.43889534527</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>-872.6553448811319</v>
       </c>
       <c r="J24" t="n">
-        <v>14587.43889534527</v>
+        <v>857.9071958444225</v>
       </c>
       <c r="K24" t="n">
-        <v>-872.6553448811319</v>
+        <v>-229.3456901745145</v>
       </c>
       <c r="L24" t="n">
-        <v>857.9071958444225</v>
+        <v>-111.9273641558116</v>
       </c>
       <c r="M24" t="n">
-        <v>-229.3456901745145</v>
+        <v>-5.45457128939184</v>
       </c>
       <c r="N24" t="n">
-        <v>-111.9273641558116</v>
+        <v>300</v>
       </c>
       <c r="O24" t="n">
-        <v>-5.45457128939184</v>
-      </c>
-      <c r="P24" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q24" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1759,36 +1611,30 @@
         <v>103.1134896685158</v>
       </c>
       <c r="G25" t="n">
-        <v>893.9711840475242</v>
+        <v>32</v>
       </c>
       <c r="H25" t="n">
-        <v>33</v>
+        <v>15923.30071377644</v>
       </c>
       <c r="I25" t="n">
-        <v>32</v>
+        <v>-944.2771942575055</v>
       </c>
       <c r="J25" t="n">
-        <v>15923.30071377644</v>
+        <v>974.6529624974709</v>
       </c>
       <c r="K25" t="n">
-        <v>-944.2771942575055</v>
+        <v>-235.8411888948091</v>
       </c>
       <c r="L25" t="n">
-        <v>974.6529624974709</v>
+        <v>-113.0068970553792</v>
       </c>
       <c r="M25" t="n">
-        <v>-235.8411888948091</v>
+        <v>-5.360364072771576</v>
       </c>
       <c r="N25" t="n">
-        <v>-113.0068970553792</v>
+        <v>300</v>
       </c>
       <c r="O25" t="n">
-        <v>-5.360364072771576</v>
-      </c>
-      <c r="P25" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q25" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1812,36 +1658,30 @@
         <v>102.0291683975374</v>
       </c>
       <c r="G26" t="n">
-        <v>895.8605536701762</v>
+        <v>29</v>
       </c>
       <c r="H26" t="n">
-        <v>30</v>
+        <v>15490.77149088953</v>
       </c>
       <c r="I26" t="n">
-        <v>29</v>
+        <v>-936.1738936733418</v>
       </c>
       <c r="J26" t="n">
-        <v>15490.77149088953</v>
+        <v>958.5624842586378</v>
       </c>
       <c r="K26" t="n">
-        <v>-936.1738936733418</v>
+        <v>-239.8085885675593</v>
       </c>
       <c r="L26" t="n">
-        <v>958.5624842586378</v>
+        <v>-111.5273909653746</v>
       </c>
       <c r="M26" t="n">
-        <v>-239.8085885675593</v>
+        <v>-5.5290034260177</v>
       </c>
       <c r="N26" t="n">
-        <v>-111.5273909653746</v>
+        <v>300</v>
       </c>
       <c r="O26" t="n">
-        <v>-5.5290034260177</v>
-      </c>
-      <c r="P26" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q26" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1865,36 +1705,30 @@
         <v>100.1994819814492</v>
       </c>
       <c r="G27" t="n">
-        <v>872.5084946168529</v>
+        <v>28</v>
       </c>
       <c r="H27" t="n">
-        <v>28</v>
+        <v>14639.10575302059</v>
       </c>
       <c r="I27" t="n">
-        <v>28</v>
+        <v>-872.5272764402553</v>
       </c>
       <c r="J27" t="n">
-        <v>14639.10575302059</v>
+        <v>797.6769628489222</v>
       </c>
       <c r="K27" t="n">
-        <v>-872.5272764402553</v>
+        <v>-214.3202965725737</v>
       </c>
       <c r="L27" t="n">
-        <v>797.6769628489222</v>
+        <v>-112.1791867016846</v>
       </c>
       <c r="M27" t="n">
-        <v>-214.3202965725737</v>
+        <v>-5.747702152287736</v>
       </c>
       <c r="N27" t="n">
-        <v>-112.1791867016846</v>
+        <v>300</v>
       </c>
       <c r="O27" t="n">
-        <v>-5.747702152287736</v>
-      </c>
-      <c r="P27" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q27" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1918,36 +1752,30 @@
         <v>102.5035455165018</v>
       </c>
       <c r="G28" t="n">
-        <v>885.9163889932418</v>
+        <v>32</v>
       </c>
       <c r="H28" t="n">
-        <v>33</v>
+        <v>15166.35172408937</v>
       </c>
       <c r="I28" t="n">
-        <v>32</v>
+        <v>-897.2140586548412</v>
       </c>
       <c r="J28" t="n">
-        <v>15166.35172408937</v>
+        <v>853.3806469452064</v>
       </c>
       <c r="K28" t="n">
-        <v>-897.2140586548412</v>
+        <v>-232.1428861159424</v>
       </c>
       <c r="L28" t="n">
-        <v>853.3806469452064</v>
+        <v>-112.4875629582494</v>
       </c>
       <c r="M28" t="n">
-        <v>-232.1428861159424</v>
+        <v>-5.421724311911768</v>
       </c>
       <c r="N28" t="n">
-        <v>-112.4875629582494</v>
+        <v>300</v>
       </c>
       <c r="O28" t="n">
-        <v>-5.421724311911768</v>
-      </c>
-      <c r="P28" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q28" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1971,36 +1799,30 @@
         <v>103.3014027465794</v>
       </c>
       <c r="G29" t="n">
-        <v>893.2497475691167</v>
+        <v>34</v>
       </c>
       <c r="H29" t="n">
-        <v>34</v>
+        <v>16771.32150880642</v>
       </c>
       <c r="I29" t="n">
-        <v>34</v>
+        <v>-968.1473047822365</v>
       </c>
       <c r="J29" t="n">
-        <v>16771.32150880642</v>
+        <v>948.8055568193282</v>
       </c>
       <c r="K29" t="n">
-        <v>-968.1473047822365</v>
+        <v>-241.3423869184182</v>
       </c>
       <c r="L29" t="n">
-        <v>948.8055568193282</v>
+        <v>-108.5387326233928</v>
       </c>
       <c r="M29" t="n">
-        <v>-241.3423869184182</v>
+        <v>-5.552444893573975</v>
       </c>
       <c r="N29" t="n">
-        <v>-108.5387326233928</v>
+        <v>300</v>
       </c>
       <c r="O29" t="n">
-        <v>-5.552444893573975</v>
-      </c>
-      <c r="P29" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q29" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2024,36 +1846,30 @@
         <v>101.8989796721448</v>
       </c>
       <c r="G30" t="n">
-        <v>888.9598544125048</v>
+        <v>28</v>
       </c>
       <c r="H30" t="n">
-        <v>29</v>
+        <v>16593.50340332101</v>
       </c>
       <c r="I30" t="n">
-        <v>28</v>
+        <v>-928.2561642199489</v>
       </c>
       <c r="J30" t="n">
-        <v>16593.50340332101</v>
+        <v>983.9453846972392</v>
       </c>
       <c r="K30" t="n">
-        <v>-928.2561642199489</v>
+        <v>-239.2362943766007</v>
       </c>
       <c r="L30" t="n">
-        <v>983.9453846972392</v>
+        <v>-106.6878905043946</v>
       </c>
       <c r="M30" t="n">
-        <v>-239.2362943766007</v>
+        <v>-5.519190021867214</v>
       </c>
       <c r="N30" t="n">
-        <v>-106.6878905043946</v>
+        <v>300</v>
       </c>
       <c r="O30" t="n">
-        <v>-5.519190021867214</v>
-      </c>
-      <c r="P30" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q30" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2077,36 +1893,30 @@
         <v>102.2413330866413</v>
       </c>
       <c r="G31" t="n">
-        <v>890.0256396883258</v>
+        <v>33</v>
       </c>
       <c r="H31" t="n">
-        <v>34</v>
+        <v>14836.53921420403</v>
       </c>
       <c r="I31" t="n">
-        <v>33</v>
+        <v>-880.1598214159312</v>
       </c>
       <c r="J31" t="n">
-        <v>14836.53921420403</v>
+        <v>732.7258444095499</v>
       </c>
       <c r="K31" t="n">
-        <v>-880.1598214159312</v>
+        <v>-224.0342300521503</v>
       </c>
       <c r="L31" t="n">
-        <v>732.7258444095499</v>
+        <v>-114.548824170595</v>
       </c>
       <c r="M31" t="n">
-        <v>-224.0342300521503</v>
+        <v>-5.393819891742917</v>
       </c>
       <c r="N31" t="n">
-        <v>-114.548824170595</v>
+        <v>300</v>
       </c>
       <c r="O31" t="n">
-        <v>-5.393819891742917</v>
-      </c>
-      <c r="P31" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q31" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2130,36 +1940,30 @@
         <v>89.03237593424309</v>
       </c>
       <c r="G32" t="n">
-        <v>699.8975392972201</v>
+        <v>34</v>
       </c>
       <c r="H32" t="n">
-        <v>33</v>
+        <v>8347.105379943445</v>
       </c>
       <c r="I32" t="n">
-        <v>34</v>
+        <v>-865.4380317620762</v>
       </c>
       <c r="J32" t="n">
-        <v>8347.105379943445</v>
+        <v>569.3833142501525</v>
       </c>
       <c r="K32" t="n">
-        <v>-865.4380317620762</v>
+        <v>-136.4335017416845</v>
       </c>
       <c r="L32" t="n">
-        <v>569.3833142501525</v>
+        <v>-107.1640080403647</v>
       </c>
       <c r="M32" t="n">
-        <v>-136.4335017416845</v>
+        <v>-5.771491188935904</v>
       </c>
       <c r="N32" t="n">
-        <v>-107.1640080403647</v>
+        <v>350</v>
       </c>
       <c r="O32" t="n">
-        <v>-5.771491188935904</v>
-      </c>
-      <c r="P32" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q32" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2183,36 +1987,30 @@
         <v>100.1197531727976</v>
       </c>
       <c r="G33" t="n">
-        <v>747.8912658682801</v>
+        <v>30</v>
       </c>
       <c r="H33" t="n">
-        <v>30</v>
+        <v>9181.326983321527</v>
       </c>
       <c r="I33" t="n">
-        <v>30</v>
+        <v>-911.0973289807062</v>
       </c>
       <c r="J33" t="n">
-        <v>9181.326983321527</v>
+        <v>615.5136734310618</v>
       </c>
       <c r="K33" t="n">
-        <v>-911.0973289807062</v>
+        <v>-130.3360146409938</v>
       </c>
       <c r="L33" t="n">
-        <v>615.5136734310618</v>
+        <v>-134.0706113047515</v>
       </c>
       <c r="M33" t="n">
-        <v>-130.3360146409938</v>
+        <v>-5.937886700962325</v>
       </c>
       <c r="N33" t="n">
-        <v>-134.0706113047515</v>
+        <v>350</v>
       </c>
       <c r="O33" t="n">
-        <v>-5.937886700962325</v>
-      </c>
-      <c r="P33" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q33" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2236,36 +2034,30 @@
         <v>99.51643139988005</v>
       </c>
       <c r="G34" t="n">
-        <v>741.3677928728655</v>
+        <v>35</v>
       </c>
       <c r="H34" t="n">
-        <v>36</v>
+        <v>7589.461038181063</v>
       </c>
       <c r="I34" t="n">
-        <v>35</v>
+        <v>-926.4895383467679</v>
       </c>
       <c r="J34" t="n">
-        <v>7589.461038181063</v>
+        <v>556.5980844267758</v>
       </c>
       <c r="K34" t="n">
-        <v>-926.4895383467679</v>
+        <v>-126.0246144576175</v>
       </c>
       <c r="L34" t="n">
-        <v>556.5980844267758</v>
+        <v>-137.2466362965219</v>
       </c>
       <c r="M34" t="n">
-        <v>-126.0246144576175</v>
+        <v>-6.193342335585554</v>
       </c>
       <c r="N34" t="n">
-        <v>-137.2466362965219</v>
+        <v>350</v>
       </c>
       <c r="O34" t="n">
-        <v>-6.193342335585554</v>
-      </c>
-      <c r="P34" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q34" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2289,36 +2081,30 @@
         <v>100.040675088119</v>
       </c>
       <c r="G35" t="n">
-        <v>748.3583957559742</v>
+        <v>31</v>
       </c>
       <c r="H35" t="n">
-        <v>31</v>
+        <v>9346.840808266314</v>
       </c>
       <c r="I35" t="n">
-        <v>31</v>
+        <v>-918.2817926004809</v>
       </c>
       <c r="J35" t="n">
-        <v>9346.840808266314</v>
+        <v>558.9716345706306</v>
       </c>
       <c r="K35" t="n">
-        <v>-918.2817926004809</v>
+        <v>-127.3933852092043</v>
       </c>
       <c r="L35" t="n">
-        <v>558.9716345706306</v>
+        <v>-135.6861806124818</v>
       </c>
       <c r="M35" t="n">
-        <v>-127.3933852092043</v>
+        <v>-6.11166737182162</v>
       </c>
       <c r="N35" t="n">
-        <v>-135.6861806124818</v>
+        <v>350</v>
       </c>
       <c r="O35" t="n">
-        <v>-6.11166737182162</v>
-      </c>
-      <c r="P35" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q35" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2342,36 +2128,30 @@
         <v>99.65537171927785</v>
       </c>
       <c r="G36" t="n">
-        <v>746.990110247443</v>
+        <v>28</v>
       </c>
       <c r="H36" t="n">
-        <v>29</v>
+        <v>7897.512084251266</v>
       </c>
       <c r="I36" t="n">
-        <v>28</v>
+        <v>-909.5604855059964</v>
       </c>
       <c r="J36" t="n">
-        <v>7897.512084251266</v>
+        <v>523.3844188836574</v>
       </c>
       <c r="K36" t="n">
-        <v>-909.5604855059964</v>
+        <v>-145.9175922941882</v>
       </c>
       <c r="L36" t="n">
-        <v>523.3844188836574</v>
+        <v>-135.0004685744518</v>
       </c>
       <c r="M36" t="n">
-        <v>-145.9175922941882</v>
+        <v>-5.790800915401721</v>
       </c>
       <c r="N36" t="n">
-        <v>-135.0004685744518</v>
+        <v>350</v>
       </c>
       <c r="O36" t="n">
-        <v>-5.790800915401721</v>
-      </c>
-      <c r="P36" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q36" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2395,36 +2175,30 @@
         <v>100.2619291138106</v>
       </c>
       <c r="G37" t="n">
-        <v>746.4157171715337</v>
+        <v>32</v>
       </c>
       <c r="H37" t="n">
-        <v>32</v>
+        <v>8646.86503526599</v>
       </c>
       <c r="I37" t="n">
-        <v>32</v>
+        <v>-915.1467804903505</v>
       </c>
       <c r="J37" t="n">
-        <v>8646.86503526599</v>
+        <v>619.7390408393372</v>
       </c>
       <c r="K37" t="n">
-        <v>-915.1467804903505</v>
+        <v>-121.8848527214627</v>
       </c>
       <c r="L37" t="n">
-        <v>619.7390408393372</v>
+        <v>-131.2305153980067</v>
       </c>
       <c r="M37" t="n">
-        <v>-121.8848527214627</v>
+        <v>-5.994578686657902</v>
       </c>
       <c r="N37" t="n">
-        <v>-131.2305153980067</v>
+        <v>350</v>
       </c>
       <c r="O37" t="n">
-        <v>-5.994578686657902</v>
-      </c>
-      <c r="P37" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q37" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2448,36 +2222,30 @@
         <v>99.04423375444495</v>
       </c>
       <c r="G38" t="n">
-        <v>744.996999303595</v>
+        <v>30</v>
       </c>
       <c r="H38" t="n">
-        <v>30</v>
+        <v>8677.567095148301</v>
       </c>
       <c r="I38" t="n">
-        <v>30</v>
+        <v>-903.9126596466513</v>
       </c>
       <c r="J38" t="n">
-        <v>8677.567095148301</v>
+        <v>574.6080160792569</v>
       </c>
       <c r="K38" t="n">
-        <v>-903.9126596466513</v>
+        <v>-115.0711117572374</v>
       </c>
       <c r="L38" t="n">
-        <v>574.6080160792569</v>
+        <v>-131.1262978904199</v>
       </c>
       <c r="M38" t="n">
-        <v>-115.0711117572374</v>
+        <v>-5.933905064481225</v>
       </c>
       <c r="N38" t="n">
-        <v>-131.1262978904199</v>
+        <v>350</v>
       </c>
       <c r="O38" t="n">
-        <v>-5.933905064481225</v>
-      </c>
-      <c r="P38" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q38" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2501,36 +2269,30 @@
         <v>99.95191728683784</v>
       </c>
       <c r="G39" t="n">
-        <v>750.5144329832815</v>
+        <v>27</v>
       </c>
       <c r="H39" t="n">
-        <v>28</v>
+        <v>9260.268936346631</v>
       </c>
       <c r="I39" t="n">
-        <v>27</v>
+        <v>-917.7832442218669</v>
       </c>
       <c r="J39" t="n">
-        <v>9260.268936346631</v>
+        <v>555.124826993222</v>
       </c>
       <c r="K39" t="n">
-        <v>-917.7832442218669</v>
+        <v>-142.8967108494855</v>
       </c>
       <c r="L39" t="n">
-        <v>555.124826993222</v>
+        <v>-134.0219731828297</v>
       </c>
       <c r="M39" t="n">
-        <v>-142.8967108494855</v>
+        <v>-7.381133494440876</v>
       </c>
       <c r="N39" t="n">
-        <v>-134.0219731828297</v>
+        <v>350</v>
       </c>
       <c r="O39" t="n">
-        <v>-7.381133494440876</v>
-      </c>
-      <c r="P39" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q39" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2554,36 +2316,30 @@
         <v>99.6770128416335</v>
       </c>
       <c r="G40" t="n">
-        <v>749.6453180620641</v>
+        <v>33</v>
       </c>
       <c r="H40" t="n">
-        <v>33</v>
+        <v>9427.570122882538</v>
       </c>
       <c r="I40" t="n">
-        <v>33</v>
+        <v>-917.7014020240877</v>
       </c>
       <c r="J40" t="n">
-        <v>9427.570122882538</v>
+        <v>588.8866509148761</v>
       </c>
       <c r="K40" t="n">
-        <v>-917.7014020240877</v>
+        <v>-138.5726065248793</v>
       </c>
       <c r="L40" t="n">
-        <v>588.8866509148761</v>
+        <v>-132.7746783651797</v>
       </c>
       <c r="M40" t="n">
-        <v>-138.5726065248793</v>
+        <v>-6.027185202806825</v>
       </c>
       <c r="N40" t="n">
-        <v>-132.7746783651797</v>
+        <v>350</v>
       </c>
       <c r="O40" t="n">
-        <v>-6.027185202806825</v>
-      </c>
-      <c r="P40" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q40" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2607,36 +2363,30 @@
         <v>100.9719188796224</v>
       </c>
       <c r="G41" t="n">
-        <v>755.5074917111608</v>
+        <v>31</v>
       </c>
       <c r="H41" t="n">
-        <v>32</v>
+        <v>8499.259720462745</v>
       </c>
       <c r="I41" t="n">
-        <v>31</v>
+        <v>-918.1373624546295</v>
       </c>
       <c r="J41" t="n">
-        <v>8499.259720462745</v>
+        <v>584.156758499165</v>
       </c>
       <c r="K41" t="n">
-        <v>-918.1373624546295</v>
+        <v>-149.9347456622648</v>
       </c>
       <c r="L41" t="n">
-        <v>584.156758499165</v>
+        <v>-138.2092690394027</v>
       </c>
       <c r="M41" t="n">
-        <v>-149.9347456622648</v>
+        <v>-6.046686750807397</v>
       </c>
       <c r="N41" t="n">
-        <v>-138.2092690394027</v>
+        <v>350</v>
       </c>
       <c r="O41" t="n">
-        <v>-6.046686750807397</v>
-      </c>
-      <c r="P41" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q41" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2660,36 +2410,30 @@
         <v>99.89765009237198</v>
       </c>
       <c r="G42" t="n">
-        <v>749.1929219702832</v>
+        <v>29</v>
       </c>
       <c r="H42" t="n">
-        <v>29</v>
+        <v>7053.469728999066</v>
       </c>
       <c r="I42" t="n">
-        <v>29</v>
+        <v>-913.9635216560764</v>
       </c>
       <c r="J42" t="n">
-        <v>7053.469728999066</v>
+        <v>488.7192140754869</v>
       </c>
       <c r="K42" t="n">
-        <v>-913.9635216560764</v>
+        <v>-150.261704394163</v>
       </c>
       <c r="L42" t="n">
-        <v>488.7192140754869</v>
+        <v>-135.2656173394905</v>
       </c>
       <c r="M42" t="n">
-        <v>-150.261704394163</v>
+        <v>-5.726236051083514</v>
       </c>
       <c r="N42" t="n">
-        <v>-135.2656173394905</v>
+        <v>350</v>
       </c>
       <c r="O42" t="n">
-        <v>-5.726236051083514</v>
-      </c>
-      <c r="P42" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q42" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2713,36 +2457,30 @@
         <v>101.0571698719124</v>
       </c>
       <c r="G43" t="n">
-        <v>754.0440766256178</v>
+        <v>34</v>
       </c>
       <c r="H43" t="n">
-        <v>34</v>
+        <v>9020.721110520957</v>
       </c>
       <c r="I43" t="n">
-        <v>34</v>
+        <v>-913.5896703553453</v>
       </c>
       <c r="J43" t="n">
-        <v>9020.721110520957</v>
+        <v>644.2200389612757</v>
       </c>
       <c r="K43" t="n">
-        <v>-913.5896703553453</v>
+        <v>-137.3332503440416</v>
       </c>
       <c r="L43" t="n">
-        <v>644.2200389612757</v>
+        <v>-133.8272280054601</v>
       </c>
       <c r="M43" t="n">
-        <v>-137.3332503440416</v>
+        <v>-6.206266560418089</v>
       </c>
       <c r="N43" t="n">
-        <v>-133.8272280054601</v>
+        <v>350</v>
       </c>
       <c r="O43" t="n">
-        <v>-6.206266560418089</v>
-      </c>
-      <c r="P43" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q43" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2766,36 +2504,30 @@
         <v>99.80566027367213</v>
       </c>
       <c r="G44" t="n">
-        <v>746.3581320855162</v>
+        <v>30</v>
       </c>
       <c r="H44" t="n">
-        <v>30</v>
+        <v>8021.37493397903</v>
       </c>
       <c r="I44" t="n">
-        <v>30</v>
+        <v>-914.5033932009665</v>
       </c>
       <c r="J44" t="n">
-        <v>8021.37493397903</v>
+        <v>550.7281614551887</v>
       </c>
       <c r="K44" t="n">
-        <v>-914.5033932009665</v>
+        <v>-126.6432890927073</v>
       </c>
       <c r="L44" t="n">
-        <v>550.7281614551887</v>
+        <v>-133.8611695829073</v>
       </c>
       <c r="M44" t="n">
-        <v>-126.6432890927073</v>
+        <v>-6.35118905608915</v>
       </c>
       <c r="N44" t="n">
-        <v>-133.8611695829073</v>
+        <v>350</v>
       </c>
       <c r="O44" t="n">
-        <v>-6.35118905608915</v>
-      </c>
-      <c r="P44" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q44" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2819,36 +2551,30 @@
         <v>99.90637838831528</v>
       </c>
       <c r="G45" t="n">
-        <v>748.0507322688713</v>
+        <v>34</v>
       </c>
       <c r="H45" t="n">
-        <v>35</v>
+        <v>7964.372666415293</v>
       </c>
       <c r="I45" t="n">
-        <v>34</v>
+        <v>-919.341108917225</v>
       </c>
       <c r="J45" t="n">
-        <v>7964.372666415293</v>
+        <v>566.6094648650829</v>
       </c>
       <c r="K45" t="n">
-        <v>-919.341108917225</v>
+        <v>-143.8231470315788</v>
       </c>
       <c r="L45" t="n">
-        <v>566.6094648650829</v>
+        <v>-132.2778844215216</v>
       </c>
       <c r="M45" t="n">
-        <v>-143.8231470315788</v>
+        <v>-6.037227472414973</v>
       </c>
       <c r="N45" t="n">
-        <v>-132.2778844215216</v>
+        <v>350</v>
       </c>
       <c r="O45" t="n">
-        <v>-6.037227472414973</v>
-      </c>
-      <c r="P45" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q45" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2872,36 +2598,30 @@
         <v>99.24275226684287</v>
       </c>
       <c r="G46" t="n">
-        <v>747.5242670834141</v>
+        <v>29</v>
       </c>
       <c r="H46" t="n">
-        <v>29</v>
+        <v>8549.253902235207</v>
       </c>
       <c r="I46" t="n">
-        <v>29</v>
+        <v>-913.963197776663</v>
       </c>
       <c r="J46" t="n">
-        <v>8549.253902235207</v>
+        <v>560.0064789159563</v>
       </c>
       <c r="K46" t="n">
-        <v>-913.963197776663</v>
+        <v>-134.8314154194876</v>
       </c>
       <c r="L46" t="n">
-        <v>560.0064789159563</v>
+        <v>-132.7789099523276</v>
       </c>
       <c r="M46" t="n">
-        <v>-134.8314154194876</v>
+        <v>-6.023956273524581</v>
       </c>
       <c r="N46" t="n">
-        <v>-132.7789099523276</v>
+        <v>350</v>
       </c>
       <c r="O46" t="n">
-        <v>-6.023956273524581</v>
-      </c>
-      <c r="P46" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q46" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2925,36 +2645,30 @@
         <v>99.70954024420465</v>
       </c>
       <c r="G47" t="n">
-        <v>742.4492546193749</v>
+        <v>33</v>
       </c>
       <c r="H47" t="n">
-        <v>33</v>
+        <v>8240.28451699674</v>
       </c>
       <c r="I47" t="n">
-        <v>33</v>
+        <v>-924.7179733518697</v>
       </c>
       <c r="J47" t="n">
-        <v>8240.28451699674</v>
+        <v>590.9186882219171</v>
       </c>
       <c r="K47" t="n">
-        <v>-924.7179733518697</v>
+        <v>-136.9683469366405</v>
       </c>
       <c r="L47" t="n">
-        <v>590.9186882219171</v>
+        <v>-133.6552945831035</v>
       </c>
       <c r="M47" t="n">
-        <v>-136.9683469366405</v>
+        <v>-6.260321812249665</v>
       </c>
       <c r="N47" t="n">
-        <v>-133.6552945831035</v>
+        <v>350</v>
       </c>
       <c r="O47" t="n">
-        <v>-6.260321812249665</v>
-      </c>
-      <c r="P47" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q47" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2978,36 +2692,30 @@
         <v>100.716850796093</v>
       </c>
       <c r="G48" t="n">
-        <v>753.2087809305193</v>
+        <v>32</v>
       </c>
       <c r="H48" t="n">
-        <v>33</v>
+        <v>9142.565789286629</v>
       </c>
       <c r="I48" t="n">
-        <v>32</v>
+        <v>-910.1829987844676</v>
       </c>
       <c r="J48" t="n">
-        <v>9142.565789286629</v>
+        <v>543.1671582511491</v>
       </c>
       <c r="K48" t="n">
-        <v>-910.1829987844676</v>
+        <v>-147.6128821749491</v>
       </c>
       <c r="L48" t="n">
-        <v>543.1671582511491</v>
+        <v>-132.9394194981567</v>
       </c>
       <c r="M48" t="n">
-        <v>-147.6128821749491</v>
+        <v>-5.84008392649483</v>
       </c>
       <c r="N48" t="n">
-        <v>-132.9394194981567</v>
+        <v>350</v>
       </c>
       <c r="O48" t="n">
-        <v>-5.84008392649483</v>
-      </c>
-      <c r="P48" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q48" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3031,36 +2739,30 @@
         <v>88.91798222047639</v>
       </c>
       <c r="G49" t="n">
-        <v>702.2038949453768</v>
+        <v>30</v>
       </c>
       <c r="H49" t="n">
-        <v>29</v>
+        <v>8473.289174395242</v>
       </c>
       <c r="I49" t="n">
-        <v>30</v>
+        <v>-864.711473899255</v>
       </c>
       <c r="J49" t="n">
-        <v>8473.289174395242</v>
+        <v>569.8127267771348</v>
       </c>
       <c r="K49" t="n">
-        <v>-864.711473899255</v>
+        <v>-147.9244488927398</v>
       </c>
       <c r="L49" t="n">
-        <v>569.8127267771348</v>
+        <v>-112.297273603035</v>
       </c>
       <c r="M49" t="n">
-        <v>-147.9244488927398</v>
+        <v>-6.206006509922058</v>
       </c>
       <c r="N49" t="n">
-        <v>-112.297273603035</v>
+        <v>350</v>
       </c>
       <c r="O49" t="n">
-        <v>-6.206006509922058</v>
-      </c>
-      <c r="P49" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q49" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3084,36 +2786,30 @@
         <v>89.77140925596585</v>
       </c>
       <c r="G50" t="n">
-        <v>713.0554924036095</v>
+        <v>29</v>
       </c>
       <c r="H50" t="n">
-        <v>30</v>
+        <v>9268.681235240656</v>
       </c>
       <c r="I50" t="n">
-        <v>29</v>
+        <v>-881.3710829413408</v>
       </c>
       <c r="J50" t="n">
-        <v>9268.681235240656</v>
+        <v>605.8524248404997</v>
       </c>
       <c r="K50" t="n">
-        <v>-881.3710829413408</v>
+        <v>-145.2663694536314</v>
       </c>
       <c r="L50" t="n">
-        <v>605.8524248404997</v>
+        <v>-114.9751874872893</v>
       </c>
       <c r="M50" t="n">
-        <v>-145.2663694536314</v>
+        <v>-6.663751840307719</v>
       </c>
       <c r="N50" t="n">
-        <v>-114.9751874872893</v>
+        <v>350</v>
       </c>
       <c r="O50" t="n">
-        <v>-6.663751840307719</v>
-      </c>
-      <c r="P50" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q50" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3137,36 +2833,30 @@
         <v>91.70457522145099</v>
       </c>
       <c r="G51" t="n">
-        <v>720.6371354915872</v>
+        <v>28</v>
       </c>
       <c r="H51" t="n">
-        <v>29</v>
+        <v>9087.164578264619</v>
       </c>
       <c r="I51" t="n">
-        <v>28</v>
+        <v>-867.3689266449246</v>
       </c>
       <c r="J51" t="n">
-        <v>9087.164578264619</v>
+        <v>670.7372705600983</v>
       </c>
       <c r="K51" t="n">
-        <v>-867.3689266449246</v>
+        <v>-159.5155916515007</v>
       </c>
       <c r="L51" t="n">
-        <v>670.7372705600983</v>
+        <v>-112.5843660001759</v>
       </c>
       <c r="M51" t="n">
-        <v>-159.5155916515007</v>
+        <v>-6.716682193479956</v>
       </c>
       <c r="N51" t="n">
-        <v>-112.5843660001759</v>
+        <v>350</v>
       </c>
       <c r="O51" t="n">
-        <v>-6.716682193479956</v>
-      </c>
-      <c r="P51" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q51" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3190,36 +2880,30 @@
         <v>90.73650964894371</v>
       </c>
       <c r="G52" t="n">
-        <v>720.3855121779337</v>
+        <v>22</v>
       </c>
       <c r="H52" t="n">
-        <v>21</v>
+        <v>8180.756088091922</v>
       </c>
       <c r="I52" t="n">
-        <v>22</v>
+        <v>-881.0929532649761</v>
       </c>
       <c r="J52" t="n">
-        <v>8180.756088091922</v>
+        <v>536.5759292823132</v>
       </c>
       <c r="K52" t="n">
-        <v>-881.0929532649761</v>
+        <v>-143.7618845088811</v>
       </c>
       <c r="L52" t="n">
-        <v>536.5759292823132</v>
+        <v>-114.3524542118201</v>
       </c>
       <c r="M52" t="n">
-        <v>-143.7618845088811</v>
+        <v>-6.888404603638312</v>
       </c>
       <c r="N52" t="n">
-        <v>-114.3524542118201</v>
+        <v>350</v>
       </c>
       <c r="O52" t="n">
-        <v>-6.888404603638312</v>
-      </c>
-      <c r="P52" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q52" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3243,36 +2927,30 @@
         <v>90.66711485538394</v>
       </c>
       <c r="G53" t="n">
-        <v>719.4125562027027</v>
+        <v>27</v>
       </c>
       <c r="H53" t="n">
-        <v>26</v>
+        <v>8590.300463846812</v>
       </c>
       <c r="I53" t="n">
-        <v>27</v>
+        <v>-906.1353734848426</v>
       </c>
       <c r="J53" t="n">
-        <v>8590.300463846812</v>
+        <v>595.7392678478437</v>
       </c>
       <c r="K53" t="n">
-        <v>-906.1353734848426</v>
+        <v>-142.2701913431912</v>
       </c>
       <c r="L53" t="n">
-        <v>595.7392678478437</v>
+        <v>-113.6896276649247</v>
       </c>
       <c r="M53" t="n">
-        <v>-142.2701913431912</v>
+        <v>-7.772575098628137</v>
       </c>
       <c r="N53" t="n">
-        <v>-113.6896276649247</v>
+        <v>350</v>
       </c>
       <c r="O53" t="n">
-        <v>-7.772575098628137</v>
-      </c>
-      <c r="P53" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q53" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3296,36 +2974,30 @@
         <v>91.18491672715318</v>
       </c>
       <c r="G54" t="n">
-        <v>724.5317790332405</v>
+        <v>29</v>
       </c>
       <c r="H54" t="n">
-        <v>30</v>
+        <v>9382.348893828508</v>
       </c>
       <c r="I54" t="n">
-        <v>29</v>
+        <v>-937.8806134451715</v>
       </c>
       <c r="J54" t="n">
-        <v>9382.348893828508</v>
+        <v>510.7578747851714</v>
       </c>
       <c r="K54" t="n">
-        <v>-937.8806134451715</v>
+        <v>-151.8401756033101</v>
       </c>
       <c r="L54" t="n">
-        <v>510.7578747851714</v>
+        <v>-117.29247046638</v>
       </c>
       <c r="M54" t="n">
-        <v>-151.8401756033101</v>
+        <v>-7.052191318231137</v>
       </c>
       <c r="N54" t="n">
-        <v>-117.29247046638</v>
+        <v>350</v>
       </c>
       <c r="O54" t="n">
-        <v>-7.052191318231137</v>
-      </c>
-      <c r="P54" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q54" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3349,36 +3021,30 @@
         <v>91.27456578112766</v>
       </c>
       <c r="G55" t="n">
-        <v>728.4772251257847</v>
+        <v>21</v>
       </c>
       <c r="H55" t="n">
-        <v>22</v>
+        <v>9288.620509217291</v>
       </c>
       <c r="I55" t="n">
-        <v>21</v>
+        <v>-956.6584688706644</v>
       </c>
       <c r="J55" t="n">
-        <v>9288.620509217291</v>
+        <v>588.0650518651228</v>
       </c>
       <c r="K55" t="n">
-        <v>-956.6584688706644</v>
+        <v>-149.8306381957389</v>
       </c>
       <c r="L55" t="n">
-        <v>588.0650518651228</v>
+        <v>-116.6220449866495</v>
       </c>
       <c r="M55" t="n">
-        <v>-149.8306381957389</v>
+        <v>-7.181564380571164</v>
       </c>
       <c r="N55" t="n">
-        <v>-116.6220449866495</v>
+        <v>350</v>
       </c>
       <c r="O55" t="n">
-        <v>-7.181564380571164</v>
-      </c>
-      <c r="P55" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q55" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3402,36 +3068,30 @@
         <v>91.99967559385107</v>
       </c>
       <c r="G56" t="n">
-        <v>734.2770033469925</v>
+        <v>22</v>
       </c>
       <c r="H56" t="n">
-        <v>22</v>
+        <v>9799.194388695994</v>
       </c>
       <c r="I56" t="n">
-        <v>22</v>
+        <v>-950.2369133334141</v>
       </c>
       <c r="J56" t="n">
-        <v>9799.194388695994</v>
+        <v>516.6331745707668</v>
       </c>
       <c r="K56" t="n">
-        <v>-950.2369133334141</v>
+        <v>-157.3889457154807</v>
       </c>
       <c r="L56" t="n">
-        <v>516.6331745707668</v>
+        <v>-114.1564066510141</v>
       </c>
       <c r="M56" t="n">
-        <v>-157.3889457154807</v>
+        <v>-6.428940479787491</v>
       </c>
       <c r="N56" t="n">
-        <v>-114.1564066510141</v>
+        <v>350</v>
       </c>
       <c r="O56" t="n">
-        <v>-6.428940479787491</v>
-      </c>
-      <c r="P56" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q56" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3455,36 +3115,30 @@
         <v>92.80434692959955</v>
       </c>
       <c r="G57" t="n">
-        <v>734.4174291430811</v>
+        <v>17</v>
       </c>
       <c r="H57" t="n">
-        <v>18</v>
+        <v>9605.317367200398</v>
       </c>
       <c r="I57" t="n">
-        <v>17</v>
+        <v>-972.3718700264926</v>
       </c>
       <c r="J57" t="n">
-        <v>9605.317367200398</v>
+        <v>643.5927274294212</v>
       </c>
       <c r="K57" t="n">
-        <v>-972.3718700264926</v>
+        <v>-148.7323691762603</v>
       </c>
       <c r="L57" t="n">
-        <v>643.5927274294212</v>
+        <v>-113.4443947520628</v>
       </c>
       <c r="M57" t="n">
-        <v>-148.7323691762603</v>
+        <v>-6.858513291603836</v>
       </c>
       <c r="N57" t="n">
-        <v>-113.4443947520628</v>
+        <v>350</v>
       </c>
       <c r="O57" t="n">
-        <v>-6.858513291603836</v>
-      </c>
-      <c r="P57" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q57" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3508,36 +3162,30 @@
         <v>92.78535593943455</v>
       </c>
       <c r="G58" t="n">
-        <v>734.8677462088585</v>
+        <v>15</v>
       </c>
       <c r="H58" t="n">
-        <v>16</v>
+        <v>9168.45184703849</v>
       </c>
       <c r="I58" t="n">
-        <v>15</v>
+        <v>-978.1422626711928</v>
       </c>
       <c r="J58" t="n">
-        <v>9168.45184703849</v>
+        <v>602.0046528779616</v>
       </c>
       <c r="K58" t="n">
-        <v>-978.1422626711928</v>
+        <v>-153.2075012139968</v>
       </c>
       <c r="L58" t="n">
-        <v>602.0046528779616</v>
+        <v>-112.1511409785085</v>
       </c>
       <c r="M58" t="n">
-        <v>-153.2075012139968</v>
+        <v>-8.18547377458135</v>
       </c>
       <c r="N58" t="n">
-        <v>-112.1511409785085</v>
+        <v>350</v>
       </c>
       <c r="O58" t="n">
-        <v>-8.18547377458135</v>
-      </c>
-      <c r="P58" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q58" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3561,36 +3209,30 @@
         <v>92.31441398005077</v>
       </c>
       <c r="G59" t="n">
-        <v>730.8209127622499</v>
+        <v>20</v>
       </c>
       <c r="H59" t="n">
-        <v>21</v>
+        <v>9282.56798520853</v>
       </c>
       <c r="I59" t="n">
-        <v>20</v>
+        <v>-977.9166566346039</v>
       </c>
       <c r="J59" t="n">
-        <v>9282.56798520853</v>
+        <v>624.3895935375173</v>
       </c>
       <c r="K59" t="n">
-        <v>-977.9166566346039</v>
+        <v>-142.2599547930383</v>
       </c>
       <c r="L59" t="n">
-        <v>624.3895935375173</v>
+        <v>-111.1124185383037</v>
       </c>
       <c r="M59" t="n">
-        <v>-142.2599547930383</v>
+        <v>-6.877884414414384</v>
       </c>
       <c r="N59" t="n">
-        <v>-111.1124185383037</v>
+        <v>350</v>
       </c>
       <c r="O59" t="n">
-        <v>-6.877884414414384</v>
-      </c>
-      <c r="P59" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q59" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3614,36 +3256,30 @@
         <v>93.7227665655823</v>
       </c>
       <c r="G60" t="n">
-        <v>743.4282450258663</v>
+        <v>20</v>
       </c>
       <c r="H60" t="n">
-        <v>21</v>
+        <v>10274.10722550625</v>
       </c>
       <c r="I60" t="n">
-        <v>20</v>
+        <v>-991.245444490949</v>
       </c>
       <c r="J60" t="n">
-        <v>10274.10722550625</v>
+        <v>656.3948415525329</v>
       </c>
       <c r="K60" t="n">
-        <v>-991.245444490949</v>
+        <v>-157.0473972956463</v>
       </c>
       <c r="L60" t="n">
-        <v>656.3948415525329</v>
+        <v>-115.0686994915829</v>
       </c>
       <c r="M60" t="n">
-        <v>-157.0473972956463</v>
+        <v>-7.096400377658404</v>
       </c>
       <c r="N60" t="n">
-        <v>-115.0686994915829</v>
+        <v>350</v>
       </c>
       <c r="O60" t="n">
-        <v>-7.096400377658404</v>
-      </c>
-      <c r="P60" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q60" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3667,36 +3303,30 @@
         <v>92.44238980854746</v>
       </c>
       <c r="G61" t="n">
-        <v>736.7639367779119</v>
+        <v>24</v>
       </c>
       <c r="H61" t="n">
-        <v>24</v>
+        <v>9783.096902544232</v>
       </c>
       <c r="I61" t="n">
-        <v>24</v>
+        <v>-984.4147556080907</v>
       </c>
       <c r="J61" t="n">
-        <v>9783.096902544232</v>
+        <v>644.9252075221513</v>
       </c>
       <c r="K61" t="n">
-        <v>-984.4147556080907</v>
+        <v>-132.0541909141645</v>
       </c>
       <c r="L61" t="n">
-        <v>644.9252075221513</v>
+        <v>-107.4627552500582</v>
       </c>
       <c r="M61" t="n">
-        <v>-132.0541909141645</v>
+        <v>-7.210150983012166</v>
       </c>
       <c r="N61" t="n">
-        <v>-107.4627552500582</v>
+        <v>350</v>
       </c>
       <c r="O61" t="n">
-        <v>-7.210150983012166</v>
-      </c>
-      <c r="P61" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q61" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3720,36 +3350,30 @@
         <v>93.21079343543839</v>
       </c>
       <c r="G62" t="n">
-        <v>745.8112878218312</v>
+        <v>21</v>
       </c>
       <c r="H62" t="n">
-        <v>21</v>
+        <v>8527.557343658253</v>
       </c>
       <c r="I62" t="n">
-        <v>21</v>
+        <v>-993.9246648924982</v>
       </c>
       <c r="J62" t="n">
-        <v>8527.557343658253</v>
+        <v>546.2296734956295</v>
       </c>
       <c r="K62" t="n">
-        <v>-993.9246648924982</v>
+        <v>-165.692298292232</v>
       </c>
       <c r="L62" t="n">
-        <v>546.2296734956295</v>
+        <v>-114.2092849820573</v>
       </c>
       <c r="M62" t="n">
-        <v>-165.692298292232</v>
+        <v>-6.949406609978533</v>
       </c>
       <c r="N62" t="n">
-        <v>-114.2092849820573</v>
+        <v>350</v>
       </c>
       <c r="O62" t="n">
-        <v>-6.949406609978533</v>
-      </c>
-      <c r="P62" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q62" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3773,36 +3397,30 @@
         <v>92.58914665527671</v>
       </c>
       <c r="G63" t="n">
-        <v>736.1852008566602</v>
+        <v>22</v>
       </c>
       <c r="H63" t="n">
-        <v>23</v>
+        <v>10212.36694367767</v>
       </c>
       <c r="I63" t="n">
-        <v>22</v>
+        <v>-983.2313250418356</v>
       </c>
       <c r="J63" t="n">
-        <v>10212.36694367767</v>
+        <v>627.6853936651274</v>
       </c>
       <c r="K63" t="n">
-        <v>-983.2313250418356</v>
+        <v>-150.3007687901231</v>
       </c>
       <c r="L63" t="n">
-        <v>627.6853936651274</v>
+        <v>-114.191674834618</v>
       </c>
       <c r="M63" t="n">
-        <v>-150.3007687901231</v>
+        <v>-7.257069723296398</v>
       </c>
       <c r="N63" t="n">
-        <v>-114.191674834618</v>
+        <v>300</v>
       </c>
       <c r="O63" t="n">
-        <v>-7.257069723296398</v>
-      </c>
-      <c r="P63" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q63" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3826,36 +3444,30 @@
         <v>91.74316740618488</v>
       </c>
       <c r="G64" t="n">
-        <v>723.408522096046</v>
+        <v>20</v>
       </c>
       <c r="H64" t="n">
-        <v>21</v>
+        <v>8587.155787860349</v>
       </c>
       <c r="I64" t="n">
-        <v>20</v>
+        <v>-979.2437964811606</v>
       </c>
       <c r="J64" t="n">
-        <v>8587.155787860349</v>
+        <v>531.0940317372608</v>
       </c>
       <c r="K64" t="n">
-        <v>-979.2437964811606</v>
+        <v>-144.0220306358553</v>
       </c>
       <c r="L64" t="n">
-        <v>531.0940317372608</v>
+        <v>-114.8970114487609</v>
       </c>
       <c r="M64" t="n">
-        <v>-144.0220306358553</v>
+        <v>-7.046374758887866</v>
       </c>
       <c r="N64" t="n">
-        <v>-114.8970114487609</v>
+        <v>300</v>
       </c>
       <c r="O64" t="n">
-        <v>-7.046374758887866</v>
-      </c>
-      <c r="P64" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q64" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3879,36 +3491,30 @@
         <v>92.19028796592079</v>
       </c>
       <c r="G65" t="n">
-        <v>732.3379840617948</v>
+        <v>19</v>
       </c>
       <c r="H65" t="n">
-        <v>20</v>
+        <v>9162.386704602512</v>
       </c>
       <c r="I65" t="n">
-        <v>19</v>
+        <v>-1012.674130955643</v>
       </c>
       <c r="J65" t="n">
-        <v>9162.386704602512</v>
+        <v>629.4857419599883</v>
       </c>
       <c r="K65" t="n">
-        <v>-1012.674130955643</v>
+        <v>-134.1678394706128</v>
       </c>
       <c r="L65" t="n">
-        <v>629.4857419599883</v>
+        <v>-117.6854662840998</v>
       </c>
       <c r="M65" t="n">
-        <v>-134.1678394706128</v>
+        <v>-7.301530304444183</v>
       </c>
       <c r="N65" t="n">
-        <v>-117.6854662840998</v>
+        <v>300</v>
       </c>
       <c r="O65" t="n">
-        <v>-7.301530304444183</v>
-      </c>
-      <c r="P65" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q65" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3932,36 +3538,30 @@
         <v>91.19236919844141</v>
       </c>
       <c r="G66" t="n">
-        <v>716.911033296795</v>
+        <v>19</v>
       </c>
       <c r="H66" t="n">
-        <v>20</v>
+        <v>8253.914506655889</v>
       </c>
       <c r="I66" t="n">
-        <v>19</v>
+        <v>-980.1586168592958</v>
       </c>
       <c r="J66" t="n">
-        <v>8253.914506655889</v>
+        <v>539.4246488742871</v>
       </c>
       <c r="K66" t="n">
-        <v>-980.1586168592958</v>
+        <v>-138.6380240256066</v>
       </c>
       <c r="L66" t="n">
-        <v>539.4246488742871</v>
+        <v>-109.3959448406439</v>
       </c>
       <c r="M66" t="n">
-        <v>-138.6380240256066</v>
+        <v>-8.737270255124356</v>
       </c>
       <c r="N66" t="n">
-        <v>-109.3959448406439</v>
+        <v>300</v>
       </c>
       <c r="O66" t="n">
-        <v>-8.737270255124356</v>
-      </c>
-      <c r="P66" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q66" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3985,36 +3585,30 @@
         <v>91.34765315374214</v>
       </c>
       <c r="G67" t="n">
-        <v>731.7863028940167</v>
+        <v>21</v>
       </c>
       <c r="H67" t="n">
-        <v>22</v>
+        <v>9568.144861777881</v>
       </c>
       <c r="I67" t="n">
-        <v>21</v>
+        <v>-1002.811856749126</v>
       </c>
       <c r="J67" t="n">
-        <v>9568.144861777881</v>
+        <v>594.7291689983113</v>
       </c>
       <c r="K67" t="n">
-        <v>-1002.811856749126</v>
+        <v>-153.0192665770835</v>
       </c>
       <c r="L67" t="n">
-        <v>594.7291689983113</v>
+        <v>-115.4603683811557</v>
       </c>
       <c r="M67" t="n">
-        <v>-153.0192665770835</v>
+        <v>-6.956307885034553</v>
       </c>
       <c r="N67" t="n">
-        <v>-115.4603683811557</v>
+        <v>300</v>
       </c>
       <c r="O67" t="n">
-        <v>-6.956307885034553</v>
-      </c>
-      <c r="P67" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q67" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4038,36 +3632,30 @@
         <v>91.76170135905677</v>
       </c>
       <c r="G68" t="n">
-        <v>735.1319278826569</v>
+        <v>18</v>
       </c>
       <c r="H68" t="n">
-        <v>18</v>
+        <v>9628.146110573398</v>
       </c>
       <c r="I68" t="n">
-        <v>18</v>
+        <v>-1007.567153923775</v>
       </c>
       <c r="J68" t="n">
-        <v>9628.146110573398</v>
+        <v>621.9303765983152</v>
       </c>
       <c r="K68" t="n">
-        <v>-1007.567153923775</v>
+        <v>-157.7343748858821</v>
       </c>
       <c r="L68" t="n">
-        <v>621.9303765983152</v>
+        <v>-116.7816814770954</v>
       </c>
       <c r="M68" t="n">
-        <v>-157.7343748858821</v>
+        <v>-7.489796285216533</v>
       </c>
       <c r="N68" t="n">
-        <v>-116.7816814770954</v>
+        <v>300</v>
       </c>
       <c r="O68" t="n">
-        <v>-7.489796285216533</v>
-      </c>
-      <c r="P68" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q68" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4091,36 +3679,30 @@
         <v>91.5897607116552</v>
       </c>
       <c r="G69" t="n">
-        <v>728.9486001554765</v>
+        <v>23</v>
       </c>
       <c r="H69" t="n">
-        <v>24</v>
+        <v>10399.76811513724</v>
       </c>
       <c r="I69" t="n">
-        <v>23</v>
+        <v>-1001.461003121241</v>
       </c>
       <c r="J69" t="n">
-        <v>10399.76811513724</v>
+        <v>639.6503916821298</v>
       </c>
       <c r="K69" t="n">
-        <v>-1001.461003121241</v>
+        <v>-133.4723262652667</v>
       </c>
       <c r="L69" t="n">
-        <v>639.6503916821298</v>
+        <v>-114.8654852054539</v>
       </c>
       <c r="M69" t="n">
-        <v>-133.4723262652667</v>
+        <v>-7.272216253106962</v>
       </c>
       <c r="N69" t="n">
-        <v>-114.8654852054539</v>
+        <v>300</v>
       </c>
       <c r="O69" t="n">
-        <v>-7.272216253106962</v>
-      </c>
-      <c r="P69" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q69" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4144,36 +3726,30 @@
         <v>92.79149719381849</v>
       </c>
       <c r="G70" t="n">
-        <v>734.0830740565675</v>
+        <v>27</v>
       </c>
       <c r="H70" t="n">
-        <v>27</v>
+        <v>10377.32444406147</v>
       </c>
       <c r="I70" t="n">
-        <v>27</v>
+        <v>-1002.002437749758</v>
       </c>
       <c r="J70" t="n">
-        <v>10377.32444406147</v>
+        <v>664.315040038091</v>
       </c>
       <c r="K70" t="n">
-        <v>-1002.002437749758</v>
+        <v>-155.7377478436916</v>
       </c>
       <c r="L70" t="n">
-        <v>664.315040038091</v>
+        <v>-114.8666075637946</v>
       </c>
       <c r="M70" t="n">
-        <v>-155.7377478436916</v>
+        <v>-6.942243266804555</v>
       </c>
       <c r="N70" t="n">
-        <v>-114.8666075637946</v>
+        <v>300</v>
       </c>
       <c r="O70" t="n">
-        <v>-6.942243266804555</v>
-      </c>
-      <c r="P70" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q70" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4197,36 +3773,30 @@
         <v>91.76308568538592</v>
       </c>
       <c r="G71" t="n">
-        <v>728.5482695563387</v>
+        <v>23</v>
       </c>
       <c r="H71" t="n">
-        <v>24</v>
+        <v>9693.701780004751</v>
       </c>
       <c r="I71" t="n">
-        <v>23</v>
+        <v>-1008.511327390197</v>
       </c>
       <c r="J71" t="n">
-        <v>9693.701780004751</v>
+        <v>547.2880197313108</v>
       </c>
       <c r="K71" t="n">
-        <v>-1008.511327390197</v>
+        <v>-153.9652559344639</v>
       </c>
       <c r="L71" t="n">
-        <v>547.2880197313108</v>
+        <v>-115.8560651325264</v>
       </c>
       <c r="M71" t="n">
-        <v>-153.9652559344639</v>
+        <v>-6.966495423812845</v>
       </c>
       <c r="N71" t="n">
-        <v>-115.8560651325264</v>
+        <v>300</v>
       </c>
       <c r="O71" t="n">
-        <v>-6.966495423812845</v>
-      </c>
-      <c r="P71" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q71" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4250,36 +3820,30 @@
         <v>91.96587619140787</v>
       </c>
       <c r="G72" t="n">
-        <v>728.6595861233832</v>
+        <v>22</v>
       </c>
       <c r="H72" t="n">
-        <v>22</v>
+        <v>10171.517113104</v>
       </c>
       <c r="I72" t="n">
-        <v>22</v>
+        <v>-995.3773490748817</v>
       </c>
       <c r="J72" t="n">
-        <v>10171.517113104</v>
+        <v>569.7248504321551</v>
       </c>
       <c r="K72" t="n">
-        <v>-995.3773490748817</v>
+        <v>-158.2756294608178</v>
       </c>
       <c r="L72" t="n">
-        <v>569.7248504321551</v>
+        <v>-115.4140129423142</v>
       </c>
       <c r="M72" t="n">
-        <v>-158.2756294608178</v>
+        <v>-6.944157456972774</v>
       </c>
       <c r="N72" t="n">
-        <v>-115.4140129423142</v>
+        <v>300</v>
       </c>
       <c r="O72" t="n">
-        <v>-6.944157456972774</v>
-      </c>
-      <c r="P72" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q72" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4303,36 +3867,30 @@
         <v>91.82146792286198</v>
       </c>
       <c r="G73" t="n">
-        <v>730.0500257626243</v>
+        <v>27</v>
       </c>
       <c r="H73" t="n">
-        <v>28</v>
+        <v>10204.1858746191</v>
       </c>
       <c r="I73" t="n">
-        <v>27</v>
+        <v>-991.7438198792252</v>
       </c>
       <c r="J73" t="n">
-        <v>10204.1858746191</v>
+        <v>640.2539309541185</v>
       </c>
       <c r="K73" t="n">
-        <v>-991.7438198792252</v>
+        <v>-136.7746472534923</v>
       </c>
       <c r="L73" t="n">
-        <v>640.2539309541185</v>
+        <v>-114.5164720857976</v>
       </c>
       <c r="M73" t="n">
-        <v>-136.7746472534923</v>
+        <v>-7.259659826040203</v>
       </c>
       <c r="N73" t="n">
-        <v>-114.5164720857976</v>
+        <v>300</v>
       </c>
       <c r="O73" t="n">
-        <v>-7.259659826040203</v>
-      </c>
-      <c r="P73" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q73" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4356,36 +3914,30 @@
         <v>91.22422591194757</v>
       </c>
       <c r="G74" t="n">
-        <v>725.4895441927081</v>
+        <v>28</v>
       </c>
       <c r="H74" t="n">
-        <v>29</v>
+        <v>8484.851905578442</v>
       </c>
       <c r="I74" t="n">
-        <v>28</v>
+        <v>-1001.565001082133</v>
       </c>
       <c r="J74" t="n">
-        <v>8484.851905578442</v>
+        <v>639.3647481787592</v>
       </c>
       <c r="K74" t="n">
-        <v>-1001.565001082133</v>
+        <v>-139.7502854956957</v>
       </c>
       <c r="L74" t="n">
-        <v>639.3647481787592</v>
+        <v>-110.2164633844406</v>
       </c>
       <c r="M74" t="n">
-        <v>-139.7502854956957</v>
+        <v>-6.962792994784233</v>
       </c>
       <c r="N74" t="n">
-        <v>-110.2164633844406</v>
+        <v>300</v>
       </c>
       <c r="O74" t="n">
-        <v>-6.962792994784233</v>
-      </c>
-      <c r="P74" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q74" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4409,36 +3961,30 @@
         <v>88.91151426447058</v>
       </c>
       <c r="G75" t="n">
-        <v>704.877358294385</v>
+        <v>29</v>
       </c>
       <c r="H75" t="n">
-        <v>30</v>
+        <v>9182.487812880288</v>
       </c>
       <c r="I75" t="n">
-        <v>29</v>
+        <v>-866.3220774816618</v>
       </c>
       <c r="J75" t="n">
-        <v>9182.487812880288</v>
+        <v>494.6411728182832</v>
       </c>
       <c r="K75" t="n">
-        <v>-866.3220774816618</v>
+        <v>-155.3577527976594</v>
       </c>
       <c r="L75" t="n">
-        <v>494.6411728182832</v>
+        <v>-114.58652086242</v>
       </c>
       <c r="M75" t="n">
-        <v>-155.3577527976594</v>
+        <v>-5.661282349471059</v>
       </c>
       <c r="N75" t="n">
-        <v>-114.58652086242</v>
+        <v>300</v>
       </c>
       <c r="O75" t="n">
-        <v>-5.661282349471059</v>
-      </c>
-      <c r="P75" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q75" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4462,36 +4008,30 @@
         <v>88.08830668245113</v>
       </c>
       <c r="G76" t="n">
-        <v>701.8446103331372</v>
+        <v>27</v>
       </c>
       <c r="H76" t="n">
-        <v>28</v>
+        <v>9234.061669575487</v>
       </c>
       <c r="I76" t="n">
-        <v>27</v>
+        <v>-875.0018367288812</v>
       </c>
       <c r="J76" t="n">
-        <v>9234.061669575487</v>
+        <v>559.7872629195997</v>
       </c>
       <c r="K76" t="n">
-        <v>-875.0018367288812</v>
+        <v>-154.9362649508953</v>
       </c>
       <c r="L76" t="n">
-        <v>559.7872629195997</v>
+        <v>-109.3251797707204</v>
       </c>
       <c r="M76" t="n">
-        <v>-154.9362649508953</v>
+        <v>-5.37298599744818</v>
       </c>
       <c r="N76" t="n">
-        <v>-109.3251797707204</v>
+        <v>300</v>
       </c>
       <c r="O76" t="n">
-        <v>-5.37298599744818</v>
-      </c>
-      <c r="P76" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q76" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4515,36 +4055,30 @@
         <v>89.10334694263179</v>
       </c>
       <c r="G77" t="n">
-        <v>698.4191260971521</v>
+        <v>30</v>
       </c>
       <c r="H77" t="n">
-        <v>31</v>
+        <v>7982.407593175885</v>
       </c>
       <c r="I77" t="n">
-        <v>30</v>
+        <v>-875.6129043814235</v>
       </c>
       <c r="J77" t="n">
-        <v>7982.407593175885</v>
+        <v>513.0498912236329</v>
       </c>
       <c r="K77" t="n">
-        <v>-875.6129043814235</v>
+        <v>-157.8444048503492</v>
       </c>
       <c r="L77" t="n">
-        <v>513.0498912236329</v>
+        <v>-112.1054409045714</v>
       </c>
       <c r="M77" t="n">
-        <v>-157.8444048503492</v>
+        <v>-6.882419838850083</v>
       </c>
       <c r="N77" t="n">
-        <v>-112.1054409045714</v>
+        <v>300</v>
       </c>
       <c r="O77" t="n">
-        <v>-6.882419838850083</v>
-      </c>
-      <c r="P77" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q77" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4568,36 +4102,30 @@
         <v>89.78179697760362</v>
       </c>
       <c r="G78" t="n">
-        <v>707.1569723284997</v>
+        <v>27</v>
       </c>
       <c r="H78" t="n">
-        <v>27</v>
+        <v>9844.299697073329</v>
       </c>
       <c r="I78" t="n">
-        <v>27</v>
+        <v>-872.406227923886</v>
       </c>
       <c r="J78" t="n">
-        <v>9844.299697073329</v>
+        <v>611.2572909464612</v>
       </c>
       <c r="K78" t="n">
-        <v>-872.406227923886</v>
+        <v>-157.7268060297728</v>
       </c>
       <c r="L78" t="n">
-        <v>611.2572909464612</v>
+        <v>-112.1309984052483</v>
       </c>
       <c r="M78" t="n">
-        <v>-157.7268060297728</v>
+        <v>-5.49173224696705</v>
       </c>
       <c r="N78" t="n">
-        <v>-112.1309984052483</v>
+        <v>300</v>
       </c>
       <c r="O78" t="n">
-        <v>-5.49173224696705</v>
-      </c>
-      <c r="P78" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q78" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4621,36 +4149,30 @@
         <v>88.0320843784052</v>
       </c>
       <c r="G79" t="n">
-        <v>698.4604387348146</v>
+        <v>31</v>
       </c>
       <c r="H79" t="n">
-        <v>30</v>
+        <v>8056.253729787248</v>
       </c>
       <c r="I79" t="n">
-        <v>31</v>
+        <v>-877.9172808988669</v>
       </c>
       <c r="J79" t="n">
-        <v>8056.253729787248</v>
+        <v>565.3822518163697</v>
       </c>
       <c r="K79" t="n">
-        <v>-877.9172808988669</v>
+        <v>-155.2002181815228</v>
       </c>
       <c r="L79" t="n">
-        <v>565.3822518163697</v>
+        <v>-111.0461990336724</v>
       </c>
       <c r="M79" t="n">
-        <v>-155.2002181815228</v>
+        <v>-5.991471045280139</v>
       </c>
       <c r="N79" t="n">
-        <v>-111.0461990336724</v>
+        <v>300</v>
       </c>
       <c r="O79" t="n">
-        <v>-5.991471045280139</v>
-      </c>
-      <c r="P79" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q79" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4674,36 +4196,30 @@
         <v>89.17909106954303</v>
       </c>
       <c r="G80" t="n">
-        <v>699.9137083308232</v>
+        <v>34</v>
       </c>
       <c r="H80" t="n">
-        <v>34</v>
+        <v>8972.37406753265</v>
       </c>
       <c r="I80" t="n">
-        <v>34</v>
+        <v>-876.9120348130291</v>
       </c>
       <c r="J80" t="n">
-        <v>8972.37406753265</v>
+        <v>537.4209534566911</v>
       </c>
       <c r="K80" t="n">
-        <v>-876.9120348130291</v>
+        <v>-158.9604092274546</v>
       </c>
       <c r="L80" t="n">
-        <v>537.4209534566911</v>
+        <v>-113.5550603402785</v>
       </c>
       <c r="M80" t="n">
-        <v>-158.9604092274546</v>
+        <v>-5.388166408070826</v>
       </c>
       <c r="N80" t="n">
-        <v>-113.5550603402785</v>
+        <v>300</v>
       </c>
       <c r="O80" t="n">
-        <v>-5.388166408070826</v>
-      </c>
-      <c r="P80" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q80" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4727,36 +4243,30 @@
         <v>86.98232310497575</v>
       </c>
       <c r="G81" t="n">
-        <v>694.7215876929283</v>
+        <v>33</v>
       </c>
       <c r="H81" t="n">
-        <v>34</v>
+        <v>8867.10743622476</v>
       </c>
       <c r="I81" t="n">
-        <v>33</v>
+        <v>-887.6739706606777</v>
       </c>
       <c r="J81" t="n">
-        <v>8867.10743622476</v>
+        <v>617.1977983038884</v>
       </c>
       <c r="K81" t="n">
-        <v>-887.6739706606777</v>
+        <v>-144.6587570434205</v>
       </c>
       <c r="L81" t="n">
-        <v>617.1977983038884</v>
+        <v>-111.1209567833376</v>
       </c>
       <c r="M81" t="n">
-        <v>-144.6587570434205</v>
+        <v>-5.475638723694345</v>
       </c>
       <c r="N81" t="n">
-        <v>-111.1209567833376</v>
+        <v>300</v>
       </c>
       <c r="O81" t="n">
-        <v>-5.475638723694345</v>
-      </c>
-      <c r="P81" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q81" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4780,36 +4290,30 @@
         <v>87.16899287989264</v>
       </c>
       <c r="G82" t="n">
-        <v>694.4439155156116</v>
+        <v>34</v>
       </c>
       <c r="H82" t="n">
-        <v>34</v>
+        <v>8216.462409632979</v>
       </c>
       <c r="I82" t="n">
-        <v>34</v>
+        <v>-907.130822968883</v>
       </c>
       <c r="J82" t="n">
-        <v>8216.462409632979</v>
+        <v>499.5852509996583</v>
       </c>
       <c r="K82" t="n">
-        <v>-907.130822968883</v>
+        <v>-146.8128907577838</v>
       </c>
       <c r="L82" t="n">
-        <v>499.5852509996583</v>
+        <v>-113.0625515740071</v>
       </c>
       <c r="M82" t="n">
-        <v>-146.8128907577838</v>
+        <v>-5.565720498666888</v>
       </c>
       <c r="N82" t="n">
-        <v>-113.0625515740071</v>
+        <v>300</v>
       </c>
       <c r="O82" t="n">
-        <v>-5.565720498666888</v>
-      </c>
-      <c r="P82" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q82" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4833,36 +4337,30 @@
         <v>89.33712636926693</v>
       </c>
       <c r="G83" t="n">
-        <v>700.7539782960043</v>
+        <v>33</v>
       </c>
       <c r="H83" t="n">
-        <v>34</v>
+        <v>8698.504463182406</v>
       </c>
       <c r="I83" t="n">
-        <v>33</v>
+        <v>-880.7822754554472</v>
       </c>
       <c r="J83" t="n">
-        <v>8698.504463182406</v>
+        <v>544.2355585651502</v>
       </c>
       <c r="K83" t="n">
-        <v>-880.7822754554472</v>
+        <v>-154.4978278200467</v>
       </c>
       <c r="L83" t="n">
-        <v>544.2355585651502</v>
+        <v>-107.1477900244451</v>
       </c>
       <c r="M83" t="n">
-        <v>-154.4978278200467</v>
+        <v>-5.614307753733973</v>
       </c>
       <c r="N83" t="n">
-        <v>-107.1477900244451</v>
+        <v>300</v>
       </c>
       <c r="O83" t="n">
-        <v>-5.614307753733973</v>
-      </c>
-      <c r="P83" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q83" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4886,36 +4384,30 @@
         <v>88.93879010085318</v>
       </c>
       <c r="G84" t="n">
-        <v>699.2766699980245</v>
+        <v>30</v>
       </c>
       <c r="H84" t="n">
-        <v>29</v>
+        <v>8565.995742131039</v>
       </c>
       <c r="I84" t="n">
-        <v>30</v>
+        <v>-876.620870892034</v>
       </c>
       <c r="J84" t="n">
-        <v>8565.995742131039</v>
+        <v>556.686119644214</v>
       </c>
       <c r="K84" t="n">
-        <v>-876.620870892034</v>
+        <v>-156.4446368263746</v>
       </c>
       <c r="L84" t="n">
-        <v>556.686119644214</v>
+        <v>-114.8401403995954</v>
       </c>
       <c r="M84" t="n">
-        <v>-156.4446368263746</v>
+        <v>-6.023175889901484</v>
       </c>
       <c r="N84" t="n">
-        <v>-114.8401403995954</v>
+        <v>300</v>
       </c>
       <c r="O84" t="n">
-        <v>-6.023175889901484</v>
-      </c>
-      <c r="P84" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q84" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4939,36 +4431,30 @@
         <v>88.99107851170442</v>
       </c>
       <c r="G85" t="n">
-        <v>700.2814755483003</v>
+        <v>33</v>
       </c>
       <c r="H85" t="n">
-        <v>34</v>
+        <v>9054.283173556743</v>
       </c>
       <c r="I85" t="n">
-        <v>33</v>
+        <v>-890.2172004801855</v>
       </c>
       <c r="J85" t="n">
-        <v>9054.283173556743</v>
+        <v>548.1723657690059</v>
       </c>
       <c r="K85" t="n">
-        <v>-890.2172004801855</v>
+        <v>-157.4238719043447</v>
       </c>
       <c r="L85" t="n">
-        <v>548.1723657690059</v>
+        <v>-114.1345652330829</v>
       </c>
       <c r="M85" t="n">
-        <v>-157.4238719043447</v>
+        <v>-5.58469101609382</v>
       </c>
       <c r="N85" t="n">
-        <v>-114.1345652330829</v>
+        <v>300</v>
       </c>
       <c r="O85" t="n">
-        <v>-5.58469101609382</v>
-      </c>
-      <c r="P85" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q85" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4992,36 +4478,30 @@
         <v>88.2431379213418</v>
       </c>
       <c r="G86" t="n">
-        <v>700.9817508846131</v>
+        <v>32</v>
       </c>
       <c r="H86" t="n">
-        <v>32</v>
+        <v>9903.768165085447</v>
       </c>
       <c r="I86" t="n">
-        <v>32</v>
+        <v>-882.5598914916609</v>
       </c>
       <c r="J86" t="n">
-        <v>9903.768165085447</v>
+        <v>528.8002833136281</v>
       </c>
       <c r="K86" t="n">
-        <v>-882.5598914916609</v>
+        <v>-153.7439023081731</v>
       </c>
       <c r="L86" t="n">
-        <v>528.8002833136281</v>
+        <v>-112.8607311207786</v>
       </c>
       <c r="M86" t="n">
-        <v>-153.7439023081731</v>
+        <v>-5.19294664757401</v>
       </c>
       <c r="N86" t="n">
-        <v>-112.8607311207786</v>
+        <v>300</v>
       </c>
       <c r="O86" t="n">
-        <v>-5.19294664757401</v>
-      </c>
-      <c r="P86" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q86" t="n">
         <v>90</v>
       </c>
     </row>
@@ -5045,36 +4525,30 @@
         <v>88.93726357978312</v>
       </c>
       <c r="G87" t="n">
-        <v>709.5089724591555</v>
+        <v>34</v>
       </c>
       <c r="H87" t="n">
-        <v>35</v>
+        <v>8832.883522017317</v>
       </c>
       <c r="I87" t="n">
-        <v>34</v>
+        <v>-878.5939133628608</v>
       </c>
       <c r="J87" t="n">
-        <v>8832.883522017317</v>
+        <v>545.3449815349164</v>
       </c>
       <c r="K87" t="n">
-        <v>-878.5939133628608</v>
+        <v>-157.0868024015928</v>
       </c>
       <c r="L87" t="n">
-        <v>545.3449815349164</v>
+        <v>-112.1319670412529</v>
       </c>
       <c r="M87" t="n">
-        <v>-157.0868024015928</v>
+        <v>-5.379508903869873</v>
       </c>
       <c r="N87" t="n">
-        <v>-112.1319670412529</v>
+        <v>300</v>
       </c>
       <c r="O87" t="n">
-        <v>-5.379508903869873</v>
-      </c>
-      <c r="P87" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q87" t="n">
         <v>90</v>
       </c>
     </row>
@@ -5098,36 +4572,30 @@
         <v>88.60522722906664</v>
       </c>
       <c r="G88" t="n">
-        <v>701.8553735840746</v>
+        <v>23</v>
       </c>
       <c r="H88" t="n">
-        <v>24</v>
+        <v>9000.529313561041</v>
       </c>
       <c r="I88" t="n">
-        <v>23</v>
+        <v>-877.189992007794</v>
       </c>
       <c r="J88" t="n">
-        <v>9000.529313561041</v>
+        <v>583.0020339846811</v>
       </c>
       <c r="K88" t="n">
-        <v>-877.189992007794</v>
+        <v>-142.8593195222451</v>
       </c>
       <c r="L88" t="n">
-        <v>583.0020339846811</v>
+        <v>-103.8248705616002</v>
       </c>
       <c r="M88" t="n">
-        <v>-142.8593195222451</v>
+        <v>-6.765330781640808</v>
       </c>
       <c r="N88" t="n">
-        <v>-103.8248705616002</v>
+        <v>300</v>
       </c>
       <c r="O88" t="n">
-        <v>-6.765330781640808</v>
-      </c>
-      <c r="P88" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q88" t="n">
         <v>90</v>
       </c>
     </row>
@@ -5151,36 +4619,30 @@
         <v>92.96304474722207</v>
       </c>
       <c r="G89" t="n">
-        <v>719.0199905373388</v>
+        <v>32</v>
       </c>
       <c r="H89" t="n">
-        <v>32</v>
+        <v>9130.009884729148</v>
       </c>
       <c r="I89" t="n">
-        <v>32</v>
+        <v>-903.5110345021985</v>
       </c>
       <c r="J89" t="n">
-        <v>9130.009884729148</v>
+        <v>517.8919064353141</v>
       </c>
       <c r="K89" t="n">
-        <v>-903.5110345021985</v>
+        <v>-151.212139005625</v>
       </c>
       <c r="L89" t="n">
-        <v>517.8919064353141</v>
+        <v>-124.8793973989244</v>
       </c>
       <c r="M89" t="n">
-        <v>-151.212139005625</v>
+        <v>-5.626907085187127</v>
       </c>
       <c r="N89" t="n">
-        <v>-124.8793973989244</v>
+        <v>300</v>
       </c>
       <c r="O89" t="n">
-        <v>-5.626907085187127</v>
-      </c>
-      <c r="P89" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q89" t="n">
         <v>90</v>
       </c>
     </row>
@@ -5204,36 +4666,30 @@
         <v>92.81743413951419</v>
       </c>
       <c r="G90" t="n">
-        <v>716.0968476165265</v>
+        <v>33</v>
       </c>
       <c r="H90" t="n">
-        <v>32</v>
+        <v>8260.19282812774</v>
       </c>
       <c r="I90" t="n">
-        <v>33</v>
+        <v>-915.6865965840934</v>
       </c>
       <c r="J90" t="n">
-        <v>8260.19282812774</v>
+        <v>531.1879952030023</v>
       </c>
       <c r="K90" t="n">
-        <v>-915.6865965840934</v>
+        <v>-147.9831648075027</v>
       </c>
       <c r="L90" t="n">
-        <v>531.1879952030023</v>
+        <v>-122.4477123691173</v>
       </c>
       <c r="M90" t="n">
-        <v>-147.9831648075027</v>
+        <v>-5.742009293980487</v>
       </c>
       <c r="N90" t="n">
-        <v>-122.4477123691173</v>
+        <v>300</v>
       </c>
       <c r="O90" t="n">
-        <v>-5.742009293980487</v>
-      </c>
-      <c r="P90" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q90" t="n">
         <v>90</v>
       </c>
     </row>
@@ -5257,36 +4713,30 @@
         <v>93.88112907041193</v>
       </c>
       <c r="G91" t="n">
-        <v>725.0747452835251</v>
+        <v>32</v>
       </c>
       <c r="H91" t="n">
-        <v>33</v>
+        <v>8501.085808838077</v>
       </c>
       <c r="I91" t="n">
-        <v>32</v>
+        <v>-911.2011236035223</v>
       </c>
       <c r="J91" t="n">
-        <v>8501.085808838077</v>
+        <v>556.2763475002803</v>
       </c>
       <c r="K91" t="n">
-        <v>-911.2011236035223</v>
+        <v>-156.4495284254523</v>
       </c>
       <c r="L91" t="n">
-        <v>556.2763475002803</v>
+        <v>-120.5866533969305</v>
       </c>
       <c r="M91" t="n">
-        <v>-156.4495284254523</v>
+        <v>-5.915913455097354</v>
       </c>
       <c r="N91" t="n">
-        <v>-120.5866533969305</v>
+        <v>300</v>
       </c>
       <c r="O91" t="n">
-        <v>-5.915913455097354</v>
-      </c>
-      <c r="P91" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q91" t="n">
         <v>90</v>
       </c>
     </row>
@@ -5310,36 +4760,30 @@
         <v>95.06621393564308</v>
       </c>
       <c r="G92" t="n">
-        <v>725.9192018570736</v>
+        <v>32</v>
       </c>
       <c r="H92" t="n">
-        <v>33</v>
+        <v>8398.119354595299</v>
       </c>
       <c r="I92" t="n">
-        <v>32</v>
+        <v>-918.8220502916565</v>
       </c>
       <c r="J92" t="n">
-        <v>8398.119354595299</v>
+        <v>609.4856824076633</v>
       </c>
       <c r="K92" t="n">
-        <v>-918.8220502916565</v>
+        <v>-148.8782494201806</v>
       </c>
       <c r="L92" t="n">
-        <v>609.4856824076633</v>
+        <v>-126.7701325248309</v>
       </c>
       <c r="M92" t="n">
-        <v>-148.8782494201806</v>
+        <v>-6.738824924807586</v>
       </c>
       <c r="N92" t="n">
-        <v>-126.7701325248309</v>
+        <v>300</v>
       </c>
       <c r="O92" t="n">
-        <v>-6.738824924807586</v>
-      </c>
-      <c r="P92" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q92" t="n">
         <v>90</v>
       </c>
     </row>
@@ -5363,36 +4807,30 @@
         <v>95.05309895096813</v>
       </c>
       <c r="G93" t="n">
-        <v>728.7919197655887</v>
+        <v>31</v>
       </c>
       <c r="H93" t="n">
-        <v>32</v>
+        <v>9760.52111270941</v>
       </c>
       <c r="I93" t="n">
-        <v>31</v>
+        <v>-921.4580083001256</v>
       </c>
       <c r="J93" t="n">
-        <v>9760.52111270941</v>
+        <v>538.0665664441525</v>
       </c>
       <c r="K93" t="n">
-        <v>-921.4580083001256</v>
+        <v>-151.0032126602166</v>
       </c>
       <c r="L93" t="n">
-        <v>538.0665664441525</v>
+        <v>-126.6697715500918</v>
       </c>
       <c r="M93" t="n">
-        <v>-151.0032126602166</v>
+        <v>-5.893264610899067</v>
       </c>
       <c r="N93" t="n">
-        <v>-126.6697715500918</v>
+        <v>300</v>
       </c>
       <c r="O93" t="n">
-        <v>-5.893264610899067</v>
-      </c>
-      <c r="P93" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q93" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5416,36 +4854,30 @@
         <v>95.26837372088006</v>
       </c>
       <c r="G94" t="n">
-        <v>729.6800421625047</v>
+        <v>33</v>
       </c>
       <c r="H94" t="n">
-        <v>34</v>
+        <v>8628.665438324708</v>
       </c>
       <c r="I94" t="n">
-        <v>33</v>
+        <v>-912.9865920459342</v>
       </c>
       <c r="J94" t="n">
-        <v>8628.665438324708</v>
+        <v>579.0480237920885</v>
       </c>
       <c r="K94" t="n">
-        <v>-912.9865920459342</v>
+        <v>-143.9950068436658</v>
       </c>
       <c r="L94" t="n">
-        <v>579.0480237920885</v>
+        <v>-124.3033710441204</v>
       </c>
       <c r="M94" t="n">
-        <v>-143.9950068436658</v>
+        <v>-5.842171936788456</v>
       </c>
       <c r="N94" t="n">
-        <v>-124.3033710441204</v>
+        <v>300</v>
       </c>
       <c r="O94" t="n">
-        <v>-5.842171936788456</v>
-      </c>
-      <c r="P94" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q94" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5469,36 +4901,30 @@
         <v>95.19604667035468</v>
       </c>
       <c r="G95" t="n">
-        <v>724.3428173320805</v>
+        <v>31</v>
       </c>
       <c r="H95" t="n">
-        <v>31</v>
+        <v>10089.0218880713</v>
       </c>
       <c r="I95" t="n">
-        <v>31</v>
+        <v>-925.9772245612521</v>
       </c>
       <c r="J95" t="n">
-        <v>10089.0218880713</v>
+        <v>628.1655957006992</v>
       </c>
       <c r="K95" t="n">
-        <v>-925.9772245612521</v>
+        <v>-147.6608351358835</v>
       </c>
       <c r="L95" t="n">
-        <v>628.1655957006992</v>
+        <v>-125.4271684581615</v>
       </c>
       <c r="M95" t="n">
-        <v>-147.6608351358835</v>
+        <v>-5.351004698115272</v>
       </c>
       <c r="N95" t="n">
-        <v>-125.4271684581615</v>
+        <v>300</v>
       </c>
       <c r="O95" t="n">
-        <v>-5.351004698115272</v>
-      </c>
-      <c r="P95" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q95" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5522,36 +4948,30 @@
         <v>99.76458189064451</v>
       </c>
       <c r="G96" t="n">
-        <v>746.7673650828497</v>
+        <v>36</v>
       </c>
       <c r="H96" t="n">
-        <v>37</v>
+        <v>9609.317156915675</v>
       </c>
       <c r="I96" t="n">
-        <v>36</v>
+        <v>-936.5671818926303</v>
       </c>
       <c r="J96" t="n">
-        <v>9609.317156915675</v>
+        <v>607.7451432195052</v>
       </c>
       <c r="K96" t="n">
-        <v>-936.5671818926303</v>
+        <v>-150.3527465988521</v>
       </c>
       <c r="L96" t="n">
-        <v>607.7451432195052</v>
+        <v>-139.2133351487624</v>
       </c>
       <c r="M96" t="n">
-        <v>-150.3527465988521</v>
+        <v>-5.398264225353486</v>
       </c>
       <c r="N96" t="n">
-        <v>-139.2133351487624</v>
+        <v>300</v>
       </c>
       <c r="O96" t="n">
-        <v>-5.398264225353486</v>
-      </c>
-      <c r="P96" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q96" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5575,36 +4995,30 @@
         <v>100.6800716460699</v>
       </c>
       <c r="G97" t="n">
-        <v>749.8538168889867</v>
+        <v>29</v>
       </c>
       <c r="H97" t="n">
-        <v>30</v>
+        <v>9372.640189798873</v>
       </c>
       <c r="I97" t="n">
-        <v>29</v>
+        <v>-934.7475052019363</v>
       </c>
       <c r="J97" t="n">
-        <v>9372.640189798873</v>
+        <v>653.8090715791698</v>
       </c>
       <c r="K97" t="n">
-        <v>-934.7475052019363</v>
+        <v>-145.5850089853227</v>
       </c>
       <c r="L97" t="n">
-        <v>653.8090715791698</v>
+        <v>-131.584359163239</v>
       </c>
       <c r="M97" t="n">
-        <v>-145.5850089853227</v>
+        <v>-6.028642814880596</v>
       </c>
       <c r="N97" t="n">
-        <v>-131.584359163239</v>
+        <v>300</v>
       </c>
       <c r="O97" t="n">
-        <v>-6.028642814880596</v>
-      </c>
-      <c r="P97" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q97" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5628,36 +5042,30 @@
         <v>100.2825094214852</v>
       </c>
       <c r="G98" t="n">
-        <v>746.4199295990164</v>
+        <v>32</v>
       </c>
       <c r="H98" t="n">
-        <v>31</v>
+        <v>9718.854757153644</v>
       </c>
       <c r="I98" t="n">
-        <v>32</v>
+        <v>-927.4390927727909</v>
       </c>
       <c r="J98" t="n">
-        <v>9718.854757153644</v>
+        <v>538.3486298019634</v>
       </c>
       <c r="K98" t="n">
-        <v>-927.4390927727909</v>
+        <v>-150.6477542588811</v>
       </c>
       <c r="L98" t="n">
-        <v>538.3486298019634</v>
+        <v>-136.8000605598876</v>
       </c>
       <c r="M98" t="n">
-        <v>-150.6477542588811</v>
+        <v>-5.362624094719978</v>
       </c>
       <c r="N98" t="n">
-        <v>-136.8000605598876</v>
+        <v>300</v>
       </c>
       <c r="O98" t="n">
-        <v>-5.362624094719978</v>
-      </c>
-      <c r="P98" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q98" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5681,36 +5089,30 @@
         <v>99.93033394137434</v>
       </c>
       <c r="G99" t="n">
-        <v>747.3313571928614</v>
+        <v>31</v>
       </c>
       <c r="H99" t="n">
-        <v>31</v>
+        <v>8930.457755219129</v>
       </c>
       <c r="I99" t="n">
-        <v>31</v>
+        <v>-936.6915143123088</v>
       </c>
       <c r="J99" t="n">
-        <v>8930.457755219129</v>
+        <v>561.974448411353</v>
       </c>
       <c r="K99" t="n">
-        <v>-936.6915143123088</v>
+        <v>-148.2311111701231</v>
       </c>
       <c r="L99" t="n">
-        <v>561.974448411353</v>
+        <v>-134.5143544488603</v>
       </c>
       <c r="M99" t="n">
-        <v>-148.2311111701231</v>
+        <v>-5.423473968859801</v>
       </c>
       <c r="N99" t="n">
-        <v>-134.5143544488603</v>
+        <v>300</v>
       </c>
       <c r="O99" t="n">
-        <v>-5.423473968859801</v>
-      </c>
-      <c r="P99" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q99" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5734,36 +5136,30 @@
         <v>89.14132305779478</v>
       </c>
       <c r="G100" t="n">
-        <v>697.7566225621972</v>
+        <v>31</v>
       </c>
       <c r="H100" t="n">
-        <v>30</v>
+        <v>8820.16674629824</v>
       </c>
       <c r="I100" t="n">
-        <v>31</v>
+        <v>-902.0241640192835</v>
       </c>
       <c r="J100" t="n">
-        <v>8820.16674629824</v>
+        <v>580.3184651437858</v>
       </c>
       <c r="K100" t="n">
-        <v>-902.0241640192835</v>
+        <v>-149.1844250477402</v>
       </c>
       <c r="L100" t="n">
-        <v>580.3184651437858</v>
+        <v>-110.3636964575932</v>
       </c>
       <c r="M100" t="n">
-        <v>-149.1844250477402</v>
+        <v>-5.546778573961846</v>
       </c>
       <c r="N100" t="n">
-        <v>-110.3636964575932</v>
+        <v>300</v>
       </c>
       <c r="O100" t="n">
-        <v>-5.546778573961846</v>
-      </c>
-      <c r="P100" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q100" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5787,36 +5183,30 @@
         <v>89.25511007601247</v>
       </c>
       <c r="G101" t="n">
-        <v>703.7227768962168</v>
+        <v>36</v>
       </c>
       <c r="H101" t="n">
-        <v>37</v>
+        <v>9527.538401460457</v>
       </c>
       <c r="I101" t="n">
-        <v>36</v>
+        <v>-906.7303522267962</v>
       </c>
       <c r="J101" t="n">
-        <v>9527.538401460457</v>
+        <v>530.1448523373922</v>
       </c>
       <c r="K101" t="n">
-        <v>-906.7303522267962</v>
+        <v>-156.3451493192159</v>
       </c>
       <c r="L101" t="n">
-        <v>530.1448523373922</v>
+        <v>-113.0706939861267</v>
       </c>
       <c r="M101" t="n">
-        <v>-156.3451493192159</v>
+        <v>-5.697922524241898</v>
       </c>
       <c r="N101" t="n">
-        <v>-113.0706939861267</v>
+        <v>300</v>
       </c>
       <c r="O101" t="n">
-        <v>-5.697922524241898</v>
-      </c>
-      <c r="P101" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q101" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5840,36 +5230,30 @@
         <v>88.90618770421221</v>
       </c>
       <c r="G102" t="n">
-        <v>703.2150519321019</v>
+        <v>32</v>
       </c>
       <c r="H102" t="n">
-        <v>32</v>
+        <v>8591.94649456289</v>
       </c>
       <c r="I102" t="n">
-        <v>32</v>
+        <v>-895.4826175705548</v>
       </c>
       <c r="J102" t="n">
-        <v>8591.94649456289</v>
+        <v>526.8068916886828</v>
       </c>
       <c r="K102" t="n">
-        <v>-895.4826175705548</v>
+        <v>-154.7493524086525</v>
       </c>
       <c r="L102" t="n">
-        <v>526.8068916886828</v>
+        <v>-111.6644498749328</v>
       </c>
       <c r="M102" t="n">
-        <v>-154.7493524086525</v>
+        <v>-5.345185560072866</v>
       </c>
       <c r="N102" t="n">
-        <v>-111.6644498749328</v>
+        <v>300</v>
       </c>
       <c r="O102" t="n">
-        <v>-5.345185560072866</v>
-      </c>
-      <c r="P102" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q102" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5893,36 +5277,30 @@
         <v>88.98757344159489</v>
       </c>
       <c r="G103" t="n">
-        <v>702.3522153335259</v>
+        <v>27</v>
       </c>
       <c r="H103" t="n">
-        <v>28</v>
+        <v>9184.746274314162</v>
       </c>
       <c r="I103" t="n">
-        <v>27</v>
+        <v>-895.1717399744848</v>
       </c>
       <c r="J103" t="n">
-        <v>9184.746274314162</v>
+        <v>533.0734218324484</v>
       </c>
       <c r="K103" t="n">
-        <v>-895.1717399744848</v>
+        <v>-157.879927863746</v>
       </c>
       <c r="L103" t="n">
-        <v>533.0734218324484</v>
+        <v>-112.5105316201414</v>
       </c>
       <c r="M103" t="n">
-        <v>-157.879927863746</v>
+        <v>-5.414240524603546</v>
       </c>
       <c r="N103" t="n">
-        <v>-112.5105316201414</v>
+        <v>300</v>
       </c>
       <c r="O103" t="n">
-        <v>-5.414240524603546</v>
-      </c>
-      <c r="P103" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q103" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5946,36 +5324,30 @@
         <v>89.1201835870025</v>
       </c>
       <c r="G104" t="n">
-        <v>703.9300728220604</v>
+        <v>29</v>
       </c>
       <c r="H104" t="n">
-        <v>29</v>
+        <v>9795.985660666076</v>
       </c>
       <c r="I104" t="n">
-        <v>29</v>
+        <v>-886.1181162854027</v>
       </c>
       <c r="J104" t="n">
-        <v>9795.985660666076</v>
+        <v>598.0426173561276</v>
       </c>
       <c r="K104" t="n">
-        <v>-886.1181162854027</v>
+        <v>-149.3513224027277</v>
       </c>
       <c r="L104" t="n">
-        <v>598.0426173561276</v>
+        <v>-112.7757526272946</v>
       </c>
       <c r="M104" t="n">
-        <v>-149.3513224027277</v>
+        <v>-5.784206603626464</v>
       </c>
       <c r="N104" t="n">
-        <v>-112.7757526272946</v>
+        <v>300</v>
       </c>
       <c r="O104" t="n">
-        <v>-5.784206603626464</v>
-      </c>
-      <c r="P104" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q104" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5999,36 +5371,30 @@
         <v>89.03201591638323</v>
       </c>
       <c r="G105" t="n">
-        <v>702.3283503044519</v>
+        <v>27</v>
       </c>
       <c r="H105" t="n">
-        <v>28</v>
+        <v>9270.27921321647</v>
       </c>
       <c r="I105" t="n">
-        <v>27</v>
+        <v>-886.505072197534</v>
       </c>
       <c r="J105" t="n">
-        <v>9270.27921321647</v>
+        <v>535.5747615286955</v>
       </c>
       <c r="K105" t="n">
-        <v>-886.505072197534</v>
+        <v>-156.0153744581688</v>
       </c>
       <c r="L105" t="n">
-        <v>535.5747615286955</v>
+        <v>-112.6173146282731</v>
       </c>
       <c r="M105" t="n">
-        <v>-156.0153744581688</v>
+        <v>-5.470361188470799</v>
       </c>
       <c r="N105" t="n">
-        <v>-112.6173146282731</v>
+        <v>300</v>
       </c>
       <c r="O105" t="n">
-        <v>-5.470361188470799</v>
-      </c>
-      <c r="P105" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q105" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6052,36 +5418,30 @@
         <v>89.11341328538514</v>
       </c>
       <c r="G106" t="n">
-        <v>704.9275844360284</v>
+        <v>32</v>
       </c>
       <c r="H106" t="n">
-        <v>32</v>
+        <v>8529.758112271044</v>
       </c>
       <c r="I106" t="n">
-        <v>32</v>
+        <v>-897.561616459966</v>
       </c>
       <c r="J106" t="n">
-        <v>8529.758112271044</v>
+        <v>515.8502495450784</v>
       </c>
       <c r="K106" t="n">
-        <v>-897.561616459966</v>
+        <v>-161.3986135457138</v>
       </c>
       <c r="L106" t="n">
-        <v>515.8502495450784</v>
+        <v>-115.7363869559937</v>
       </c>
       <c r="M106" t="n">
-        <v>-161.3986135457138</v>
+        <v>-5.502526721328985</v>
       </c>
       <c r="N106" t="n">
-        <v>-115.7363869559937</v>
+        <v>300</v>
       </c>
       <c r="O106" t="n">
-        <v>-5.502526721328985</v>
-      </c>
-      <c r="P106" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q106" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6105,36 +5465,30 @@
         <v>89.54560348459189</v>
       </c>
       <c r="G107" t="n">
-        <v>707.0501614839966</v>
+        <v>36</v>
       </c>
       <c r="H107" t="n">
-        <v>36</v>
+        <v>9003.81398354671</v>
       </c>
       <c r="I107" t="n">
-        <v>36</v>
+        <v>-877.942647907762</v>
       </c>
       <c r="J107" t="n">
-        <v>9003.81398354671</v>
+        <v>477.4870633667692</v>
       </c>
       <c r="K107" t="n">
-        <v>-877.942647907762</v>
+        <v>-160.8670813323544</v>
       </c>
       <c r="L107" t="n">
-        <v>477.4870633667692</v>
+        <v>-112.8309164850339</v>
       </c>
       <c r="M107" t="n">
-        <v>-160.8670813323544</v>
+        <v>-5.768114683474248</v>
       </c>
       <c r="N107" t="n">
-        <v>-112.8309164850339</v>
+        <v>300</v>
       </c>
       <c r="O107" t="n">
-        <v>-5.768114683474248</v>
-      </c>
-      <c r="P107" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q107" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6158,36 +5512,30 @@
         <v>89.03724825849643</v>
       </c>
       <c r="G108" t="n">
-        <v>696.9988078192613</v>
+        <v>26</v>
       </c>
       <c r="H108" t="n">
-        <v>26</v>
+        <v>9119.731056612924</v>
       </c>
       <c r="I108" t="n">
-        <v>26</v>
+        <v>-881.2270333295019</v>
       </c>
       <c r="J108" t="n">
-        <v>9119.731056612924</v>
+        <v>592.290971459114</v>
       </c>
       <c r="K108" t="n">
-        <v>-881.2270333295019</v>
+        <v>-154.0257710228815</v>
       </c>
       <c r="L108" t="n">
-        <v>592.290971459114</v>
+        <v>-113.6262759520199</v>
       </c>
       <c r="M108" t="n">
-        <v>-154.0257710228815</v>
+        <v>-5.46247638778785</v>
       </c>
       <c r="N108" t="n">
-        <v>-113.6262759520199</v>
+        <v>300</v>
       </c>
       <c r="O108" t="n">
-        <v>-5.46247638778785</v>
-      </c>
-      <c r="P108" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q108" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6211,36 +5559,30 @@
         <v>89.3485132236344</v>
       </c>
       <c r="G109" t="n">
-        <v>705.1663980464192</v>
+        <v>32</v>
       </c>
       <c r="H109" t="n">
-        <v>31</v>
+        <v>8814.794795889298</v>
       </c>
       <c r="I109" t="n">
-        <v>32</v>
+        <v>-885.3417728672312</v>
       </c>
       <c r="J109" t="n">
-        <v>8814.794795889298</v>
+        <v>484.6489466264799</v>
       </c>
       <c r="K109" t="n">
-        <v>-885.3417728672312</v>
+        <v>-158.4102654698967</v>
       </c>
       <c r="L109" t="n">
-        <v>484.6489466264799</v>
+        <v>-113.0466325065714</v>
       </c>
       <c r="M109" t="n">
-        <v>-158.4102654698967</v>
+        <v>-5.353032866674629</v>
       </c>
       <c r="N109" t="n">
-        <v>-113.0466325065714</v>
+        <v>300</v>
       </c>
       <c r="O109" t="n">
-        <v>-5.353032866674629</v>
-      </c>
-      <c r="P109" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q109" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6264,36 +5606,30 @@
         <v>89.58917888749014</v>
       </c>
       <c r="G110" t="n">
-        <v>705.2851401314831</v>
+        <v>36</v>
       </c>
       <c r="H110" t="n">
-        <v>36</v>
+        <v>9042.459183113951</v>
       </c>
       <c r="I110" t="n">
-        <v>36</v>
+        <v>-891.6412651551545</v>
       </c>
       <c r="J110" t="n">
-        <v>9042.459183113951</v>
+        <v>462.622187376695</v>
       </c>
       <c r="K110" t="n">
-        <v>-891.6412651551545</v>
+        <v>-160.1947421705876</v>
       </c>
       <c r="L110" t="n">
-        <v>462.622187376695</v>
+        <v>-113.1980527769174</v>
       </c>
       <c r="M110" t="n">
-        <v>-160.1947421705876</v>
+        <v>-5.291883066680446</v>
       </c>
       <c r="N110" t="n">
-        <v>-113.1980527769174</v>
+        <v>300</v>
       </c>
       <c r="O110" t="n">
-        <v>-5.291883066680446</v>
-      </c>
-      <c r="P110" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q110" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6317,36 +5653,30 @@
         <v>89.58765656643421</v>
       </c>
       <c r="G111" t="n">
-        <v>705.5837026333228</v>
+        <v>31</v>
       </c>
       <c r="H111" t="n">
-        <v>32</v>
+        <v>9611.646101063005</v>
       </c>
       <c r="I111" t="n">
-        <v>31</v>
+        <v>-881.0525409839756</v>
       </c>
       <c r="J111" t="n">
-        <v>9611.646101063005</v>
+        <v>557.6385268874121</v>
       </c>
       <c r="K111" t="n">
-        <v>-881.0525409839756</v>
+        <v>-159.1897522299718</v>
       </c>
       <c r="L111" t="n">
-        <v>557.6385268874121</v>
+        <v>-109.1060903300958</v>
       </c>
       <c r="M111" t="n">
-        <v>-159.1897522299718</v>
+        <v>-5.420171960053451</v>
       </c>
       <c r="N111" t="n">
-        <v>-109.1060903300958</v>
+        <v>300</v>
       </c>
       <c r="O111" t="n">
-        <v>-5.420171960053451</v>
-      </c>
-      <c r="P111" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q111" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6370,36 +5700,30 @@
         <v>90.00500991749426</v>
       </c>
       <c r="G112" t="n">
-        <v>710.3915333078273</v>
+        <v>28</v>
       </c>
       <c r="H112" t="n">
-        <v>28</v>
+        <v>8634.907932087823</v>
       </c>
       <c r="I112" t="n">
-        <v>28</v>
+        <v>-891.0334903389085</v>
       </c>
       <c r="J112" t="n">
-        <v>8634.907932087823</v>
+        <v>555.8501524620375</v>
       </c>
       <c r="K112" t="n">
-        <v>-891.0334903389085</v>
+        <v>-160.4710101236072</v>
       </c>
       <c r="L112" t="n">
-        <v>555.8501524620375</v>
+        <v>-110.9871049331507</v>
       </c>
       <c r="M112" t="n">
-        <v>-160.4710101236072</v>
+        <v>-5.340263849879195</v>
       </c>
       <c r="N112" t="n">
-        <v>-110.9871049331507</v>
+        <v>300</v>
       </c>
       <c r="O112" t="n">
-        <v>-5.340263849879195</v>
-      </c>
-      <c r="P112" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q112" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6423,36 +5747,30 @@
         <v>89.023150986434</v>
       </c>
       <c r="G113" t="n">
-        <v>706.0466223784424</v>
+        <v>35</v>
       </c>
       <c r="H113" t="n">
-        <v>35</v>
+        <v>9788.881284173767</v>
       </c>
       <c r="I113" t="n">
-        <v>35</v>
+        <v>-884.6973459434075</v>
       </c>
       <c r="J113" t="n">
-        <v>9788.881284173767</v>
+        <v>552.8226331133732</v>
       </c>
       <c r="K113" t="n">
-        <v>-884.6973459434075</v>
+        <v>-158.589579199178</v>
       </c>
       <c r="L113" t="n">
-        <v>552.8226331133732</v>
+        <v>-112.6555095664746</v>
       </c>
       <c r="M113" t="n">
-        <v>-158.589579199178</v>
+        <v>-6.513412687659409</v>
       </c>
       <c r="N113" t="n">
-        <v>-112.6555095664746</v>
+        <v>300</v>
       </c>
       <c r="O113" t="n">
-        <v>-6.513412687659409</v>
-      </c>
-      <c r="P113" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q113" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6476,36 +5794,30 @@
         <v>93.2689489786774</v>
       </c>
       <c r="G114" t="n">
-        <v>766.5532021358098</v>
+        <v>32</v>
       </c>
       <c r="H114" t="n">
-        <v>33</v>
+        <v>9705.832013183208</v>
       </c>
       <c r="I114" t="n">
-        <v>32</v>
+        <v>-901.5379920313753</v>
       </c>
       <c r="J114" t="n">
-        <v>9705.832013183208</v>
+        <v>574.1418997875247</v>
       </c>
       <c r="K114" t="n">
-        <v>-901.5379920313753</v>
+        <v>-174.6926151754887</v>
       </c>
       <c r="L114" t="n">
-        <v>574.1418997875247</v>
+        <v>-114.402240081653</v>
       </c>
       <c r="M114" t="n">
-        <v>-174.6926151754887</v>
+        <v>-4.951446767642127</v>
       </c>
       <c r="N114" t="n">
-        <v>-114.402240081653</v>
+        <v>300</v>
       </c>
       <c r="O114" t="n">
-        <v>-4.951446767642127</v>
-      </c>
-      <c r="P114" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q114" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6529,36 +5841,30 @@
         <v>93.75698261330673</v>
       </c>
       <c r="G115" t="n">
-        <v>753.0384643738586</v>
+        <v>31</v>
       </c>
       <c r="H115" t="n">
-        <v>31</v>
+        <v>10976.2038100273</v>
       </c>
       <c r="I115" t="n">
-        <v>31</v>
+        <v>-898.0291050891037</v>
       </c>
       <c r="J115" t="n">
-        <v>10976.2038100273</v>
+        <v>640.7607790434142</v>
       </c>
       <c r="K115" t="n">
-        <v>-898.0291050891037</v>
+        <v>-181.372614940592</v>
       </c>
       <c r="L115" t="n">
-        <v>640.7607790434142</v>
+        <v>-112.7953005092802</v>
       </c>
       <c r="M115" t="n">
-        <v>-181.372614940592</v>
+        <v>-5.366721582881643</v>
       </c>
       <c r="N115" t="n">
-        <v>-112.7953005092802</v>
+        <v>300</v>
       </c>
       <c r="O115" t="n">
-        <v>-5.366721582881643</v>
-      </c>
-      <c r="P115" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q115" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6582,36 +5888,30 @@
         <v>95.5434265805434</v>
       </c>
       <c r="G116" t="n">
-        <v>799.6330696168922</v>
+        <v>28</v>
       </c>
       <c r="H116" t="n">
-        <v>29</v>
+        <v>12433.09952319451</v>
       </c>
       <c r="I116" t="n">
-        <v>28</v>
+        <v>-892.1185101969777</v>
       </c>
       <c r="J116" t="n">
-        <v>12433.09952319451</v>
+        <v>746.9093489636658</v>
       </c>
       <c r="K116" t="n">
-        <v>-892.1185101969777</v>
+        <v>-190.4043909646327</v>
       </c>
       <c r="L116" t="n">
-        <v>746.9093489636658</v>
+        <v>-110.1949363849961</v>
       </c>
       <c r="M116" t="n">
-        <v>-190.4043909646327</v>
+        <v>-5.092678369590875</v>
       </c>
       <c r="N116" t="n">
-        <v>-110.1949363849961</v>
+        <v>300</v>
       </c>
       <c r="O116" t="n">
-        <v>-5.092678369590875</v>
-      </c>
-      <c r="P116" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q116" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6635,36 +5935,30 @@
         <v>100.1521745373217</v>
       </c>
       <c r="G117" t="n">
-        <v>743.861744318008</v>
+        <v>33</v>
       </c>
       <c r="H117" t="n">
-        <v>32</v>
+        <v>9739.645417497968</v>
       </c>
       <c r="I117" t="n">
-        <v>33</v>
+        <v>-943.1573817278568</v>
       </c>
       <c r="J117" t="n">
-        <v>9739.645417497968</v>
+        <v>679.9126719164461</v>
       </c>
       <c r="K117" t="n">
-        <v>-943.1573817278568</v>
+        <v>-147.8912216522201</v>
       </c>
       <c r="L117" t="n">
-        <v>679.9126719164461</v>
+        <v>-135.8042557936122</v>
       </c>
       <c r="M117" t="n">
-        <v>-147.8912216522201</v>
+        <v>-5.365354755516564</v>
       </c>
       <c r="N117" t="n">
-        <v>-135.8042557936122</v>
+        <v>300</v>
       </c>
       <c r="O117" t="n">
-        <v>-5.365354755516564</v>
-      </c>
-      <c r="P117" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q117" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6688,36 +5982,30 @@
         <v>99.17978359136626</v>
       </c>
       <c r="G118" t="n">
-        <v>740.54923860522</v>
+        <v>38</v>
       </c>
       <c r="H118" t="n">
-        <v>39</v>
+        <v>9196.278535298916</v>
       </c>
       <c r="I118" t="n">
-        <v>38</v>
+        <v>-939.2459803893398</v>
       </c>
       <c r="J118" t="n">
-        <v>9196.278535298916</v>
+        <v>619.5481023294885</v>
       </c>
       <c r="K118" t="n">
-        <v>-939.2459803893398</v>
+        <v>-133.2956085914859</v>
       </c>
       <c r="L118" t="n">
-        <v>619.5481023294885</v>
+        <v>-133.1912724521522</v>
       </c>
       <c r="M118" t="n">
-        <v>-133.2956085914859</v>
+        <v>-5.491013250254888</v>
       </c>
       <c r="N118" t="n">
-        <v>-133.1912724521522</v>
+        <v>300</v>
       </c>
       <c r="O118" t="n">
-        <v>-5.491013250254888</v>
-      </c>
-      <c r="P118" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q118" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6741,36 +6029,30 @@
         <v>99.678206977283</v>
       </c>
       <c r="G119" t="n">
-        <v>743.2338203842422</v>
+        <v>37</v>
       </c>
       <c r="H119" t="n">
-        <v>36</v>
+        <v>9833.49029429011</v>
       </c>
       <c r="I119" t="n">
-        <v>37</v>
+        <v>-932.5059028645155</v>
       </c>
       <c r="J119" t="n">
-        <v>9833.49029429011</v>
+        <v>634.9262148790076</v>
       </c>
       <c r="K119" t="n">
-        <v>-932.5059028645155</v>
+        <v>-149.7718896757783</v>
       </c>
       <c r="L119" t="n">
-        <v>634.9262148790076</v>
+        <v>-135.5836054043732</v>
       </c>
       <c r="M119" t="n">
-        <v>-149.7718896757783</v>
+        <v>-5.526289125626841</v>
       </c>
       <c r="N119" t="n">
-        <v>-135.5836054043732</v>
+        <v>300</v>
       </c>
       <c r="O119" t="n">
-        <v>-5.526289125626841</v>
-      </c>
-      <c r="P119" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q119" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6794,36 +6076,30 @@
         <v>100.2689760212869</v>
       </c>
       <c r="G120" t="n">
-        <v>742.6531377096808</v>
+        <v>35</v>
       </c>
       <c r="H120" t="n">
-        <v>36</v>
+        <v>9613.79556575982</v>
       </c>
       <c r="I120" t="n">
-        <v>35</v>
+        <v>-931.0098477884267</v>
       </c>
       <c r="J120" t="n">
-        <v>9613.79556575982</v>
+        <v>651.8174099587961</v>
       </c>
       <c r="K120" t="n">
-        <v>-931.0098477884267</v>
+        <v>-153.4920589698196</v>
       </c>
       <c r="L120" t="n">
-        <v>651.8174099587961</v>
+        <v>-134.7101197745859</v>
       </c>
       <c r="M120" t="n">
-        <v>-153.4920589698196</v>
+        <v>-5.524352504096966</v>
       </c>
       <c r="N120" t="n">
-        <v>-134.7101197745859</v>
+        <v>300</v>
       </c>
       <c r="O120" t="n">
-        <v>-5.524352504096966</v>
-      </c>
-      <c r="P120" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q120" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6847,36 +6123,30 @@
         <v>99.84968065453766</v>
       </c>
       <c r="G121" t="n">
-        <v>743.6600348262607</v>
+        <v>36</v>
       </c>
       <c r="H121" t="n">
-        <v>36</v>
+        <v>9442.982403254762</v>
       </c>
       <c r="I121" t="n">
-        <v>36</v>
+        <v>-938.5610217863859</v>
       </c>
       <c r="J121" t="n">
-        <v>9442.982403254762</v>
+        <v>665.4080235301461</v>
       </c>
       <c r="K121" t="n">
-        <v>-938.5610217863859</v>
+        <v>-151.7387433742635</v>
       </c>
       <c r="L121" t="n">
-        <v>665.4080235301461</v>
+        <v>-135.3217837185412</v>
       </c>
       <c r="M121" t="n">
-        <v>-151.7387433742635</v>
+        <v>-5.080092817463005</v>
       </c>
       <c r="N121" t="n">
-        <v>-135.3217837185412</v>
+        <v>300</v>
       </c>
       <c r="O121" t="n">
-        <v>-5.080092817463005</v>
-      </c>
-      <c r="P121" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q121" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6900,36 +6170,30 @@
         <v>99.62653249739577</v>
       </c>
       <c r="G122" t="n">
-        <v>746.1891224053795</v>
+        <v>28</v>
       </c>
       <c r="H122" t="n">
-        <v>28</v>
+        <v>8673.370572779517</v>
       </c>
       <c r="I122" t="n">
-        <v>28</v>
+        <v>-937.1560263918254</v>
       </c>
       <c r="J122" t="n">
-        <v>8673.370572779517</v>
+        <v>599.8151338186458</v>
       </c>
       <c r="K122" t="n">
-        <v>-937.1560263918254</v>
+        <v>-147.1786575303927</v>
       </c>
       <c r="L122" t="n">
-        <v>599.8151338186458</v>
+        <v>-136.5791101154985</v>
       </c>
       <c r="M122" t="n">
-        <v>-147.1786575303927</v>
+        <v>-5.349746173658535</v>
       </c>
       <c r="N122" t="n">
-        <v>-136.5791101154985</v>
+        <v>300</v>
       </c>
       <c r="O122" t="n">
-        <v>-5.349746173658535</v>
-      </c>
-      <c r="P122" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q122" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6953,36 +6217,30 @@
         <v>99.2484409043979</v>
       </c>
       <c r="G123" t="n">
-        <v>736.7259235983956</v>
+        <v>37</v>
       </c>
       <c r="H123" t="n">
-        <v>37</v>
+        <v>8191.925942454573</v>
       </c>
       <c r="I123" t="n">
-        <v>37</v>
+        <v>-925.5078481789087</v>
       </c>
       <c r="J123" t="n">
-        <v>8191.925942454573</v>
+        <v>552.9577681383289</v>
       </c>
       <c r="K123" t="n">
-        <v>-925.5078481789087</v>
+        <v>-147.8363277253158</v>
       </c>
       <c r="L123" t="n">
-        <v>552.9577681383289</v>
+        <v>-132.2416836906665</v>
       </c>
       <c r="M123" t="n">
-        <v>-147.8363277253158</v>
+        <v>-5.584339392663348</v>
       </c>
       <c r="N123" t="n">
-        <v>-132.2416836906665</v>
+        <v>300</v>
       </c>
       <c r="O123" t="n">
-        <v>-5.584339392663348</v>
-      </c>
-      <c r="P123" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q123" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7006,36 +6264,30 @@
         <v>99.73672137501637</v>
       </c>
       <c r="G124" t="n">
-        <v>740.1516750632319</v>
+        <v>33</v>
       </c>
       <c r="H124" t="n">
-        <v>32</v>
+        <v>10310.95885497841</v>
       </c>
       <c r="I124" t="n">
-        <v>33</v>
+        <v>-932.0618271213734</v>
       </c>
       <c r="J124" t="n">
-        <v>10310.95885497841</v>
+        <v>641.2117936424629</v>
       </c>
       <c r="K124" t="n">
-        <v>-932.0618271213734</v>
+        <v>-151.0554847815411</v>
       </c>
       <c r="L124" t="n">
-        <v>641.2117936424629</v>
+        <v>-134.7443576722316</v>
       </c>
       <c r="M124" t="n">
-        <v>-151.0554847815411</v>
+        <v>-5.242252253839377</v>
       </c>
       <c r="N124" t="n">
-        <v>-134.7443576722316</v>
+        <v>300</v>
       </c>
       <c r="O124" t="n">
-        <v>-5.242252253839377</v>
-      </c>
-      <c r="P124" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q124" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7059,36 +6311,30 @@
         <v>99.1491072888911</v>
       </c>
       <c r="G125" t="n">
-        <v>741.5922705255371</v>
+        <v>32</v>
       </c>
       <c r="H125" t="n">
-        <v>33</v>
+        <v>9423.755417836448</v>
       </c>
       <c r="I125" t="n">
-        <v>32</v>
+        <v>-927.680352651907</v>
       </c>
       <c r="J125" t="n">
-        <v>9423.755417836448</v>
+        <v>581.1092308209884</v>
       </c>
       <c r="K125" t="n">
-        <v>-927.680352651907</v>
+        <v>-151.2542930796237</v>
       </c>
       <c r="L125" t="n">
-        <v>581.1092308209884</v>
+        <v>-131.8967527598487</v>
       </c>
       <c r="M125" t="n">
-        <v>-151.2542930796237</v>
+        <v>-5.119029036790497</v>
       </c>
       <c r="N125" t="n">
-        <v>-131.8967527598487</v>
+        <v>300</v>
       </c>
       <c r="O125" t="n">
-        <v>-5.119029036790497</v>
-      </c>
-      <c r="P125" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q125" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7112,36 +6358,30 @@
         <v>99.44192644936197</v>
       </c>
       <c r="G126" t="n">
-        <v>740.0136092104684</v>
+        <v>27</v>
       </c>
       <c r="H126" t="n">
-        <v>27</v>
+        <v>9290.916917024311</v>
       </c>
       <c r="I126" t="n">
-        <v>27</v>
+        <v>-916.9520520795941</v>
       </c>
       <c r="J126" t="n">
-        <v>9290.916917024311</v>
+        <v>604.1923024906722</v>
       </c>
       <c r="K126" t="n">
-        <v>-916.9520520795941</v>
+        <v>-139.7021156384123</v>
       </c>
       <c r="L126" t="n">
-        <v>604.1923024906722</v>
+        <v>-134.2262552838462</v>
       </c>
       <c r="M126" t="n">
-        <v>-139.7021156384123</v>
+        <v>-5.874353146970325</v>
       </c>
       <c r="N126" t="n">
-        <v>-134.2262552838462</v>
+        <v>300</v>
       </c>
       <c r="O126" t="n">
-        <v>-5.874353146970325</v>
-      </c>
-      <c r="P126" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q126" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7165,36 +6405,30 @@
         <v>99.45911103632361</v>
       </c>
       <c r="G127" t="n">
-        <v>739.6733030002895</v>
+        <v>32</v>
       </c>
       <c r="H127" t="n">
-        <v>33</v>
+        <v>8459.835016678426</v>
       </c>
       <c r="I127" t="n">
-        <v>32</v>
+        <v>-924.4071430307986</v>
       </c>
       <c r="J127" t="n">
-        <v>8459.835016678426</v>
+        <v>602.1613512016133</v>
       </c>
       <c r="K127" t="n">
-        <v>-924.4071430307986</v>
+        <v>-144.0095314341778</v>
       </c>
       <c r="L127" t="n">
-        <v>602.1613512016133</v>
+        <v>-131.7014170704789</v>
       </c>
       <c r="M127" t="n">
-        <v>-144.0095314341778</v>
+        <v>-5.549111717726338</v>
       </c>
       <c r="N127" t="n">
-        <v>-131.7014170704789</v>
+        <v>300</v>
       </c>
       <c r="O127" t="n">
-        <v>-5.549111717726338</v>
-      </c>
-      <c r="P127" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q127" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7218,36 +6452,30 @@
         <v>100.1433136729621</v>
       </c>
       <c r="G128" t="n">
-        <v>748.3522094664753</v>
+        <v>30</v>
       </c>
       <c r="H128" t="n">
-        <v>31</v>
+        <v>9379.125852138764</v>
       </c>
       <c r="I128" t="n">
-        <v>30</v>
+        <v>-934.8801866960684</v>
       </c>
       <c r="J128" t="n">
-        <v>9379.125852138764</v>
+        <v>612.8961076572524</v>
       </c>
       <c r="K128" t="n">
-        <v>-934.8801866960684</v>
+        <v>-151.5665711699374</v>
       </c>
       <c r="L128" t="n">
-        <v>612.8961076572524</v>
+        <v>-138.4020962158379</v>
       </c>
       <c r="M128" t="n">
-        <v>-151.5665711699374</v>
+        <v>-5.585647344488837</v>
       </c>
       <c r="N128" t="n">
-        <v>-138.4020962158379</v>
+        <v>300</v>
       </c>
       <c r="O128" t="n">
-        <v>-5.585647344488837</v>
-      </c>
-      <c r="P128" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q128" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7271,36 +6499,30 @@
         <v>99.27650287012406</v>
       </c>
       <c r="G129" t="n">
-        <v>741.9877206036788</v>
+        <v>35</v>
       </c>
       <c r="H129" t="n">
-        <v>35</v>
+        <v>9196.924460109409</v>
       </c>
       <c r="I129" t="n">
-        <v>35</v>
+        <v>-933.1077064224937</v>
       </c>
       <c r="J129" t="n">
-        <v>9196.924460109409</v>
+        <v>640.0384143902929</v>
       </c>
       <c r="K129" t="n">
-        <v>-933.1077064224937</v>
+        <v>-148.2966270549911</v>
       </c>
       <c r="L129" t="n">
-        <v>640.0384143902929</v>
+        <v>-136.2275304445471</v>
       </c>
       <c r="M129" t="n">
-        <v>-148.2966270549911</v>
+        <v>-5.4782060147822</v>
       </c>
       <c r="N129" t="n">
-        <v>-136.2275304445471</v>
+        <v>300</v>
       </c>
       <c r="O129" t="n">
-        <v>-5.4782060147822</v>
-      </c>
-      <c r="P129" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q129" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7324,36 +6546,30 @@
         <v>99.81476795673179</v>
       </c>
       <c r="G130" t="n">
-        <v>746.5844166367613</v>
+        <v>34</v>
       </c>
       <c r="H130" t="n">
-        <v>35</v>
+        <v>9373.996966698141</v>
       </c>
       <c r="I130" t="n">
-        <v>34</v>
+        <v>-921.8745974656404</v>
       </c>
       <c r="J130" t="n">
-        <v>9373.996966698141</v>
+        <v>545.5513603833105</v>
       </c>
       <c r="K130" t="n">
-        <v>-921.8745974656404</v>
+        <v>-152.1201219738126</v>
       </c>
       <c r="L130" t="n">
-        <v>545.5513603833105</v>
+        <v>-135.2562424839573</v>
       </c>
       <c r="M130" t="n">
-        <v>-152.1201219738126</v>
+        <v>-5.670617673697444</v>
       </c>
       <c r="N130" t="n">
-        <v>-135.2562424839573</v>
+        <v>300</v>
       </c>
       <c r="O130" t="n">
-        <v>-5.670617673697444</v>
-      </c>
-      <c r="P130" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q130" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7377,36 +6593,30 @@
         <v>99.92069523826551</v>
       </c>
       <c r="G131" t="n">
-        <v>742.6073840349302</v>
+        <v>33</v>
       </c>
       <c r="H131" t="n">
-        <v>33</v>
+        <v>10125.36022678833</v>
       </c>
       <c r="I131" t="n">
-        <v>33</v>
+        <v>-927.9764202183542</v>
       </c>
       <c r="J131" t="n">
-        <v>10125.36022678833</v>
+        <v>671.6718769714639</v>
       </c>
       <c r="K131" t="n">
-        <v>-927.9764202183542</v>
+        <v>-139.2155307759911</v>
       </c>
       <c r="L131" t="n">
-        <v>671.6718769714639</v>
+        <v>-135.611006606826</v>
       </c>
       <c r="M131" t="n">
-        <v>-139.2155307759911</v>
+        <v>-5.687955779586851</v>
       </c>
       <c r="N131" t="n">
-        <v>-135.611006606826</v>
+        <v>300</v>
       </c>
       <c r="O131" t="n">
-        <v>-5.687955779586851</v>
-      </c>
-      <c r="P131" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q131" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7430,36 +6640,30 @@
         <v>99.51546854979559</v>
       </c>
       <c r="G132" t="n">
-        <v>739.9843168574776</v>
+        <v>32</v>
       </c>
       <c r="H132" t="n">
-        <v>32</v>
+        <v>10910.84464389543</v>
       </c>
       <c r="I132" t="n">
-        <v>32</v>
+        <v>-928.7184153267463</v>
       </c>
       <c r="J132" t="n">
-        <v>10910.84464389543</v>
+        <v>651.3692059911162</v>
       </c>
       <c r="K132" t="n">
-        <v>-928.7184153267463</v>
+        <v>-147.1031101901414</v>
       </c>
       <c r="L132" t="n">
-        <v>651.3692059911162</v>
+        <v>-137.6548927051988</v>
       </c>
       <c r="M132" t="n">
-        <v>-147.1031101901414</v>
+        <v>-5.316041394142061</v>
       </c>
       <c r="N132" t="n">
-        <v>-137.6548927051988</v>
+        <v>300</v>
       </c>
       <c r="O132" t="n">
-        <v>-5.316041394142061</v>
-      </c>
-      <c r="P132" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q132" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7483,36 +6687,30 @@
         <v>99.13291482651587</v>
       </c>
       <c r="G133" t="n">
-        <v>737.3599881451269</v>
+        <v>33</v>
       </c>
       <c r="H133" t="n">
-        <v>33</v>
+        <v>8884.749521899299</v>
       </c>
       <c r="I133" t="n">
-        <v>33</v>
+        <v>-927.1689413851873</v>
       </c>
       <c r="J133" t="n">
-        <v>8884.749521899299</v>
+        <v>589.1374331471914</v>
       </c>
       <c r="K133" t="n">
-        <v>-927.1689413851873</v>
+        <v>-144.8892199272017</v>
       </c>
       <c r="L133" t="n">
-        <v>589.1374331471914</v>
+        <v>-134.1038971404066</v>
       </c>
       <c r="M133" t="n">
-        <v>-144.8892199272017</v>
+        <v>-5.724747687287223</v>
       </c>
       <c r="N133" t="n">
-        <v>-134.1038971404066</v>
+        <v>300</v>
       </c>
       <c r="O133" t="n">
-        <v>-5.724747687287223</v>
-      </c>
-      <c r="P133" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q133" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7536,36 +6734,30 @@
         <v>99.26468049810126</v>
       </c>
       <c r="G134" t="n">
-        <v>733.9891227356161</v>
+        <v>31</v>
       </c>
       <c r="H134" t="n">
-        <v>31</v>
+        <v>7589.243310187856</v>
       </c>
       <c r="I134" t="n">
-        <v>31</v>
+        <v>-918.3359801067654</v>
       </c>
       <c r="J134" t="n">
-        <v>7589.243310187856</v>
+        <v>511.9054299527803</v>
       </c>
       <c r="K134" t="n">
-        <v>-918.3359801067654</v>
+        <v>-148.5377279709006</v>
       </c>
       <c r="L134" t="n">
-        <v>511.9054299527803</v>
+        <v>-134.7423747434796</v>
       </c>
       <c r="M134" t="n">
-        <v>-148.5377279709006</v>
+        <v>-5.292635479789828</v>
       </c>
       <c r="N134" t="n">
-        <v>-134.7423747434796</v>
+        <v>300</v>
       </c>
       <c r="O134" t="n">
-        <v>-5.292635479789828</v>
-      </c>
-      <c r="P134" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q134" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7589,36 +6781,30 @@
         <v>98.71930969932654</v>
       </c>
       <c r="G135" t="n">
-        <v>733.7161670906032</v>
+        <v>31</v>
       </c>
       <c r="H135" t="n">
-        <v>32</v>
+        <v>8173.340302363329</v>
       </c>
       <c r="I135" t="n">
-        <v>31</v>
+        <v>-918.9262399581039</v>
       </c>
       <c r="J135" t="n">
-        <v>8173.340302363329</v>
+        <v>506.6053120154229</v>
       </c>
       <c r="K135" t="n">
-        <v>-918.9262399581039</v>
+        <v>-148.1500315135718</v>
       </c>
       <c r="L135" t="n">
-        <v>506.6053120154229</v>
+        <v>-135.8291927391024</v>
       </c>
       <c r="M135" t="n">
-        <v>-148.1500315135718</v>
+        <v>-5.430130857521924</v>
       </c>
       <c r="N135" t="n">
-        <v>-135.8291927391024</v>
+        <v>300</v>
       </c>
       <c r="O135" t="n">
-        <v>-5.430130857521924</v>
-      </c>
-      <c r="P135" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q135" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7642,36 +6828,30 @@
         <v>99.58507503361623</v>
       </c>
       <c r="G136" t="n">
-        <v>739.9306962402111</v>
+        <v>29</v>
       </c>
       <c r="H136" t="n">
-        <v>30</v>
+        <v>8823.501528738707</v>
       </c>
       <c r="I136" t="n">
-        <v>29</v>
+        <v>-925.9152844103655</v>
       </c>
       <c r="J136" t="n">
-        <v>8823.501528738707</v>
+        <v>625.0250961312069</v>
       </c>
       <c r="K136" t="n">
-        <v>-925.9152844103655</v>
+        <v>-149.3985385407954</v>
       </c>
       <c r="L136" t="n">
-        <v>625.0250961312069</v>
+        <v>-134.2757571643868</v>
       </c>
       <c r="M136" t="n">
-        <v>-149.3985385407954</v>
+        <v>-6.617547657160582</v>
       </c>
       <c r="N136" t="n">
-        <v>-134.2757571643868</v>
+        <v>300</v>
       </c>
       <c r="O136" t="n">
-        <v>-6.617547657160582</v>
-      </c>
-      <c r="P136" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q136" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7695,36 +6875,30 @@
         <v>87.95356299004517</v>
       </c>
       <c r="G137" t="n">
-        <v>697.8270214051893</v>
+        <v>28</v>
       </c>
       <c r="H137" t="n">
-        <v>29</v>
+        <v>8069.716425364411</v>
       </c>
       <c r="I137" t="n">
-        <v>28</v>
+        <v>-896.3796296755465</v>
       </c>
       <c r="J137" t="n">
-        <v>8069.716425364411</v>
+        <v>504.4939531669493</v>
       </c>
       <c r="K137" t="n">
-        <v>-896.3796296755465</v>
+        <v>-157.6140640298505</v>
       </c>
       <c r="L137" t="n">
-        <v>504.4939531669493</v>
+        <v>-117.4732814041882</v>
       </c>
       <c r="M137" t="n">
-        <v>-157.6140640298505</v>
+        <v>-5.605641756603332</v>
       </c>
       <c r="N137" t="n">
-        <v>-117.4732814041882</v>
+        <v>300</v>
       </c>
       <c r="O137" t="n">
-        <v>-5.605641756603332</v>
-      </c>
-      <c r="P137" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q137" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7748,36 +6922,30 @@
         <v>88.21274634424644</v>
       </c>
       <c r="G138" t="n">
-        <v>695.9021148719214</v>
+        <v>35</v>
       </c>
       <c r="H138" t="n">
-        <v>35</v>
+        <v>9349.478085227889</v>
       </c>
       <c r="I138" t="n">
-        <v>35</v>
+        <v>-887.218819108406</v>
       </c>
       <c r="J138" t="n">
-        <v>9349.478085227889</v>
+        <v>521.7071204712365</v>
       </c>
       <c r="K138" t="n">
-        <v>-887.218819108406</v>
+        <v>-154.2003119261792</v>
       </c>
       <c r="L138" t="n">
-        <v>521.7071204712365</v>
+        <v>-112.4398589689176</v>
       </c>
       <c r="M138" t="n">
-        <v>-154.2003119261792</v>
+        <v>-5.37902283531052</v>
       </c>
       <c r="N138" t="n">
-        <v>-112.4398589689176</v>
+        <v>300</v>
       </c>
       <c r="O138" t="n">
-        <v>-5.37902283531052</v>
-      </c>
-      <c r="P138" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q138" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7801,36 +6969,30 @@
         <v>88.94656341118217</v>
       </c>
       <c r="G139" t="n">
-        <v>696.2339274557196</v>
+        <v>37</v>
       </c>
       <c r="H139" t="n">
-        <v>37</v>
+        <v>9446.888703418135</v>
       </c>
       <c r="I139" t="n">
-        <v>37</v>
+        <v>-889.2127196916172</v>
       </c>
       <c r="J139" t="n">
-        <v>9446.888703418135</v>
+        <v>623.2990279150628</v>
       </c>
       <c r="K139" t="n">
-        <v>-889.2127196916172</v>
+        <v>-158.8153591222189</v>
       </c>
       <c r="L139" t="n">
-        <v>623.2990279150628</v>
+        <v>-111.3014968385674</v>
       </c>
       <c r="M139" t="n">
-        <v>-158.8153591222189</v>
+        <v>-5.352658160156923</v>
       </c>
       <c r="N139" t="n">
-        <v>-111.3014968385674</v>
+        <v>300</v>
       </c>
       <c r="O139" t="n">
-        <v>-5.352658160156923</v>
-      </c>
-      <c r="P139" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q139" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7854,36 +7016,30 @@
         <v>87.8130998455876</v>
       </c>
       <c r="G140" t="n">
-        <v>703.9732609513585</v>
+        <v>27</v>
       </c>
       <c r="H140" t="n">
-        <v>28</v>
+        <v>10224.89435905057</v>
       </c>
       <c r="I140" t="n">
-        <v>27</v>
+        <v>-1143.197137973227</v>
       </c>
       <c r="J140" t="n">
-        <v>10224.89435905057</v>
+        <v>554.1604509012773</v>
       </c>
       <c r="K140" t="n">
-        <v>-1143.197137973227</v>
+        <v>-261.5470628096394</v>
       </c>
       <c r="L140" t="n">
-        <v>554.1604509012773</v>
+        <v>-13.36553609541126</v>
       </c>
       <c r="M140" t="n">
-        <v>-261.5470628096394</v>
+        <v>-3.763122178415663</v>
       </c>
       <c r="N140" t="n">
-        <v>-13.36553609541126</v>
+        <v>300</v>
       </c>
       <c r="O140" t="n">
-        <v>-3.763122178415663</v>
-      </c>
-      <c r="P140" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q140" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7907,36 +7063,30 @@
         <v>75.45014670044</v>
       </c>
       <c r="G141" t="n">
-        <v>672.9063375543088</v>
+        <v>30</v>
       </c>
       <c r="H141" t="n">
-        <v>31</v>
+        <v>8887.928101435391</v>
       </c>
       <c r="I141" t="n">
-        <v>30</v>
+        <v>-589.2369205555115</v>
       </c>
       <c r="J141" t="n">
-        <v>8887.928101435391</v>
+        <v>560.7706948994283</v>
       </c>
       <c r="K141" t="n">
-        <v>-589.2369205555115</v>
+        <v>-233.9273867741402</v>
       </c>
       <c r="L141" t="n">
-        <v>560.7706948994283</v>
+        <v>-19.33869780764838</v>
       </c>
       <c r="M141" t="n">
-        <v>-233.9273867741402</v>
+        <v>-4.405290231187564</v>
       </c>
       <c r="N141" t="n">
-        <v>-19.33869780764838</v>
+        <v>300</v>
       </c>
       <c r="O141" t="n">
-        <v>-4.405290231187564</v>
-      </c>
-      <c r="P141" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q141" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7960,36 +7110,30 @@
         <v>76.44014496474239</v>
       </c>
       <c r="G142" t="n">
-        <v>693.5305516425419</v>
+        <v>28</v>
       </c>
       <c r="H142" t="n">
-        <v>29</v>
+        <v>9889.36226433061</v>
       </c>
       <c r="I142" t="n">
-        <v>28</v>
+        <v>-615.1302504980067</v>
       </c>
       <c r="J142" t="n">
-        <v>9889.36226433061</v>
+        <v>592.3356931003467</v>
       </c>
       <c r="K142" t="n">
-        <v>-615.1302504980067</v>
+        <v>-240.447298602978</v>
       </c>
       <c r="L142" t="n">
-        <v>592.3356931003467</v>
+        <v>-19.56191508834563</v>
       </c>
       <c r="M142" t="n">
-        <v>-240.447298602978</v>
+        <v>-4.38288941450091</v>
       </c>
       <c r="N142" t="n">
-        <v>-19.56191508834563</v>
+        <v>300</v>
       </c>
       <c r="O142" t="n">
-        <v>-4.38288941450091</v>
-      </c>
-      <c r="P142" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q142" t="n">
         <v>75</v>
       </c>
     </row>
@@ -8013,36 +7157,30 @@
         <v>75.04728765878406</v>
       </c>
       <c r="G143" t="n">
-        <v>674.7265245719493</v>
+        <v>31</v>
       </c>
       <c r="H143" t="n">
-        <v>31</v>
+        <v>9032.468169865049</v>
       </c>
       <c r="I143" t="n">
-        <v>31</v>
+        <v>-597.1072775823104</v>
       </c>
       <c r="J143" t="n">
-        <v>9032.468169865049</v>
+        <v>584.3933403643094</v>
       </c>
       <c r="K143" t="n">
-        <v>-597.1072775823104</v>
+        <v>-233.8794482796858</v>
       </c>
       <c r="L143" t="n">
-        <v>584.3933403643094</v>
+        <v>-19.29593488272418</v>
       </c>
       <c r="M143" t="n">
-        <v>-233.8794482796858</v>
+        <v>-4.313630339207516</v>
       </c>
       <c r="N143" t="n">
-        <v>-19.29593488272418</v>
+        <v>300</v>
       </c>
       <c r="O143" t="n">
-        <v>-4.313630339207516</v>
-      </c>
-      <c r="P143" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q143" t="n">
         <v>75</v>
       </c>
     </row>

--- a/Korrelation/DOE1_features_reduced_features.xlsx
+++ b/Korrelation/DOE1_features_reduced_features.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>global_minima</t>
+          <t>median_y</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -524,7 +524,7 @@
         <v>330.1269226074219</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.420981407165527</v>
+        <v>27.22634601593018</v>
       </c>
       <c r="F2" t="n">
         <v>88.98228723289148</v>
@@ -571,7 +571,7 @@
         <v>337.4118957519531</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.454953670501709</v>
+        <v>28.30992889404297</v>
       </c>
       <c r="F3" t="n">
         <v>89.67683808094458</v>
@@ -618,7 +618,7 @@
         <v>334.4938354492188</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.224777698516846</v>
+        <v>26.12576866149902</v>
       </c>
       <c r="F4" t="n">
         <v>89.55372559295535</v>
@@ -665,7 +665,7 @@
         <v>335.5737609863281</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.621389389038086</v>
+        <v>27.47021770477295</v>
       </c>
       <c r="F5" t="n">
         <v>89.6913028689101</v>
@@ -712,7 +712,7 @@
         <v>335.4924621582031</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.144172668457031</v>
+        <v>27.16029644012451</v>
       </c>
       <c r="F6" t="n">
         <v>89.71097891108327</v>
@@ -759,7 +759,7 @@
         <v>334.6340026855469</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.287482261657715</v>
+        <v>27.04974937438965</v>
       </c>
       <c r="F7" t="n">
         <v>88.78982373454812</v>
@@ -806,7 +806,7 @@
         <v>334.0460510253906</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.987197399139404</v>
+        <v>27.1550407409668</v>
       </c>
       <c r="F8" t="n">
         <v>89.52097640263285</v>
@@ -853,7 +853,7 @@
         <v>331.9847106933594</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.384891033172607</v>
+        <v>26.89102172851562</v>
       </c>
       <c r="F9" t="n">
         <v>88.94337562005913</v>
@@ -900,7 +900,7 @@
         <v>333.94091796875</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.035901546478271</v>
+        <v>27.19901466369629</v>
       </c>
       <c r="F10" t="n">
         <v>88.75527395599974</v>
@@ -947,7 +947,7 @@
         <v>337.4854736328125</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.460575103759766</v>
+        <v>26.86649322509766</v>
       </c>
       <c r="F11" t="n">
         <v>89.21041307959095</v>
@@ -994,7 +994,7 @@
         <v>338.3365783691406</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.206191539764404</v>
+        <v>27.19831466674805</v>
       </c>
       <c r="F12" t="n">
         <v>90.09225294597755</v>
@@ -1041,7 +1041,7 @@
         <v>335.2622680664062</v>
       </c>
       <c r="E13" t="n">
-        <v>-5.916769027709961</v>
+        <v>27.50175285339355</v>
       </c>
       <c r="F13" t="n">
         <v>89.77606568763484</v>
@@ -1088,7 +1088,7 @@
         <v>328.32275390625</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.556567192077637</v>
+        <v>27.71093559265137</v>
       </c>
       <c r="F14" t="n">
         <v>88.76054451003949</v>
@@ -1135,7 +1135,7 @@
         <v>336.7244262695312</v>
       </c>
       <c r="E15" t="n">
-        <v>-5.870867729187012</v>
+        <v>27.36965560913086</v>
       </c>
       <c r="F15" t="n">
         <v>89.35808042803666</v>
@@ -1182,7 +1182,7 @@
         <v>334.6981201171875</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.636806488037109</v>
+        <v>27.65434837341309</v>
       </c>
       <c r="F16" t="n">
         <v>89.70435171163842</v>
@@ -1229,7 +1229,7 @@
         <v>333.0810852050781</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.922024726867676</v>
+        <v>27.62824440002441</v>
       </c>
       <c r="F17" t="n">
         <v>89.07277514542643</v>
@@ -1276,7 +1276,7 @@
         <v>414.8016662597656</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.225462913513184</v>
+        <v>27.66748714447021</v>
       </c>
       <c r="F18" t="n">
         <v>101.0117286877209</v>
@@ -1323,7 +1323,7 @@
         <v>425.6466064453125</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.322171211242676</v>
+        <v>27.70935916900635</v>
       </c>
       <c r="F19" t="n">
         <v>101.7202989132468</v>
@@ -1370,7 +1370,7 @@
         <v>421.004638671875</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.220572948455811</v>
+        <v>27.3538875579834</v>
       </c>
       <c r="F20" t="n">
         <v>101.4661201903622</v>
@@ -1417,7 +1417,7 @@
         <v>430.1712036132812</v>
       </c>
       <c r="E21" t="n">
-        <v>-6.331281185150146</v>
+        <v>27.64366149902344</v>
       </c>
       <c r="F21" t="n">
         <v>102.3776361203063</v>
@@ -1464,7 +1464,7 @@
         <v>434.8142395019531</v>
       </c>
       <c r="E22" t="n">
-        <v>-6.525047302246094</v>
+        <v>27.58304309844971</v>
       </c>
       <c r="F22" t="n">
         <v>102.0773041905688</v>
@@ -1511,7 +1511,7 @@
         <v>423.2513427734375</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.374744892120361</v>
+        <v>26.91309547424316</v>
       </c>
       <c r="F23" t="n">
         <v>102.0339442455397</v>
@@ -1558,7 +1558,7 @@
         <v>427.8754577636719</v>
       </c>
       <c r="E24" t="n">
-        <v>-6.563590049743652</v>
+        <v>27.47074317932129</v>
       </c>
       <c r="F24" t="n">
         <v>102.521135629414</v>
@@ -1605,7 +1605,7 @@
         <v>435.7711486816406</v>
       </c>
       <c r="E25" t="n">
-        <v>-6.275568962097168</v>
+        <v>27.89804458618164</v>
       </c>
       <c r="F25" t="n">
         <v>103.1134896685158</v>
@@ -1652,7 +1652,7 @@
         <v>435.4382934570312</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.702695369720459</v>
+        <v>27.42116355895996</v>
       </c>
       <c r="F26" t="n">
         <v>102.0291683975374</v>
@@ -1699,7 +1699,7 @@
         <v>424.5758056640625</v>
       </c>
       <c r="E27" t="n">
-        <v>-6.603885173797607</v>
+        <v>27.43622970581055</v>
       </c>
       <c r="F27" t="n">
         <v>100.1994819814492</v>
@@ -1746,7 +1746,7 @@
         <v>431.6694641113281</v>
       </c>
       <c r="E28" t="n">
-        <v>-6.782584667205811</v>
+        <v>27.39978981018066</v>
       </c>
       <c r="F28" t="n">
         <v>102.5035455165018</v>
@@ -1793,7 +1793,7 @@
         <v>434.1239624023438</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.477744579315186</v>
+        <v>27.67922592163086</v>
       </c>
       <c r="F29" t="n">
         <v>103.3014027465794</v>
@@ -1840,7 +1840,7 @@
         <v>431.7346496582031</v>
       </c>
       <c r="E30" t="n">
-        <v>-6.561137676239014</v>
+        <v>27.60476684570312</v>
       </c>
       <c r="F30" t="n">
         <v>101.8989796721448</v>
@@ -1887,7 +1887,7 @@
         <v>432.5832824707031</v>
       </c>
       <c r="E31" t="n">
-        <v>-6.2822265625</v>
+        <v>27.89594268798828</v>
       </c>
       <c r="F31" t="n">
         <v>102.2413330866413</v>
@@ -1934,7 +1934,7 @@
         <v>330.7278442382812</v>
       </c>
       <c r="E32" t="n">
-        <v>-6.024338722229004</v>
+        <v>27.37999153137207</v>
       </c>
       <c r="F32" t="n">
         <v>89.03237593424309</v>
@@ -1981,7 +1981,7 @@
         <v>354.4324951171875</v>
       </c>
       <c r="E33" t="n">
-        <v>-5.780116558074951</v>
+        <v>28.16118812561036</v>
       </c>
       <c r="F33" t="n">
         <v>100.1197531727976</v>
@@ -2028,7 +2028,7 @@
         <v>349.9895324707031</v>
       </c>
       <c r="E34" t="n">
-        <v>-5.971079349517822</v>
+        <v>27.81430053710938</v>
       </c>
       <c r="F34" t="n">
         <v>99.51643139988005</v>
@@ -2075,7 +2075,7 @@
         <v>352.8143920898438</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.086007595062256</v>
+        <v>27.72600364685059</v>
       </c>
       <c r="F35" t="n">
         <v>100.040675088119</v>
@@ -2122,7 +2122,7 @@
         <v>353.8960266113281</v>
       </c>
       <c r="E36" t="n">
-        <v>-6.630164623260498</v>
+        <v>27.48913764953613</v>
       </c>
       <c r="F36" t="n">
         <v>99.65537171927785</v>
@@ -2169,7 +2169,7 @@
         <v>352.9888610839844</v>
       </c>
       <c r="E37" t="n">
-        <v>-5.860355854034424</v>
+        <v>28.02120685577393</v>
       </c>
       <c r="F37" t="n">
         <v>100.2619291138106</v>
@@ -2216,7 +2216,7 @@
         <v>352.3147277832031</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.117542743682861</v>
+        <v>27.81465148925781</v>
       </c>
       <c r="F38" t="n">
         <v>99.04423375444495</v>
@@ -2263,7 +2263,7 @@
         <v>355.270263671875</v>
       </c>
       <c r="E39" t="n">
-        <v>-6.884898662567139</v>
+        <v>27.38261985778809</v>
       </c>
       <c r="F39" t="n">
         <v>99.95191728683784</v>
@@ -2310,7 +2310,7 @@
         <v>357.1028137207031</v>
       </c>
       <c r="E40" t="n">
-        <v>-6.406615257263184</v>
+        <v>27.45392417907715</v>
       </c>
       <c r="F40" t="n">
         <v>99.6770128416335</v>
@@ -2357,7 +2357,7 @@
         <v>358.5712890625</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.549924850463867</v>
+        <v>27.55606365203857</v>
       </c>
       <c r="F41" t="n">
         <v>100.9719188796224</v>
@@ -2404,7 +2404,7 @@
         <v>357.0285339355469</v>
       </c>
       <c r="E42" t="n">
-        <v>-6.973196983337402</v>
+        <v>27.46443653106689</v>
       </c>
       <c r="F42" t="n">
         <v>99.89765009237198</v>
@@ -2451,7 +2451,7 @@
         <v>358.6256103515625</v>
       </c>
       <c r="E43" t="n">
-        <v>-6.127003192901611</v>
+        <v>27.83602523803711</v>
       </c>
       <c r="F43" t="n">
         <v>101.0571698719124</v>
@@ -2498,7 +2498,7 @@
         <v>354.0144653320312</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.370189666748047</v>
+        <v>26.7133731842041</v>
       </c>
       <c r="F44" t="n">
         <v>99.80566027367213</v>
@@ -2545,7 +2545,7 @@
         <v>355.8396606445312</v>
       </c>
       <c r="E45" t="n">
-        <v>-6.397154808044434</v>
+        <v>27.70778274536133</v>
       </c>
       <c r="F45" t="n">
         <v>99.90637838831528</v>
@@ -2592,7 +2592,7 @@
         <v>353.3673095703125</v>
       </c>
       <c r="E46" t="n">
-        <v>-6.395402431488037</v>
+        <v>27.50490570068359</v>
       </c>
       <c r="F46" t="n">
         <v>99.24275226684287</v>
@@ -2639,7 +2639,7 @@
         <v>352.1097412109375</v>
       </c>
       <c r="E47" t="n">
-        <v>-6.557983875274658</v>
+        <v>26.91204452514648</v>
       </c>
       <c r="F47" t="n">
         <v>99.70954024420465</v>
@@ -2686,7 +2686,7 @@
         <v>356.3235473632812</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.317280769348145</v>
+        <v>26.41098594665527</v>
       </c>
       <c r="F48" t="n">
         <v>100.716850796093</v>
@@ -2733,7 +2733,7 @@
         <v>330.5487976074219</v>
       </c>
       <c r="E49" t="n">
-        <v>-7.832005023956299</v>
+        <v>25.90362071990967</v>
       </c>
       <c r="F49" t="n">
         <v>88.91798222047639</v>
@@ -2780,7 +2780,7 @@
         <v>336.1809692382812</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.065700054168701</v>
+        <v>28.69097900390625</v>
       </c>
       <c r="F50" t="n">
         <v>89.77140925596585</v>
@@ -2827,7 +2827,7 @@
         <v>349.1170654296875</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.02389666065573692</v>
+        <v>37.27239990234375</v>
       </c>
       <c r="F51" t="n">
         <v>91.70457522145099</v>
@@ -2874,7 +2874,7 @@
         <v>348.5862121582031</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.04912479594349861</v>
+        <v>41.38949203491211</v>
       </c>
       <c r="F52" t="n">
         <v>90.73650964894371</v>
@@ -2921,7 +2921,7 @@
         <v>354.2734069824219</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0445697158575058</v>
+        <v>46.09944534301758</v>
       </c>
       <c r="F53" t="n">
         <v>90.66711485538394</v>
@@ -2968,7 +2968,7 @@
         <v>356.7821960449219</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.003573994152247906</v>
+        <v>48.03219985961914</v>
       </c>
       <c r="F54" t="n">
         <v>91.18491672715318</v>
@@ -3015,7 +3015,7 @@
         <v>359.5205078125</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.04421932622790337</v>
+        <v>49.4158935546875</v>
       </c>
       <c r="F55" t="n">
         <v>91.27456578112766</v>
@@ -3062,7 +3062,7 @@
         <v>365.1512756347656</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.04632167145609856</v>
+        <v>50.07638168334961</v>
       </c>
       <c r="F56" t="n">
         <v>91.99967559385107</v>
@@ -3109,7 +3109,7 @@
         <v>365.9841613769531</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.05332948639988899</v>
+        <v>48.5101318359375</v>
       </c>
       <c r="F57" t="n">
         <v>92.80434692959955</v>
@@ -3156,7 +3156,7 @@
         <v>367.0335998535156</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.0214439257979393</v>
+        <v>48.80796432495117</v>
       </c>
       <c r="F58" t="n">
         <v>92.78535593943455</v>
@@ -3203,7 +3203,7 @@
         <v>361.9014282226562</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0009810859337449074</v>
+        <v>47.93759536743164</v>
       </c>
       <c r="F59" t="n">
         <v>92.31441398005077</v>
@@ -3250,7 +3250,7 @@
         <v>368.3507080078125</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.01723923534154892</v>
+        <v>46.45824432373047</v>
       </c>
       <c r="F60" t="n">
         <v>93.7227665655823</v>
@@ -3297,7 +3297,7 @@
         <v>363.6421508789062</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0137353278696537</v>
+        <v>45.0742015838623</v>
       </c>
       <c r="F61" t="n">
         <v>92.44238980854746</v>
@@ -3344,7 +3344,7 @@
         <v>367.9446105957031</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.0368611179292202</v>
+        <v>43.50497436523438</v>
       </c>
       <c r="F62" t="n">
         <v>93.21079343543839</v>
@@ -3391,7 +3391,7 @@
         <v>363.1982116699219</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.02529822289943695</v>
+        <v>42.55348968505859</v>
       </c>
       <c r="F63" t="n">
         <v>92.58914665527671</v>
@@ -3438,7 +3438,7 @@
         <v>355.1626892089844</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.02705017849802971</v>
+        <v>42.89512252807617</v>
       </c>
       <c r="F64" t="n">
         <v>91.74316740618488</v>
@@ -3485,7 +3485,7 @@
         <v>360.3176574707031</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.01899118907749653</v>
+        <v>42.10989379882812</v>
       </c>
       <c r="F65" t="n">
         <v>92.19028796592079</v>
@@ -3532,7 +3532,7 @@
         <v>352.3627319335938</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.02074314281344414</v>
+        <v>41.4991626739502</v>
       </c>
       <c r="F66" t="n">
         <v>91.19236919844141</v>
@@ -3579,7 +3579,7 @@
         <v>357.0330810546875</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.01058181002736092</v>
+        <v>40.71201133728027</v>
       </c>
       <c r="F67" t="n">
         <v>91.34765315374214</v>
@@ -3626,7 +3626,7 @@
         <v>359.8172912597656</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.01303454581648111</v>
+        <v>40.71779251098633</v>
       </c>
       <c r="F68" t="n">
         <v>91.76170135905677</v>
@@ -3673,7 +3673,7 @@
         <v>356.1535949707031</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.02669978700578213</v>
+        <v>39.95078659057617</v>
       </c>
       <c r="F69" t="n">
         <v>91.5897607116552</v>
@@ -3720,7 +3720,7 @@
         <v>359.3831481933594</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.01198337320238352</v>
+        <v>39.6743278503418</v>
       </c>
       <c r="F70" t="n">
         <v>92.79149719381849</v>
@@ -3767,7 +3767,7 @@
         <v>355.965087890625</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.01618806272745132</v>
+        <v>39.67573165893555</v>
       </c>
       <c r="F71" t="n">
         <v>91.76308568538592</v>
@@ -3814,7 +3814,7 @@
         <v>355.8039245605469</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.003924385644495487</v>
+        <v>38.69849014282227</v>
       </c>
       <c r="F72" t="n">
         <v>91.96587619140787</v>
@@ -3861,7 +3861,7 @@
         <v>356.4076232910156</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.02284548804163933</v>
+        <v>39.00297927856445</v>
       </c>
       <c r="F73" t="n">
         <v>91.82146792286198</v>
@@ -3908,7 +3908,7 @@
         <v>352.2821350097656</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0002803048118948936</v>
+        <v>39.06955337524414</v>
       </c>
       <c r="F74" t="n">
         <v>91.22422591194757</v>
@@ -3955,7 +3955,7 @@
         <v>331.5169372558594</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.426602840423584</v>
+        <v>24.71719741821289</v>
       </c>
       <c r="F75" t="n">
         <v>88.91151426447058</v>
@@ -4002,7 +4002,7 @@
         <v>329.566650390625</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.910842895507812</v>
+        <v>24.07107543945312</v>
       </c>
       <c r="F76" t="n">
         <v>88.08830668245113</v>
@@ -4049,7 +4049,7 @@
         <v>329.8799133300781</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.262635231018066</v>
+        <v>23.87871170043945</v>
       </c>
       <c r="F77" t="n">
         <v>89.10334694263179</v>
@@ -4096,7 +4096,7 @@
         <v>334.9216613769531</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.226195335388184</v>
+        <v>23.93267250061035</v>
       </c>
       <c r="F78" t="n">
         <v>89.78179697760362</v>
@@ -4143,7 +4143,7 @@
         <v>326.4425659179688</v>
       </c>
       <c r="E79" t="n">
-        <v>-9.701690673828125</v>
+        <v>22.55458450317383</v>
       </c>
       <c r="F79" t="n">
         <v>88.0320843784052</v>
@@ -4190,7 +4190,7 @@
         <v>329.1072998046875</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.159636497497559</v>
+        <v>22.88973426818848</v>
       </c>
       <c r="F80" t="n">
         <v>89.17909106954303</v>
@@ -4237,7 +4237,7 @@
         <v>323.9330749511719</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.57521533966064</v>
+        <v>21.49184989929199</v>
       </c>
       <c r="F81" t="n">
         <v>86.98232310497575</v>
@@ -4284,7 +4284,7 @@
         <v>324.3721008300781</v>
       </c>
       <c r="E82" t="n">
-        <v>-11.21853256225586</v>
+        <v>21.35134315490723</v>
       </c>
       <c r="F82" t="n">
         <v>87.16899287989264</v>
@@ -4331,7 +4331,7 @@
         <v>328.8679809570312</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.22622585296631</v>
+        <v>21.84819793701172</v>
       </c>
       <c r="F83" t="n">
         <v>89.33712636926693</v>
@@ -4378,7 +4378,7 @@
         <v>328.5708312988281</v>
       </c>
       <c r="E84" t="n">
-        <v>-9.888799667358398</v>
+        <v>22.42108535766602</v>
       </c>
       <c r="F84" t="n">
         <v>88.93879010085318</v>
@@ -4425,7 +4425,7 @@
         <v>328.7358703613281</v>
       </c>
       <c r="E85" t="n">
-        <v>-10.49777889251709</v>
+        <v>22.38657283782959</v>
       </c>
       <c r="F85" t="n">
         <v>88.99107851170442</v>
@@ -4472,7 +4472,7 @@
         <v>329.6952514648438</v>
       </c>
       <c r="E86" t="n">
-        <v>-9.249336242675781</v>
+        <v>22.84208011627197</v>
       </c>
       <c r="F86" t="n">
         <v>88.2431379213418</v>
@@ -4519,7 +4519,7 @@
         <v>333.1613159179688</v>
       </c>
       <c r="E87" t="n">
-        <v>-10.59588813781738</v>
+        <v>21.61974334716797</v>
       </c>
       <c r="F87" t="n">
         <v>88.93726357978312</v>
@@ -4566,7 +4566,7 @@
         <v>328.3084106445312</v>
       </c>
       <c r="E88" t="n">
-        <v>-10.38845634460449</v>
+        <v>21.87097263336182</v>
       </c>
       <c r="F88" t="n">
         <v>88.60522722906664</v>
@@ -4613,7 +4613,7 @@
         <v>337.2114868164062</v>
       </c>
       <c r="E89" t="n">
-        <v>-9.99812126159668</v>
+        <v>22.45402336120605</v>
       </c>
       <c r="F89" t="n">
         <v>92.96304474722207</v>
@@ -4660,7 +4660,7 @@
         <v>335.1788635253906</v>
       </c>
       <c r="E90" t="n">
-        <v>-10.79315757751465</v>
+        <v>21.6064281463623</v>
       </c>
       <c r="F90" t="n">
         <v>92.81743413951419</v>
@@ -4707,7 +4707,7 @@
         <v>340.4595947265625</v>
       </c>
       <c r="E91" t="n">
-        <v>-10.35972499847412</v>
+        <v>22.25920486450195</v>
       </c>
       <c r="F91" t="n">
         <v>93.88112907041193</v>
@@ -4754,7 +4754,7 @@
         <v>341.770751953125</v>
       </c>
       <c r="E92" t="n">
-        <v>-10.33554744720459</v>
+        <v>21.88796710968018</v>
       </c>
       <c r="F92" t="n">
         <v>95.06621393564308</v>
@@ -4801,7 +4801,7 @@
         <v>342.644287109375</v>
       </c>
       <c r="E93" t="n">
-        <v>-10.92875957489014</v>
+        <v>21.5575475692749</v>
       </c>
       <c r="F93" t="n">
         <v>95.05309895096813</v>
@@ -4848,7 +4848,7 @@
         <v>342.2868957519531</v>
       </c>
       <c r="E94" t="n">
-        <v>-10.91229057312012</v>
+        <v>21.67370223999023</v>
       </c>
       <c r="F94" t="n">
         <v>95.26837372088006</v>
@@ -4895,7 +4895,7 @@
         <v>339.6396789550781</v>
       </c>
       <c r="E95" t="n">
-        <v>-9.823977470397949</v>
+        <v>22.78286457061768</v>
       </c>
       <c r="F95" t="n">
         <v>95.19604667035468</v>
@@ -4942,7 +4942,7 @@
         <v>353.3196411132812</v>
       </c>
       <c r="E96" t="n">
-        <v>-10.08606910705566</v>
+        <v>22.92564964294434</v>
       </c>
       <c r="F96" t="n">
         <v>99.76458189064451</v>
@@ -4989,7 +4989,7 @@
         <v>355.3711853027344</v>
       </c>
       <c r="E97" t="n">
-        <v>-11.25707530975342</v>
+        <v>21.7600736618042</v>
       </c>
       <c r="F97" t="n">
         <v>100.6800716460699</v>
@@ -5036,7 +5036,7 @@
         <v>352.2190551757812</v>
       </c>
       <c r="E98" t="n">
-        <v>-10.83345317840576</v>
+        <v>22.07997989654541</v>
       </c>
       <c r="F98" t="n">
         <v>100.2825094214852</v>
@@ -5083,7 +5083,7 @@
         <v>353.0144653320312</v>
       </c>
       <c r="E99" t="n">
-        <v>-9.008267402648926</v>
+        <v>23.73224830627441</v>
       </c>
       <c r="F99" t="n">
         <v>99.93033394137434</v>
@@ -5130,7 +5130,7 @@
         <v>327.7113342285156</v>
       </c>
       <c r="E100" t="n">
-        <v>-9.897209167480469</v>
+        <v>22.32297706604004</v>
       </c>
       <c r="F100" t="n">
         <v>89.14132305779478</v>
@@ -5177,7 +5177,7 @@
         <v>330.9030456542969</v>
       </c>
       <c r="E101" t="n">
-        <v>-8.957460403442383</v>
+        <v>23.40585994720459</v>
       </c>
       <c r="F101" t="n">
         <v>89.25511007601247</v>
@@ -5224,7 +5224,7 @@
         <v>329.9517211914062</v>
       </c>
       <c r="E102" t="n">
-        <v>-9.472185134887695</v>
+        <v>22.68633270263672</v>
       </c>
       <c r="F102" t="n">
         <v>88.90618770421221</v>
@@ -5271,7 +5271,7 @@
         <v>332.5421752929688</v>
       </c>
       <c r="E103" t="n">
-        <v>-9.437496185302734</v>
+        <v>22.94211769104004</v>
       </c>
       <c r="F103" t="n">
         <v>88.98757344159489</v>
@@ -5318,7 +5318,7 @@
         <v>330.3245544433594</v>
       </c>
       <c r="E104" t="n">
-        <v>-10.95608997344971</v>
+        <v>21.43894004821777</v>
       </c>
       <c r="F104" t="n">
         <v>89.1201835870025</v>
@@ -5365,7 +5365,7 @@
         <v>330.2481689453125</v>
       </c>
       <c r="E105" t="n">
-        <v>-9.574499130249023</v>
+        <v>22.32069873809814</v>
       </c>
       <c r="F105" t="n">
         <v>89.03201591638323</v>
@@ -5412,7 +5412,7 @@
         <v>331.1381530761719</v>
       </c>
       <c r="E106" t="n">
-        <v>-10.0324592590332</v>
+        <v>21.87587738037109</v>
       </c>
       <c r="F106" t="n">
         <v>89.11341328538514</v>
@@ -5459,7 +5459,7 @@
         <v>331.9734802246094</v>
       </c>
       <c r="E107" t="n">
-        <v>-10.4501256942749</v>
+        <v>21.75709533691406</v>
       </c>
       <c r="F107" t="n">
         <v>89.54560348459189</v>
@@ -5506,7 +5506,7 @@
         <v>327.3546447753906</v>
       </c>
       <c r="E108" t="n">
-        <v>-9.120041847229004</v>
+        <v>22.72627639770508</v>
       </c>
       <c r="F108" t="n">
         <v>89.03724825849643</v>
@@ -5553,7 +5553,7 @@
         <v>331.6476135253906</v>
       </c>
       <c r="E109" t="n">
-        <v>-10.14002990722656</v>
+        <v>21.79055786132812</v>
       </c>
       <c r="F109" t="n">
         <v>89.3485132236344</v>
@@ -5600,7 +5600,7 @@
         <v>330.3403015136719</v>
       </c>
       <c r="E110" t="n">
-        <v>-9.911574363708496</v>
+        <v>21.9652271270752</v>
       </c>
       <c r="F110" t="n">
         <v>89.58917888749014</v>
@@ -5647,7 +5647,7 @@
         <v>334.1529235839844</v>
       </c>
       <c r="E111" t="n">
-        <v>-9.215348243713379</v>
+        <v>22.76429462432861</v>
       </c>
       <c r="F111" t="n">
         <v>89.58765656643421</v>
@@ -5694,7 +5694,7 @@
         <v>333.4034423828125</v>
       </c>
       <c r="E112" t="n">
-        <v>-10.1431827545166</v>
+        <v>21.8114070892334</v>
       </c>
       <c r="F112" t="n">
         <v>90.00500991749426</v>
@@ -5741,7 +5741,7 @@
         <v>331.5813903808594</v>
       </c>
       <c r="E113" t="n">
-        <v>-9.822575569152832</v>
+        <v>22.04126167297363</v>
       </c>
       <c r="F113" t="n">
         <v>89.023150986434</v>
@@ -5788,7 +5788,7 @@
         <v>364.7987976074219</v>
       </c>
       <c r="E114" t="n">
-        <v>-10.27282810211182</v>
+        <v>21.10764598846436</v>
       </c>
       <c r="F114" t="n">
         <v>93.2689489786774</v>
@@ -5835,7 +5835,7 @@
         <v>357.8926086425781</v>
       </c>
       <c r="E115" t="n">
-        <v>-11.35658645629883</v>
+        <v>20.44593238830566</v>
       </c>
       <c r="F115" t="n">
         <v>93.75698261330673</v>
@@ -5882,7 +5882,7 @@
         <v>382.9308166503906</v>
       </c>
       <c r="E116" t="n">
-        <v>-10.34711074829102</v>
+        <v>21.42597675323486</v>
       </c>
       <c r="F116" t="n">
         <v>95.5434265805434</v>
@@ -5929,7 +5929,7 @@
         <v>351.1871643066406</v>
       </c>
       <c r="E117" t="n">
-        <v>-11.47466850280762</v>
+        <v>20.54404258728027</v>
       </c>
       <c r="F117" t="n">
         <v>100.1521745373217</v>
@@ -5976,7 +5976,7 @@
         <v>346.2739868164062</v>
       </c>
       <c r="E118" t="n">
-        <v>-11.94349098205566</v>
+        <v>19.03473377227783</v>
       </c>
       <c r="F118" t="n">
         <v>99.17978359136626</v>
@@ -6023,7 +6023,7 @@
         <v>349.0151062011719</v>
       </c>
       <c r="E119" t="n">
-        <v>-11.78196048736572</v>
+        <v>19.34640693664551</v>
       </c>
       <c r="F119" t="n">
         <v>99.678206977283</v>
@@ -6070,7 +6070,7 @@
         <v>349.557861328125</v>
       </c>
       <c r="E120" t="n">
-        <v>-12.70944499969482</v>
+        <v>18.56258201599121</v>
       </c>
       <c r="F120" t="n">
         <v>100.2689760212869</v>
@@ -6117,7 +6117,7 @@
         <v>350.4033508300781</v>
       </c>
       <c r="E121" t="n">
-        <v>-11.47361660003662</v>
+        <v>19.63390254974365</v>
       </c>
       <c r="F121" t="n">
         <v>99.84968065453766</v>
@@ -6164,7 +6164,7 @@
         <v>350.3241577148438</v>
       </c>
       <c r="E122" t="n">
-        <v>-12.53950595855713</v>
+        <v>18.77001476287842</v>
       </c>
       <c r="F122" t="n">
         <v>99.62653249739577</v>
@@ -6211,7 +6211,7 @@
         <v>344.8391418457031</v>
       </c>
       <c r="E123" t="n">
-        <v>-13.66846466064453</v>
+        <v>18.20518493652344</v>
       </c>
       <c r="F123" t="n">
         <v>99.2484409043979</v>
@@ -6258,7 +6258,7 @@
         <v>348.4029541015625</v>
       </c>
       <c r="E124" t="n">
-        <v>-12.23291397094727</v>
+        <v>18.47971534729004</v>
       </c>
       <c r="F124" t="n">
         <v>99.73672137501637</v>
@@ -6305,7 +6305,7 @@
         <v>347.3826293945312</v>
       </c>
       <c r="E125" t="n">
-        <v>-12.22905921936035</v>
+        <v>19.22324466705322</v>
       </c>
       <c r="F125" t="n">
         <v>99.1491072888911</v>
@@ -6352,7 +6352,7 @@
         <v>345.13134765625</v>
       </c>
       <c r="E126" t="n">
-        <v>-13.9361629486084</v>
+        <v>17.88247489929199</v>
       </c>
       <c r="F126" t="n">
         <v>99.44192644936197</v>
@@ -6399,7 +6399,7 @@
         <v>347.2852172851562</v>
       </c>
       <c r="E127" t="n">
-        <v>-11.94979763031006</v>
+        <v>19.53369140625</v>
       </c>
       <c r="F127" t="n">
         <v>99.45911103632361</v>
@@ -6446,7 +6446,7 @@
         <v>350.9818420410156</v>
       </c>
       <c r="E128" t="n">
-        <v>-11.95190048217773</v>
+        <v>19.72622966766357</v>
       </c>
       <c r="F128" t="n">
         <v>100.1433136729621</v>
@@ -6493,7 +6493,7 @@
         <v>349.1349182128906</v>
       </c>
       <c r="E129" t="n">
-        <v>-12.55001735687256</v>
+        <v>19.0405158996582</v>
       </c>
       <c r="F129" t="n">
         <v>99.27650287012406</v>
@@ -6540,7 +6540,7 @@
         <v>350.3612976074219</v>
       </c>
       <c r="E130" t="n">
-        <v>-12.48169136047363</v>
+        <v>18.96938705444336</v>
       </c>
       <c r="F130" t="n">
         <v>99.81476795673179</v>
@@ -6587,7 +6587,7 @@
         <v>349.6783752441406</v>
       </c>
       <c r="E131" t="n">
-        <v>-11.85974788665771</v>
+        <v>19.87304496765137</v>
       </c>
       <c r="F131" t="n">
         <v>99.92069523826551</v>
@@ -6634,7 +6634,7 @@
         <v>345.5623474121094</v>
       </c>
       <c r="E132" t="n">
-        <v>-12.88288879394531</v>
+        <v>18.47042942047119</v>
       </c>
       <c r="F132" t="n">
         <v>99.51546854979559</v>
@@ -6681,7 +6681,7 @@
         <v>343.7280578613281</v>
       </c>
       <c r="E133" t="n">
-        <v>-12.6008243560791</v>
+        <v>18.60918426513672</v>
       </c>
       <c r="F133" t="n">
         <v>99.13291482651587</v>
@@ -6728,7 +6728,7 @@
         <v>343.5234069824219</v>
       </c>
       <c r="E134" t="n">
-        <v>-12.20242977142334</v>
+        <v>19.08711814880371</v>
       </c>
       <c r="F134" t="n">
         <v>99.26468049810126</v>
@@ -6775,7 +6775,7 @@
         <v>341.7669067382812</v>
       </c>
       <c r="E135" t="n">
-        <v>-13.25920867919922</v>
+        <v>17.94484329223633</v>
       </c>
       <c r="F135" t="n">
         <v>98.71930969932654</v>
@@ -6822,7 +6822,7 @@
         <v>345.6572875976562</v>
       </c>
       <c r="E136" t="n">
-        <v>-12.31840896606445</v>
+        <v>18.84464645385742</v>
       </c>
       <c r="F136" t="n">
         <v>99.58507503361623</v>
@@ -6869,7 +6869,7 @@
         <v>324.8374328613281</v>
       </c>
       <c r="E137" t="n">
-        <v>-12.91687679290771</v>
+        <v>17.88913154602051</v>
       </c>
       <c r="F137" t="n">
         <v>87.95356299004517</v>
@@ -6916,7 +6916,7 @@
         <v>324.5658874511719</v>
       </c>
       <c r="E138" t="n">
-        <v>-13.2048978805542</v>
+        <v>17.65734767913818</v>
       </c>
       <c r="F138" t="n">
         <v>88.21274634424644</v>
@@ -6963,7 +6963,7 @@
         <v>328.7362365722656</v>
       </c>
       <c r="E139" t="n">
-        <v>-12.66389465332031</v>
+        <v>17.75703430175781</v>
       </c>
       <c r="F139" t="n">
         <v>88.94656341118217</v>
@@ -7010,7 +7010,7 @@
         <v>329.5309143066406</v>
       </c>
       <c r="E140" t="n">
-        <v>-12.2560396194458</v>
+        <v>2.121195793151855</v>
       </c>
       <c r="F140" t="n">
         <v>87.8130998455876</v>
@@ -7057,7 +7057,7 @@
         <v>312.19287109375</v>
       </c>
       <c r="E141" t="n">
-        <v>-11.50024700164795</v>
+        <v>12.72612333297729</v>
       </c>
       <c r="F141" t="n">
         <v>75.45014670044</v>
@@ -7104,7 +7104,7 @@
         <v>322.8107604980469</v>
       </c>
       <c r="E142" t="n">
-        <v>-12.23186302185059</v>
+        <v>12.923743724823</v>
       </c>
       <c r="F142" t="n">
         <v>76.44014496474239</v>
@@ -7151,7 +7151,7 @@
         <v>315.3464050292969</v>
       </c>
       <c r="E143" t="n">
-        <v>-11.17683601379395</v>
+        <v>13.30128955841064</v>
       </c>
       <c r="F143" t="n">
         <v>75.04728765878406</v>
